--- a/LISTAS IPTV.xlsx
+++ b/LISTAS IPTV.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 GITHUB RESPALDO\PAPAPUMUKY1 GITHUB\PAPAPUMUKY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B993E164-14F2-4F8A-A12B-A6DB1A01E14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314CC67C-A3C9-4DC0-8557-5C9564417D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12504" activeTab="1" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="DEPORTES" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="NEWS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="180">
   <si>
     <t>#EXTM3U</t>
   </si>
@@ -424,6 +425,159 @@
   </si>
   <si>
     <t>https://www.dropbox.com/scl/fi/na8tapjw605qc9no4xk2u/2024-05-28-DEPORTES-ACT.m3u?rlkey=kwbsf6eh9l6ltbman0sdqmxuf&amp;st=m6ncrzoo&amp;dl=0</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="Negocios TV" group="Informativos" logo="https://pbs.twimg.com/profile_images/1321367703731523584/bNMmbetI_200x200.jpg" audio-track="ISO 639-1 ES", Negocios TV</t>
+  </si>
+  <si>
+    <t>https://streaming013.gestec-video.com/hls/negociostv.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" logo="https://play-lh.googleusercontent.com/cq_1HNMi5V8RqgMhWaya8xD0osTPnKWVI_ESCLF_F5lu7GeSDKyeErdbvvlU3j8tcaY", EL CONFIDENCIAL</t>
+  </si>
+  <si>
+    <t>https://daqnsnf5phf17.cloudfront.net/v1/master/3722c60a815c199d9c0ef36c5b73da68a62b09d1/cc-sde7fypd1420w-prod/fast-channel-elconfidencial/fast-channel-elconfidencial.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:-1 tvg-chno="1" tvg-tags="tdt" tvg-country="ES" tvg-language="" tvg-shift="" tvg-id="" group-title="Noticias" tvg-name="" tvg-logo="https://graph.facebook.com/es.euronews/picture?width=200&amp;height=200",Euronews</t>
+  </si>
+  <si>
+    <t>##Origen: https://es.euronews.com/live</t>
+  </si>
+  <si>
+    <t>#https://euronews-euronews-spanish-2-mx.samsung.wurl.com/manifest/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>https://39997b2f529e4793961899e546833a75.mediatailor.us-east-1.amazonaws.com/v1/master/44f73ba4d03e9607dcd9bebdcb8494d86964f1d8/Samsung-es_EuroNewsLive/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="352", DW</t>
+  </si>
+  <si>
+    <t>https://dwamdstream104.akamaized.net/hls/live/2015530/dwstream104/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="2883" group="News" logo="https://i.imgur.com/05S3yYZ.png", CNN International Europe (720p)</t>
+  </si>
+  <si>
+    <t>https://cnn-cnninternational-1-eu.rakuten.wurl.tv/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="2883" group="Switzerland" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/CHBD800001D0_20230308T021423SQUARE.png_20230308021423.png", CNN</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/CHBD800001D0.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" logo="https://i.imgur.com/xGlToly.png", Bloomberg TV+ UHD (2160p)</t>
+  </si>
+  <si>
+    <t>https://bc20d7c2a7b14dd0ae827a2e3eb99116.mediatailor.us-east-1.amazonaws.com/v1/master/44f73ba4d03e9607dcd9bebdcb8494d86964f1d8/Samsung-gb_Bloomberg/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTuTduVskC-NILQa7Nnt_ZpoEKF5doyClFY41sXPHER8g&amp;s", ABC News USA EN</t>
+  </si>
+  <si>
+    <t>https://content.uplynk.com/channel/3324f2467c414329b3b0cc5cd987b6be.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="GB News" group="UK" logo="https://upload.wikimedia.org/wikipedia/en/thumb/3/35/GB_News_Logo.svg/640px-GB_News_Logo.svg.png", GB News</t>
+  </si>
+  <si>
+    <t>https://live-gbnews.simplestreamcdn.com/live5/gbnews/bitrate1.isml/manifest.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" logo="https://image.roku.com/developer_channels/prod/e05544ebbf9d0911e33072fd56b9724900b8e7e84fb53d21d6155a7850f359c0.png", OAN</t>
+  </si>
+  <si>
+    <t>http://stitcher-ipv4.pluto.tv/v1/stitch/embed/hls/channel/5e7cf6c7b156d500078c5f44/master.m3u8?deviceType=samsung-tvplus&amp;deviceMake=samsung&amp;deviceModel=samsung&amp;deviceVersion=unknown&amp;appVersion=unknown&amp;deviceLat=0&amp;deviceLon=0&amp;deviceDNT=%7BTARGETOPT%7D&amp;deviceId=%7BPSID%7D&amp;advertisingId=%7BPSID%7D&amp;us_privacy=1YNY&amp;samsung_app_domain=%7BAPP_DOMAIN%7D&amp;samsung_app_name=%7BAPP_NAME%7D&amp;profileLimit=&amp;profileFloor=&amp;embedPartner=samsung-tvplus</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="363" group="News" logo="https://upload.wikimedia.org/wikipedia/en/thumb/f/f2/Aljazeera_eng.svg/512px-Aljazeera_eng.svg.png", Al Jazeera English</t>
+  </si>
+  <si>
+    <t>https://d1cy85syyhvqz5.cloudfront.net/v1/master/7b67fbda7ab859400a821e9aa0deda20ab7ca3d2/aljazeeraLive/AJE/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="1320" name="La 1" group="Generalistas" logo="https://pbs.twimg.com/profile_images/899385012801470464/akSvNCqE_200x200.jpg", La 1</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://i.imgur.com/iCLFnWw.png", NASA TV Media (720p)</t>
+  </si>
+  <si>
+    <t>https://ntv2.akamaized.net/hls/live/2013923/NASA-NTV2-HLS/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://i.imgur.com/CH6VcTR.jpg", NASA TV Public (720p)</t>
+  </si>
+  <si>
+    <t>https://ntv1.akamaized.net/hls/live/2014075/NASA-NTV1-HLS/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="721" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/b/b4/NASA_TV.svg/512px-NASA_TV.svg.png", NASA TV</t>
+  </si>
+  <si>
+    <t>https://uplynkcontent.sinclairstoryline.com/channel/ddd76fdc1c0a456ba537e4f48e827d3e.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://i.imgur.com/M87kbVk.png", Clarity 4K (2160p)</t>
+  </si>
+  <si>
+    <t>https://d6s2o8so4wk28.cloudfront.net/v1/master/3722c60a815c199d9c0ef36c5b73da68a62b09d1/cc-2vzmnn0zl3exh-prod/amgclarity4k/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBA22000102A_20230913T030547SQUARE.png_20230913030547.png", Nature Time</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBA22000102A.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United Kingdom" logo="https://i.imgur.com/lPyJhBN.png", UN Web TV (540p)</t>
+  </si>
+  <si>
+    <t>https://cdnapi.kaltura.com/p/2503451/sp/250345100/playManifest/entryId/1_gb6tjmle/protocol/https/format/applehttp/a.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Canada" logo="https://tvpnlogopus.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/CABD1200010LE_20230912T232702SQUARE.png_20230912232703.png", BBC Food</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/CABD1200010LE.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="2832" group="Portugal" logo="https://i.imgur.com/w7GV86i.png", RTP 1 (720p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://streaming-live.rtp.pt/liverepeater/rtp1HD.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="2832" name="RTP1" group="Portugal" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/e/ec/RTP1_-_Logo_2016.svg/640px-RTP1_-_Logo_2016.svg.png", RTP1</t>
+  </si>
+  <si>
+    <t>https://streaming-live.rtp.pt/liverepeater/smil:rtp1HD.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="RTP2 Ⓖ" group="Portugal" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSLpR_lBIy9QXEthZxozlR8uPbXOllBJV5AddBUjWsqxvgkPd4xUy2A2l3D8i36dO1zcA&amp;usqp=CAU", RTP 3</t>
+  </si>
+  <si>
+    <t>https://streaming-live.rtp.pt/livetvhlsDVR/rtpndvr.smil/chunklist_b1290000_DVR_slpt.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Undefined" logo="https://i.imgur.com/tjI0dLx.png", Elche 7 TV (576p)</t>
+  </si>
+  <si>
+    <t>https://elche7tv.gestec-video.com/hls/canal2.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="esRadio" group="Radio_Populares" logo="https://graph.facebook.com/esradio/picture?width=200&amp;height=200", esRadio</t>
+  </si>
+  <si>
+    <t>https://libertaddigital-radio-live1.flumotion.com/libertaddigital/ld-live1-low.mp3</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="Vaughan Radio" group="Radio_C. de Madrid" logo="https://graph.facebook.com/GrupoVaughan/picture?width=200&amp;height=200", Vaughan Radio</t>
+  </si>
+  <si>
+    <t>https://vaughanradioweb.streaming-pro.com:8058/vaughanradio.mp3</t>
   </si>
 </sst>
 </file>
@@ -802,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE88F0A-9E4E-4E7F-A995-8D12451F325A}">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1506,6 +1660,50 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
     <mergeCell ref="A106:A107"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="A86:A87"/>
@@ -1516,50 +1714,6 @@
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1569,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B60351B-4707-4B49-B425-F96E58F51BEE}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1644,4 +1798,447 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEE9361-D9D5-4BDC-9A6D-E08768F4C9A4}">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LISTAS IPTV.xlsx
+++ b/LISTAS IPTV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 GITHUB RESPALDO\PAPAPUMUKY1 GITHUB\PAPAPUMUKY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314CC67C-A3C9-4DC0-8557-5C9564417D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AFF391-4B57-4A63-A535-A0C4120CA8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="174">
   <si>
     <t>#EXTM3U</t>
   </si>
@@ -514,34 +514,16 @@
     <t>https://ntv1.akamaized.net/hls/live/2014075/NASA-NTV1-HLS/master.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="721" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/b/b4/NASA_TV.svg/512px-NASA_TV.svg.png", NASA TV</t>
-  </si>
-  <si>
-    <t>https://uplynkcontent.sinclairstoryline.com/channel/ddd76fdc1c0a456ba537e4f48e827d3e.m3u8</t>
-  </si>
-  <si>
     <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://i.imgur.com/M87kbVk.png", Clarity 4K (2160p)</t>
   </si>
   <si>
     <t>https://d6s2o8so4wk28.cloudfront.net/v1/master/3722c60a815c199d9c0ef36c5b73da68a62b09d1/cc-2vzmnn0zl3exh-prod/amgclarity4k/playlist.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBA22000102A_20230913T030547SQUARE.png_20230913030547.png", Nature Time</t>
-  </si>
-  <si>
-    <t>https://i.mjh.nz/SamsungTVPlus/ESBA22000102A.m3u8</t>
-  </si>
-  <si>
     <t>#EXTINF:0 type="stream" channelId="-1" group="United Kingdom" logo="https://i.imgur.com/lPyJhBN.png", UN Web TV (540p)</t>
   </si>
   <si>
     <t>https://cdnapi.kaltura.com/p/2503451/sp/250345100/playManifest/entryId/1_gb6tjmle/protocol/https/format/applehttp/a.m3u8</t>
-  </si>
-  <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" group="Canada" logo="https://tvpnlogopus.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/CABD1200010LE_20230912T232702SQUARE.png_20230912232703.png", BBC Food</t>
-  </si>
-  <si>
-    <t>https://i.mjh.nz/SamsungTVPlus/CABD1200010LE.m3u8</t>
   </si>
   <si>
     <t>#EXTINF:0 type="stream" channelId="2832" group="Portugal" logo="https://i.imgur.com/w7GV86i.png", RTP 1 (720p) [Not 24/7]</t>
@@ -1660,6 +1642,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -1670,50 +1690,12 @@
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1804,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEE9361-D9D5-4BDC-9A6D-E08768F4C9A4}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -2169,46 +2151,46 @@
       <c r="A52" s="2">
         <v>26</v>
       </c>
-      <c r="B52" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>27</v>
       </c>
-      <c r="B54" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>28</v>
       </c>
-      <c r="B56" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" t="s">
-        <v>179</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A55"/>
@@ -2219,24 +2201,6 @@
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LISTAS IPTV.xlsx
+++ b/LISTAS IPTV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 GITHUB RESPALDO\PAPAPUMUKY1 GITHUB\PAPAPUMUKY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AFF391-4B57-4A63-A535-A0C4120CA8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9087884-2DDD-4FE9-9583-7742507806BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="180">
   <si>
     <t>#EXTM3U</t>
   </si>
@@ -532,12 +532,6 @@
     <t>https://streaming-live.rtp.pt/liverepeater/rtp1HD.smil/playlist.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="2832" name="RTP1" group="Portugal" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/e/ec/RTP1_-_Logo_2016.svg/640px-RTP1_-_Logo_2016.svg.png", RTP1</t>
-  </si>
-  <si>
-    <t>https://streaming-live.rtp.pt/liverepeater/smil:rtp1HD.smil/playlist.m3u8</t>
-  </si>
-  <si>
     <t>#EXTINF:0 type="stream" channelId="-1" name="RTP2 Ⓖ" group="Portugal" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSLpR_lBIy9QXEthZxozlR8uPbXOllBJV5AddBUjWsqxvgkPd4xUy2A2l3D8i36dO1zcA&amp;usqp=CAU", RTP 3</t>
   </si>
   <si>
@@ -560,6 +554,30 @@
   </si>
   <si>
     <t>https://vaughanradioweb.streaming-pro.com:8058/vaughanradio.mp3</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="NASA" group="YOUTUBE" logo="https://th.bing.com/th/id/R.dfe000c4d39e10adeac73e968d0081c0?rik=2qecWrg5GwkLaA&amp;riu=http%3a%2f%2fpluspng.com%2fimg-png%2fnasa-logo-png-nasa-logo-1664.png&amp;ehk=d%2bgvuoNz%2b0udsBSxL%2bAGF0N%2f1tWoj4H6GaKOJhRCIyQ%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0", NASA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/mhJRzQsLZGg?si=Z9Rw2caTlgovxqei</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="FOX" group="YOUTUBE" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/6/67/Fox_News_Channel_logo.svg/180px-Fox_News_Channel_logo.svg.png", FOX</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/YDfiTGGPYCk?si=nOJIVE2uyU0I7Ylk</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="CNN" group="YOUTUBE" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/6/66/CNN_International_logo.svg/2048px-CNN_International_logo.svg.png", CNN</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/YHYB_U-J-vo?si=_xm3rFoNLYDR5rlr</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="HURACAN" group="YOUTUBE" logo="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAOEAAADhCAMAAAAJbSJIAAABFFBMVEX////NKgD//v/8///4///LKwDOKAD//v7NJAD+//32///+/P/9//z7/f/PKADLGgDLEQDMAADIGwD++v/JJgDSGgDSKgjTCwDILQDMKgXNFwDuysHIIAD4//vihG70//npraH15N728u7dlID10sv85un03dLx1Mn+7uz07ub04dPwzL7st6jkno/diXrdcmPRVD/MORTQQSrwwbzTW0PTVTXjmpTZaVXbOBPXRzjijoDy9urrvKrSSCbcjnfSgGzPMBbv6drXb1blo4/NYUP4yLPfemfutrHsqaPpj4XYUTzQRhvltKLnkHLjUzDeclf4lH/yclL3uqDmaVfq1sXnqajZVk7egHXkwLbbrZTQbVnfU0TUI08+AAANpklEQVR4nO2di3fTthfHZUuyZVt+1nZsJ27z6PJo+kooy2hpCe0IW+mebIOx////+MnpYIXSRc4im985+sCB8Dg+/kZXV/dKVxIAEolEIpFIJBKJRCKRSCQSiUQikUgkEolEIpFIJBKJRCIWS9WpoUOEbJ0ybBve/r0NbUqN4p+AbkOoqxZUrXpfdV3s96Kg1R1+1en3B0v6/f5Xw64FIIQIsC8gp8gwan7V9UCjvfH+weHR8URzPYbve3cIXGd6fHR48N2jQWf0fyMQ2pYKcwC7o2b74mSqZZ6XuYRomqbcomkfPhefSMt1mXhXOX981Ltpdro6QKzl2U+o6nWL+SxbAOTD5tezbxpekIXhe12rcUgrY03sPDk6fTk4yxFCW2rdYj7L6On21MsCoiVp6jj8AhUFJ2mS4FBz3cDzvznqvdjL6xZzF0unzC3u9s4zz2Wyyij7hw/WqyghYabrXF/s97sIgi2V6jaqV+GWqY+fzbMgXEvaA2DMvq/J64PxmcH6d71GC/uHcy/S0jjepELWqKmiENf3jg+fPoe1KLMtC1lg1J747nqGyQmzWT/Z3n9OIbQhZT8qUwi3oP38jZM5IuUtwY4TZNH0YjwCEFTZJdH40stCnApXqCgx65esLcnsql+NNhZUmvn4WzZWV0UcE4wTJ4v8+eG4a8Kd3KBUoEAb7Tw99yPx9vkeTQtDN4u8Yrj0G97r/Q40kchwHb649kiaiLRPjJdDpEZcFvuR+fRk0TtoP3rUHDfHb19+9/1ie38opg11wALPzqXXEiiO6YrTmEVyru+Hx2+uXuyNPiOm2+8MVRF+lUUYPTdLhboXLWx5Xuv6TXvQoQgBExRZ2CehuGqaugo2nZSozFmD8atIE+I/naVhaiTzwuvFTb9bjH95kWMaULfvSTGMrc2HroZhWfkPGRGgjoE1xyGBm84OxrXli4aN9n5sbDT6/Iei7Zyf2rs6QhDVEqSx/gfMX6PWZu0Ta0XbhUzd/OimjyCkwGI2WUuczfL3nZ+zjcpjxElCgkCZtX+rMNx8AGqf/RI6eMMKUyeaXDSHwFRFRihc+gw0etyKNpsfFYQvlt+eXbM+kG8xH0MEDBFEm+zW41c+wTCfvyKJgDDUSaLWoHaFFks6916FkYhhHseJ1tqFRr1zhyy0GJ0Tsmkn8x6NJH2z3pk1fevsR5KIElgk8PNRjRNNKjTUnV+C1BEWarNolEzP1Ly2xRlqoZ9bkSh5S7SkcUnN2rqiBX+NxDXgEsdJgh6oa0SE1p6jCeuDf6NpjvcC6bQWQ1XzHwUlE5+QniGrDkNVwQ9RFbOFy65o1TBmWPk4S0Xb6HuJN6j6NoSUvhKU0X+GdFRD+EZ7YseJu4TRrGqFugE7G095HybGXnPLsKtUmFvoMkoqUxjGznTHqDR8o2jsCR7r74Kx1rgBlSrs7lyXT3pZhF743jTFWuyUTChTPK821zfHQVl9ihI5JMpc1yVEST+szfOCs4NKnQ28LjtSaK6XpU8ut08vto8ep1lASj5AC+fd6uQZcNcrYaOJloa+snjZ+WBmRufR9sSLkhTzhwyxdwNoRV3RQPAy4n+11Mmy1+OipOmOr0BQH2xHHn9hDcbMnQpYjvgsFHW8lL8badmiY0IE7zoKI4cIgdFpxh26p6niNWFFixa2dcW/hKZ5j/sQqIZq3bWw4k+GoaO9Sw9j3mms8AhV5E5NOuVuwbDRRvZDUXNuq3A/jAhnAJ80zqoRCOCYOyJ1JwOWvT70zasWs9bOccC5IBAH31U1YGxzDoZxdtJlxvhwMAKhagBj4aZcrUjCv8xqBJ7N+QQq0TG9twJ9H0gXLALkkIidoFOFPgCaGV83dK+7W6sFMtdsvAt4grjE8doc39h/BeqgF3A5PzLhC0J0A+jf8iUq5LUpft5Nh2DClVXgxoD7C6fDhMsstGQkfkg07JHPtdIUXJncL2PDtx6PQqXxm/hVbhuMOV4micNr0+D27Wwkf+bGHM7GrSTB6HHU5BGcDUrkc+y1R1nCsYrcmm28EOgeBpxx5D3YfQco/zy1qgL0PU+tLY6A8EbUKeZ4E83bK/lce8QT2WB/JHw+ig55AprwtVnSI+TgkKciNWuKkXWXXR6v54/Ljlu2vuevfm6ctYWIugvc5/iqtaBbtobVQPR4dU1OEl2IkXUXLld6CWBJhTpEPXd1JBFeilF1B7jgUJi1zdJTKjrY9VcqdJJrIaruAk9WJofYidbKAbpevCo6TclEeOSNjlcPh1prvYm/Vyv7YeoowhXaU47Jo+laM/AsllhlpmkcCJ817c5XDviYHK/37EN3VRtqxBtuVs99uBTO1nv2abA6rPkyFLaO1gseD1aGS7gShauTw3UVXnEMRF+EwrWttMexrPxFWGkarudp4Gm20pdqnnBfqj9ZOVrEeL7Wo9HR6tGCuOLX2FavHKYaWe81JitdaRUjPlid4qda1llnqa+7elFSqyBqg284JjFYFrdGTejAX+2m1w0mynDAkz3NACzfhr3V020OqSB72uepFHJLV0tCnWXAqxW6h8JnoowmzyyG9xaWfBNq73E8OHV/FyPr7ptwzUSR0nVoEF7wrEp6u0JUffQmNOaYTUy9vkpLlWnRrsOxOIN98aX7KjzhcKZJ9AyqpWbb4BWP9YeO+JV8CnmmohQc7CKrjKUOXcyx3kMuofBlYArfclQLOSk5zvmLX1hzP+OqqA4OxJdjQDTyY56XabTvb0F+8KGQZ0GrUFhBSY0O4YSrJC10+Y+pUEc87osFbemo7ChUHlUHpy0eiWk0Za/D4fnUfCv/g6eWE2utmSFeISgqFXis1FFax90tjsflW/RZA3MsHiaa34Z2FVtLulxFbVjR3BMeZ6MygQnX/reU5SxqFeWJaMFjpUyhEh13oWVZ/7bkh0C+8BOFq9okOl4jnl8HXsenYKf1ahfBf3N/hj36o8FZEu9UsLR2i81buZeybIe0jX9daHvqhJhnBV8p6tqGFdW1GeZpi8u7FyXAmjfbY/4PfhylFgv3qkrhaNsLixOCuBSGr00ez7UBKOj4fBU+S4i/6EC49fH4rwPdRMMDr8y+m0YTVlRfSnXwrsTmZi1xw6Px2ccGBgEdLLSGM+EXqE1zvaotFwYYNPgr2XHMhmp/+uZth4LleA0hHTUPrz035POhS5I4aIMqt808LrsbIXE9T3m8OOz1DrcfOw2v7DmDJJlXuqOEtw7tH5w4dnBYbCjJMuZanLjkVxQHX1e6o8QyrldPG30ELhymdvvpn1/5CZVupW2om02fJ5TcHI0/q9pscQvU6btI6JmPn6BNaLXnDhg63PMr2QR8qy/xm+KLEj9BRxXukmWJYR37gPPzynY646yOQ8x0lmJUcnonjlPvppLU/hMoAoclIpv10VIyo3ktZyqo3WkVdqrhaGTVcy4GAHsuXlmK9l/B2HtU24HWFtj3ObPX9SFZr2y98caAFoSHmWiFwbcwr/FQcnVnFiSaQENNSbUpxX3ss2kk4rC295D5sNLDIj6jEI3OSYlNweXQtHSA6r8nYC9NUjHNGC93h9UONDvzqMTEVAk0/7faTxVkw76um52piJMhUxIO4E7dAo0cmRCY43TjVpoyJ1O/ierMREF3fHEd8VQZlBPouOd1nJz0N6rFGq/40O0fnLi+ixW+BU5esKYp3oza9YwTepEZ5kXVyd6fRxPPFRF7x2no9eo81NMEer+9mHtRSxE0kUGiRyLOSnzgkaoKVZVFoLcnI0Aw3O2dED8jmpLGZacEuXCw924EdQGx6AOnvVLDojS3VbvodjeLadBwichZtrTl7OsVZ4MIGrTTvFocO74XcZ9EsiatxuUIWkKO+NC/GvQ/bkTIDIV2+k8Pth87yzvENAUnRFTfU5SExGHjfAwMq+zWPj6gSQe9n3764epm/+X+zc3VwcX2bKp4DS9whTjM+8RJ8M2NwFxJV23TNDoHU7/RYKKCICguflNKLID9R0gw/45aVOC0IdR1C1EEOjdHLS8jsZIkOE01If7yLo4Taw5O/CdtiuhONcMgPBtcnAde5AhXV4ATHBLvr2Z1UxV0xzAQQJ39xdSPhA4Mt8SR6y4GO7C6SV9VB7ZusB6PjH57tjw8zmHWuun7jZj5O0VZUeRNr4YAWLSSaqd7QHjWb1+mLPwMk2TjaW5KXC/YHu/UmebmeXEjKrPYi5PIb7Q2arNMXvzmbV5cJ1vjXaOWpbKAdGk+Z/39N9fYY83pFMdXsgZNtbInWCoJ1kiKY40Ql5yf7tKibo/WfwXJ36gIom7nZe/beZCxIIA5eYzLJr6xxqIiN2hNtx8NDVjz7ZP3gOpWlxb3R6FO/+bi9cT1vSwjhNtyi4bLPH9+edUcMV8N68pwH8YC+a3RGoXXQ1DvPGr3FicssvM9d3ksKUvNQ/z+ztvl7xqTxYQFrucHyvXs9Pfd5SViqkGhrepf5q23d1nevGx1O/3xfvv0zex4ej5JHZJlRc1MxuK+iOD5+ZOTn7a/X95dbH1xZrkKXV3erm3oLD82l8deGXp3NBp13jPsdrvFXyMzpwjZtq5/KT6FF2gYkBrFNVqqxQyYgqLOvJim+uD9Vcj+j0FZ6xUfIFT1/5tLqCUSiUQikUgkEolEIpFIJBKJRCKRSCQSiUQikUgkEonki+R/WZkwal1nqAYAAAAASUVORK5CYII=", HURACAN</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/8NWzku6SB4k?si=sDl9XXufhA0i6mMm</t>
   </si>
 </sst>
 </file>
@@ -1642,44 +1660,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -1696,6 +1676,44 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1786,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEE9361-D9D5-4BDC-9A6D-E08768F4C9A4}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -2151,34 +2169,56 @@
       <c r="A52" s="2">
         <v>26</v>
       </c>
+      <c r="B52" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>27</v>
       </c>
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
+      <c r="B55" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>28</v>
       </c>
+      <c r="B56" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
+      <c r="B57" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -2191,16 +2231,12 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LISTAS IPTV.xlsx
+++ b/LISTAS IPTV.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 GITHUB RESPALDO\PAPAPUMUKY1 GITHUB\PAPAPUMUKY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9087884-2DDD-4FE9-9583-7742507806BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FA6A62-7B5A-4EDA-A5C4-494E0DD1F906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="DEPORTES" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
     <sheet name="NEWS" sheetId="3" r:id="rId3"/>
+    <sheet name="NATURE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="188">
   <si>
     <t>#EXTM3U</t>
   </si>
@@ -578,6 +579,30 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/8NWzku6SB4k?si=sDl9XXufhA0i6mMm</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="NAMIBIA" group="YOUTUBE" logo="https://th.bing.com/th/id/OIG4.ofkYEP0a4qBjSkOvNUO4?pid=ImgGn", NAMIBIA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ydYDqZQpim8?si=Hj_OkLCLu_JQOXNu</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="Africam Nkorho" group="YOUTUBE" logo="https://th.bing.com/th/id/OIG4.ASi71RW2EEls_r8gRV2G?pid=ImgGn", Africam Nkorho</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/dIChLG4_WNs?si=E0EoJIWKZNjI-m7p</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="HURACAN" group="YOUTUBE" logo="https://tse1.mm.bing.net/th?id=OIG3.AnWy4QgcXB4vMXVO3yf4&amp;pid=ImgGn", HURACAN</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="NEWS" logo="https://i.imgur.com/M87kbVk.png", Clarity 4K (2160p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="NEWS" logo="https://i.imgur.com/iCLFnWw.png", NASA TV Media (720p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="NEWS" logo="https://i.imgur.com/CH6VcTR.jpg", NASA TV Public (720p)</t>
   </si>
 </sst>
 </file>
@@ -1660,6 +1685,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -1676,44 +1739,6 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1804,7 +1829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEE9361-D9D5-4BDC-9A6D-E08768F4C9A4}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -2209,16 +2234,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -2231,14 +2252,103 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3C7178-DFFD-464D-A7E7-EC14355D0A3C}">
+  <dimension ref="B1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LISTAS IPTV.xlsx
+++ b/LISTAS IPTV.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 GITHUB RESPALDO\PAPAPUMUKY1 GITHUB\PAPAPUMUKY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FA6A62-7B5A-4EDA-A5C4-494E0DD1F906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF056B2-DB55-40A8-97C4-39FBA05C539E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="DEPORTES" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
-    <sheet name="NEWS" sheetId="3" r:id="rId3"/>
-    <sheet name="NATURE" sheetId="4" r:id="rId4"/>
+    <sheet name="NEWS" sheetId="3" r:id="rId2"/>
+    <sheet name="NATURE" sheetId="4" r:id="rId3"/>
+    <sheet name="VARIAS" sheetId="6" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="376">
   <si>
     <t>#EXTM3U</t>
   </si>
@@ -428,33 +430,12 @@
     <t>https://www.dropbox.com/scl/fi/na8tapjw605qc9no4xk2u/2024-05-28-DEPORTES-ACT.m3u?rlkey=kwbsf6eh9l6ltbman0sdqmxuf&amp;st=m6ncrzoo&amp;dl=0</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" name="Negocios TV" group="Informativos" logo="https://pbs.twimg.com/profile_images/1321367703731523584/bNMmbetI_200x200.jpg" audio-track="ISO 639-1 ES", Negocios TV</t>
-  </si>
-  <si>
     <t>https://streaming013.gestec-video.com/hls/negociostv.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" logo="https://play-lh.googleusercontent.com/cq_1HNMi5V8RqgMhWaya8xD0osTPnKWVI_ESCLF_F5lu7GeSDKyeErdbvvlU3j8tcaY", EL CONFIDENCIAL</t>
-  </si>
-  <si>
     <t>https://daqnsnf5phf17.cloudfront.net/v1/master/3722c60a815c199d9c0ef36c5b73da68a62b09d1/cc-sde7fypd1420w-prod/fast-channel-elconfidencial/fast-channel-elconfidencial.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:-1 tvg-chno="1" tvg-tags="tdt" tvg-country="ES" tvg-language="" tvg-shift="" tvg-id="" group-title="Noticias" tvg-name="" tvg-logo="https://graph.facebook.com/es.euronews/picture?width=200&amp;height=200",Euronews</t>
-  </si>
-  <si>
-    <t>##Origen: https://es.euronews.com/live</t>
-  </si>
-  <si>
-    <t>#https://euronews-euronews-spanish-2-mx.samsung.wurl.com/manifest/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>https://39997b2f529e4793961899e546833a75.mediatailor.us-east-1.amazonaws.com/v1/master/44f73ba4d03e9607dcd9bebdcb8494d86964f1d8/Samsung-es_EuroNewsLive/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>#EXTINF:0 type="stream" channelId="352", DW</t>
-  </si>
-  <si>
     <t>https://dwamdstream104.akamaized.net/hls/live/2015530/dwstream104/index.m3u8</t>
   </si>
   <si>
@@ -470,15 +451,9 @@
     <t>https://i.mjh.nz/SamsungTVPlus/CHBD800001D0.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" logo="https://i.imgur.com/xGlToly.png", Bloomberg TV+ UHD (2160p)</t>
-  </si>
-  <si>
     <t>https://bc20d7c2a7b14dd0ae827a2e3eb99116.mediatailor.us-east-1.amazonaws.com/v1/master/44f73ba4d03e9607dcd9bebdcb8494d86964f1d8/Samsung-gb_Bloomberg/playlist.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTuTduVskC-NILQa7Nnt_ZpoEKF5doyClFY41sXPHER8g&amp;s", ABC News USA EN</t>
-  </si>
-  <si>
     <t>https://content.uplynk.com/channel/3324f2467c414329b3b0cc5cd987b6be.m3u8</t>
   </si>
   <si>
@@ -488,9 +463,6 @@
     <t>https://live-gbnews.simplestreamcdn.com/live5/gbnews/bitrate1.isml/manifest.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" logo="https://image.roku.com/developer_channels/prod/e05544ebbf9d0911e33072fd56b9724900b8e7e84fb53d21d6155a7850f359c0.png", OAN</t>
-  </si>
-  <si>
     <t>http://stitcher-ipv4.pluto.tv/v1/stitch/embed/hls/channel/5e7cf6c7b156d500078c5f44/master.m3u8?deviceType=samsung-tvplus&amp;deviceMake=samsung&amp;deviceModel=samsung&amp;deviceVersion=unknown&amp;appVersion=unknown&amp;deviceLat=0&amp;deviceLon=0&amp;deviceDNT=%7BTARGETOPT%7D&amp;deviceId=%7BPSID%7D&amp;advertisingId=%7BPSID%7D&amp;us_privacy=1YNY&amp;samsung_app_domain=%7BAPP_DOMAIN%7D&amp;samsung_app_name=%7BAPP_NAME%7D&amp;profileLimit=&amp;profileFloor=&amp;embedPartner=samsung-tvplus</t>
   </si>
   <si>
@@ -500,9 +472,6 @@
     <t>https://d1cy85syyhvqz5.cloudfront.net/v1/master/7b67fbda7ab859400a821e9aa0deda20ab7ca3d2/aljazeeraLive/AJE/index.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="favorites" channelId="1320" name="La 1" group="Generalistas" logo="https://pbs.twimg.com/profile_images/899385012801470464/akSvNCqE_200x200.jpg", La 1</t>
-  </si>
-  <si>
     <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://i.imgur.com/iCLFnWw.png", NASA TV Media (720p)</t>
   </si>
   <si>
@@ -521,9 +490,6 @@
     <t>https://d6s2o8so4wk28.cloudfront.net/v1/master/3722c60a815c199d9c0ef36c5b73da68a62b09d1/cc-2vzmnn0zl3exh-prod/amgclarity4k/playlist.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" group="United Kingdom" logo="https://i.imgur.com/lPyJhBN.png", UN Web TV (540p)</t>
-  </si>
-  <si>
     <t>https://cdnapi.kaltura.com/p/2503451/sp/250345100/playManifest/entryId/1_gb6tjmle/protocol/https/format/applehttp/a.m3u8</t>
   </si>
   <si>
@@ -533,9 +499,6 @@
     <t>https://streaming-live.rtp.pt/liverepeater/rtp1HD.smil/playlist.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" name="RTP2 Ⓖ" group="Portugal" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSLpR_lBIy9QXEthZxozlR8uPbXOllBJV5AddBUjWsqxvgkPd4xUy2A2l3D8i36dO1zcA&amp;usqp=CAU", RTP 3</t>
-  </si>
-  <si>
     <t>https://streaming-live.rtp.pt/livetvhlsDVR/rtpndvr.smil/chunklist_b1290000_DVR_slpt.m3u8</t>
   </si>
   <si>
@@ -545,15 +508,9 @@
     <t>https://elche7tv.gestec-video.com/hls/canal2.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" name="esRadio" group="Radio_Populares" logo="https://graph.facebook.com/esradio/picture?width=200&amp;height=200", esRadio</t>
-  </si>
-  <si>
     <t>https://libertaddigital-radio-live1.flumotion.com/libertaddigital/ld-live1-low.mp3</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" name="Vaughan Radio" group="Radio_C. de Madrid" logo="https://graph.facebook.com/GrupoVaughan/picture?width=200&amp;height=200", Vaughan Radio</t>
-  </si>
-  <si>
     <t>https://vaughanradioweb.streaming-pro.com:8058/vaughanradio.mp3</t>
   </si>
   <si>
@@ -575,9 +532,6 @@
     <t>https://www.youtube.com/embed/YHYB_U-J-vo?si=_xm3rFoNLYDR5rlr</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" name="HURACAN" group="YOUTUBE" logo="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAOEAAADhCAMAAAAJbSJIAAABFFBMVEX////NKgD//v/8///4///LKwDOKAD//v7NJAD+//32///+/P/9//z7/f/PKADLGgDLEQDMAADIGwD++v/JJgDSGgDSKgjTCwDILQDMKgXNFwDuysHIIAD4//vihG70//npraH15N728u7dlID10sv85un03dLx1Mn+7uz07ub04dPwzL7st6jkno/diXrdcmPRVD/MORTQQSrwwbzTW0PTVTXjmpTZaVXbOBPXRzjijoDy9urrvKrSSCbcjnfSgGzPMBbv6drXb1blo4/NYUP4yLPfemfutrHsqaPpj4XYUTzQRhvltKLnkHLjUzDeclf4lH/yclL3uqDmaVfq1sXnqajZVk7egHXkwLbbrZTQbVnfU0TUI08+AAANpklEQVR4nO2di3fTthfHZUuyZVt+1nZsJ27z6PJo+kooy2hpCe0IW+mebIOx////+MnpYIXSRc4im985+sCB8Dg+/kZXV/dKVxIAEolEIpFIJBKJRCKRSCQSiUQikUgkEolEIpFIJBKJRCIWS9WpoUOEbJ0ybBve/r0NbUqN4p+AbkOoqxZUrXpfdV3s96Kg1R1+1en3B0v6/f5Xw64FIIQIsC8gp8gwan7V9UCjvfH+weHR8URzPYbve3cIXGd6fHR48N2jQWf0fyMQ2pYKcwC7o2b74mSqZZ6XuYRomqbcomkfPhefSMt1mXhXOX981Ltpdro6QKzl2U+o6nWL+SxbAOTD5tezbxpekIXhe12rcUgrY03sPDk6fTk4yxFCW2rdYj7L6On21MsCoiVp6jj8AhUFJ2mS4FBz3cDzvznqvdjL6xZzF0unzC3u9s4zz2Wyyij7hw/WqyghYabrXF/s97sIgi2V6jaqV+GWqY+fzbMgXEvaA2DMvq/J64PxmcH6d71GC/uHcy/S0jjepELWqKmiENf3jg+fPoe1KLMtC1lg1J747nqGyQmzWT/Z3n9OIbQhZT8qUwi3oP38jZM5IuUtwY4TZNH0YjwCEFTZJdH40stCnApXqCgx65esLcnsql+NNhZUmvn4WzZWV0UcE4wTJ4v8+eG4a8Kd3KBUoEAb7Tw99yPx9vkeTQtDN4u8Yrj0G97r/Q40kchwHb649kiaiLRPjJdDpEZcFvuR+fRk0TtoP3rUHDfHb19+9/1ie38opg11wALPzqXXEiiO6YrTmEVyru+Hx2+uXuyNPiOm2+8MVRF+lUUYPTdLhboXLWx5Xuv6TXvQoQgBExRZ2CehuGqaugo2nZSozFmD8atIE+I/naVhaiTzwuvFTb9bjH95kWMaULfvSTGMrc2HroZhWfkPGRGgjoE1xyGBm84OxrXli4aN9n5sbDT6/Iei7Zyf2rs6QhDVEqSx/gfMX6PWZu0Ta0XbhUzd/OimjyCkwGI2WUuczfL3nZ+zjcpjxElCgkCZtX+rMNx8AGqf/RI6eMMKUyeaXDSHwFRFRihc+gw0etyKNpsfFYQvlt+eXbM+kG8xH0MEDBFEm+zW41c+wTCfvyKJgDDUSaLWoHaFFks6916FkYhhHseJ1tqFRr1zhyy0GJ0Tsmkn8x6NJH2z3pk1fevsR5KIElgk8PNRjRNNKjTUnV+C1BEWarNolEzP1Ly2xRlqoZ9bkSh5S7SkcUnN2rqiBX+NxDXgEsdJgh6oa0SE1p6jCeuDf6NpjvcC6bQWQ1XzHwUlE5+QniGrDkNVwQ9RFbOFy65o1TBmWPk4S0Xb6HuJN6j6NoSUvhKU0X+GdFRD+EZ7YseJu4TRrGqFugE7G095HybGXnPLsKtUmFvoMkoqUxjGznTHqDR8o2jsCR7r74Kx1rgBlSrs7lyXT3pZhF743jTFWuyUTChTPK821zfHQVl9ihI5JMpc1yVEST+szfOCs4NKnQ28LjtSaK6XpU8ut08vto8ep1lASj5AC+fd6uQZcNcrYaOJloa+snjZ+WBmRufR9sSLkhTzhwyxdwNoRV3RQPAy4n+11Mmy1+OipOmOr0BQH2xHHn9hDcbMnQpYjvgsFHW8lL8badmiY0IE7zoKI4cIgdFpxh26p6niNWFFixa2dcW/hKZ5j/sQqIZq3bWw4k+GoaO9Sw9j3mms8AhV5E5NOuVuwbDRRvZDUXNuq3A/jAhnAJ80zqoRCOCYOyJ1JwOWvT70zasWs9bOccC5IBAH31U1YGxzDoZxdtJlxvhwMAKhagBj4aZcrUjCv8xqBJ7N+QQq0TG9twJ9H0gXLALkkIidoFOFPgCaGV83dK+7W6sFMtdsvAt4grjE8doc39h/BeqgF3A5PzLhC0J0A+jf8iUq5LUpft5Nh2DClVXgxoD7C6fDhMsstGQkfkg07JHPtdIUXJncL2PDtx6PQqXxm/hVbhuMOV4micNr0+D27Wwkf+bGHM7GrSTB6HHU5BGcDUrkc+y1R1nCsYrcmm28EOgeBpxx5D3YfQco/zy1qgL0PU+tLY6A8EbUKeZ4E83bK/lce8QT2WB/JHw+ig55AprwtVnSI+TgkKciNWuKkXWXXR6v54/Ljlu2vuevfm6ctYWIugvc5/iqtaBbtobVQPR4dU1OEl2IkXUXLld6CWBJhTpEPXd1JBFeilF1B7jgUJi1zdJTKjrY9VcqdJJrIaruAk9WJofYidbKAbpevCo6TclEeOSNjlcPh1prvYm/Vyv7YeoowhXaU47Jo+laM/AsllhlpmkcCJ817c5XDviYHK/37EN3VRtqxBtuVs99uBTO1nv2abA6rPkyFLaO1gseD1aGS7gShauTw3UVXnEMRF+EwrWttMexrPxFWGkarudp4Gm20pdqnnBfqj9ZOVrEeL7Wo9HR6tGCuOLX2FavHKYaWe81JitdaRUjPlid4qda1llnqa+7elFSqyBqg284JjFYFrdGTejAX+2m1w0mynDAkz3NACzfhr3V020OqSB72uepFHJLV0tCnWXAqxW6h8JnoowmzyyG9xaWfBNq73E8OHV/FyPr7ptwzUSR0nVoEF7wrEp6u0JUffQmNOaYTUy9vkpLlWnRrsOxOIN98aX7KjzhcKZJ9AyqpWbb4BWP9YeO+JV8CnmmohQc7CKrjKUOXcyx3kMuofBlYArfclQLOSk5zvmLX1hzP+OqqA4OxJdjQDTyY56XabTvb0F+8KGQZ0GrUFhBSY0O4YSrJC10+Y+pUEc87osFbemo7ChUHlUHpy0eiWk0Za/D4fnUfCv/g6eWE2utmSFeISgqFXis1FFax90tjsflW/RZA3MsHiaa34Z2FVtLulxFbVjR3BMeZ6MygQnX/reU5SxqFeWJaMFjpUyhEh13oWVZ/7bkh0C+8BOFq9okOl4jnl8HXsenYKf1ahfBf3N/hj36o8FZEu9UsLR2i81buZeybIe0jX9daHvqhJhnBV8p6tqGFdW1GeZpi8u7FyXAmjfbY/4PfhylFgv3qkrhaNsLixOCuBSGr00ez7UBKOj4fBU+S4i/6EC49fH4rwPdRMMDr8y+m0YTVlRfSnXwrsTmZi1xw6Px2ccGBgEdLLSGM+EXqE1zvaotFwYYNPgr2XHMhmp/+uZth4LleA0hHTUPrz035POhS5I4aIMqt808LrsbIXE9T3m8OOz1DrcfOw2v7DmDJJlXuqOEtw7tH5w4dnBYbCjJMuZanLjkVxQHX1e6o8QyrldPG30ELhymdvvpn1/5CZVupW2om02fJ5TcHI0/q9pscQvU6btI6JmPn6BNaLXnDhg63PMr2QR8qy/xm+KLEj9BRxXukmWJYR37gPPzynY646yOQ8x0lmJUcnonjlPvppLU/hMoAoclIpv10VIyo3ktZyqo3WkVdqrhaGTVcy4GAHsuXlmK9l/B2HtU24HWFtj3ObPX9SFZr2y98caAFoSHmWiFwbcwr/FQcnVnFiSaQENNSbUpxX3ss2kk4rC295D5sNLDIj6jEI3OSYlNweXQtHSA6r8nYC9NUjHNGC93h9UONDvzqMTEVAk0/7faTxVkw76um52piJMhUxIO4E7dAo0cmRCY43TjVpoyJ1O/ierMREF3fHEd8VQZlBPouOd1nJz0N6rFGq/40O0fnLi+ixW+BU5esKYp3oza9YwTepEZ5kXVyd6fRxPPFRF7x2no9eo81NMEer+9mHtRSxE0kUGiRyLOSnzgkaoKVZVFoLcnI0Aw3O2dED8jmpLGZacEuXCw924EdQGx6AOnvVLDojS3VbvodjeLadBwichZtrTl7OsVZ4MIGrTTvFocO74XcZ9EsiatxuUIWkKO+NC/GvQ/bkTIDIV2+k8Pth87yzvENAUnRFTfU5SExGHjfAwMq+zWPj6gSQe9n3764epm/+X+zc3VwcX2bKp4DS9whTjM+8RJ8M2NwFxJV23TNDoHU7/RYKKCICguflNKLID9R0gw/45aVOC0IdR1C1EEOjdHLS8jsZIkOE01If7yLo4Taw5O/CdtiuhONcMgPBtcnAde5AhXV4ATHBLvr2Z1UxV0xzAQQJ39xdSPhA4Mt8SR6y4GO7C6SV9VB7ZusB6PjH57tjw8zmHWuun7jZj5O0VZUeRNr4YAWLSSaqd7QHjWb1+mLPwMk2TjaW5KXC/YHu/UmebmeXEjKrPYi5PIb7Q2arNMXvzmbV5cJ1vjXaOWpbKAdGk+Z/39N9fYY83pFMdXsgZNtbInWCoJ1kiKY40Ql5yf7tKibo/WfwXJ36gIom7nZe/beZCxIIA5eYzLJr6xxqIiN2hNtx8NDVjz7ZP3gOpWlxb3R6FO/+bi9cT1vSwjhNtyi4bLPH9+edUcMV8N68pwH8YC+a3RGoXXQ1DvPGr3FicssvM9d3ksKUvNQ/z+ztvl7xqTxYQFrucHyvXs9Pfd5SViqkGhrepf5q23d1nevGx1O/3xfvv0zex4ej5JHZJlRc1MxuK+iOD5+ZOTn7a/X95dbH1xZrkKXV3erm3oLD82l8deGXp3NBp13jPsdrvFXyMzpwjZtq5/KT6FF2gYkBrFNVqqxQyYgqLOvJim+uD9Vcj+j0FZ6xUfIFT1/5tLqCUSiUQikUgkEolEIpFIJBKJRCKRSCQSiUQikUgkEonki+R/WZkwal1nqAYAAAAASUVORK5CYII=", HURACAN</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/8NWzku6SB4k?si=sDl9XXufhA0i6mMm</t>
   </si>
   <si>
@@ -603,14 +557,921 @@
   </si>
   <si>
     <t>#EXTINF:0 type="stream" channelId="-1" group="NEWS" logo="https://i.imgur.com/CH6VcTR.jpg", NASA TV Public (720p)</t>
+  </si>
+  <si>
+    <t>https://directes-tv-cat.ccma.cat/live-content/tv3-hls/master.m3u8</t>
+  </si>
+  <si>
+    <t>https://bcovlive-a.akamaihd.net/c9bf201b06694453bb29282f97191f58/us-east-1/6240731308001/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>https://streaming.cloud.innovasur.es/mmj/index.m3u8</t>
+  </si>
+  <si>
+    <t>https://rakuten-spotlight-2-eu.rakuten.wurl.tv/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>https://rakuten-family-2-eu.rakuten.wurl.tv/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>https://europa-crtvg.flumotion.com/crtvg/europa_high/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>https://america-crtvg.flumotion.com/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>https://infantil-crtvg.flumotion.com/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>https://cdnlive.codev8.net/rtvalive/smil:channel1.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>https://d2xeo83q8fcni6.cloudfront.net/v1/master/9d062541f2ff39b5c0f48b743c6411d25f62fc25/SkiTV-SynapseTV/193.m3u8</t>
+  </si>
+  <si>
+    <t>https://tv.mediacp.eu:19360/cosmos/cosmos.m3u8</t>
+  </si>
+  <si>
+    <t>https://hls.rtasport.live/hls/stream.m3u8</t>
+  </si>
+  <si>
+    <t>https://directes-tv-cat.ccma.cat/live-origin/tv3-hls/master.m3u8</t>
+  </si>
+  <si>
+    <t>https://d22ljxpuae2sin.cloudfront.net/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://img.freepik.com/vector-premium/plantilla-logotipo-futbol-degradado_52683-84013.jpg?size=626&amp;ext=jpg", Türkmenistan Sport (406p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://alpha.tv.online.tm/hls/ch004.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/ONKNOAp.png", KSA Sports 1 (1080p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://edge.taghtia.com/sa/9.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/v8ULLqg.png", KSA Sports 2 (1080p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://edge.taghtia.com/sa/10.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/BXfCvez.png", KSA Sports 3 (1080p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://edge.taghtia.com/sa/16.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Algeria" logo="https://i.imgur.com/6BVWk8z.png", Abu Dhabi Sports 1 (1080p)</t>
+  </si>
+  <si>
+    <t>https://admdn1.cdn.mangomolo.com/adsports1/smil:adsports1.stream.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Germany" logo="https://i.imgur.com/SLrjImc.png", More Than Sports TV (1080p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United Arab Emirates" logo="https://i.imgur.com/4rVm3oZ.png", Abu Dhabi Sports 2 (1080p)</t>
+  </si>
+  <si>
+    <t>https://admdn5.cdn.mangomolo.com/adsports2/smil:adsports2.stream.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United Arab Emirates" logo="https://i.imgur.com/Poxw8lG.png", Dubai Sports 1 (1080p)</t>
+  </si>
+  <si>
+    <t>https://dmitnthfr.cdn.mgmlcdn.com/dubaisports/smil:dubaisports.stream.smil/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United Arab Emirates" logo="https://i.imgur.com/PMJ7Zmo.png", Dubai Sports 2 (720p)</t>
+  </si>
+  <si>
+    <t>https://dmitwlvvll.cdn.mangomolo.com/dubaisportshd/smil:dubaisportshd.smil/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United Arab Emirates" logo="https://i.imgur.com/U0A8Gex.png", Dubai Sports 3 (1080p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://dmitwlvvll.cdn.mangomolo.com/dubaisportshd5/smil:dubaisportshd5.smil/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Puerto Rico" logo="https://i.imgur.com/DVASpQj.png", WKAQ-DT1 (Telemundo PR) (1080p)</t>
+  </si>
+  <si>
+    <t>https://nbculocallive.akamaized.net/hls/live/2037499/puertorico/stream1/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/xevZNi6.png", CDR (720p)</t>
+  </si>
+  <si>
+    <t>https://live-hls-xgod.livepush.io/live_cdn/emaf6CHYV7M-RQcL2/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="4995" group="United Arab Emirates" logo="https://i.imgur.com/tYOxhA9.png", MBC Bollywood (1080p) [Geo-blocked]</t>
+  </si>
+  <si>
+    <t>https://shls-mbcbollywood-prod-dub.shahid.net/out/v1/a79c9d7ef2a64a54a64d5c4567b3462a/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://i.imgur.com/rUq7YcG.png", Pluto TV Mundo (720p)</t>
+  </si>
+  <si>
+    <t>https://service-stitcher.clusters.pluto.tv/stitch/hls/channel/5d8d103f031154a4172d262b/master.m3u8?advertisingId=&amp;appName=web&amp;appStoreUrl=&amp;appVersion=DNT&amp;app_name=&amp;architecture=&amp;buildVersion=&amp;deviceDNT=0&amp;deviceId=5d8d103f031154a4172d262b&amp;deviceLat=&amp;deviceLon=&amp;deviceMake=web&amp;deviceModel=web&amp;deviceType=web&amp;deviceVersion=DNT&amp;includeExtendedEvents=false&amp;marketingRegion=US&amp;serverSideAds=false&amp;sid=959&amp;terminate=false&amp;userId=</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/1omi7p8.png", Oman Sports TV (1080p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://partneta.cdn.mgmlcdn.com/omsport/smil:omsport.stream.smil/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="4328" group="Serbia" logo="https://i.imgur.com/vy66EXI.png", SOS Kanal Plus (720p)</t>
+  </si>
+  <si>
+    <t>https://53be5ef2d13aa.streamlock.net/soskanalplus/soskanalplus.stream/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="280" group="Sports" logo="https://i.imgur.com/YOr1Oac.png", FTV (720p)</t>
+  </si>
+  <si>
+    <t>https://master.tucableip.com/ftv/index.m3u8</t>
+  </si>
+  <si>
+    <t>https://ythls.onrender.com/channel/UCJElRTCNEmLemgirqvsW63Q.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="France" logo="https://i.imgur.com/t35zhM9.png", L'EQUIPE 21 TV</t>
+  </si>
+  <si>
+    <t>https://d3awaj0f2u3w26.cloudfront.net/v1/manifest/3722c60a815c199d9c0ef36c5b73da68a62b09d1/cc-gy7euubgydp20-ssai-prd/8fd3efae-4468-4ca0-9486-c6cdcb7b65d7/2.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="France", L'EQUIPE 21 TV 2</t>
+  </si>
+  <si>
+    <t>https://d2l55nvfkhk4sg.cloudfront.net/v1/manifest/3722c60a815c199d9c0ef36c5b73da68a62b09d1/cc-jg7go1lqzgpny-ssai-prd/435d04a5-ab47-47c5-a2c1-bae01ae6d0c1/2.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="New Zealand", Action Hollywood Movies</t>
+  </si>
+  <si>
+    <t>https://cdn-apse1-prod.tsv2.amagi.tv/linear/amg01076-lightningintern-actionhollywood-samsungnz/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://i.imgur.com/bZWoDTg.png", Cine Sony (720p)</t>
+  </si>
+  <si>
+    <t>https://cdn.klowdtv.net/803B48A/n1.klowdtv.net/live1/cine_720p/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://i.imgur.com/1JnyzHv.png", FOX News Now (720p)</t>
+  </si>
+  <si>
+    <t>https://fox-foxnewsnow-samsungus.amagi.tv/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://i.imgur.com/p16HNIM.png", Made in Hollywood</t>
+  </si>
+  <si>
+    <t>https://connection3-ent-nz.samsung.wurl.tv/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/b/b1/CNN.svg/512px-CNN.svg.png", Pluto TV CNN (360p)</t>
+  </si>
+  <si>
+    <t>https://service-stitcher.clusters.pluto.tv/stitch/hls/channel/5421f71da6af422839419cb3/master.m3u8?advertisingId=&amp;appName=web&amp;appStoreUrl=&amp;appVersion=DNT&amp;app_name=&amp;architecture=&amp;buildVersion=&amp;deviceDNT=0&amp;deviceId=5421f71da6af422839419cb3&amp;deviceLat=&amp;deviceLon=&amp;deviceMake=web&amp;deviceModel=web&amp;deviceType=web&amp;deviceVersion=DNT&amp;includeExtendedEvents=false&amp;marketingRegion=US&amp;serverSideAds=false&amp;sid=209&amp;terminate=false&amp;userId=</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1214" group="United States" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/9/9b/Sony_Movies_Logo.svg/512px-Sony_Movies_Logo.svg.png", Sony Movies (Sony Movie Channel)</t>
+  </si>
+  <si>
+    <t>http://n1.klowdtv.net/live1/smc_720p/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://upload.wikimedia.org/wikipedia/commons/9/98/NewsNetLogo2022.png", W14DK-D 14.2 NEWSNET</t>
+  </si>
+  <si>
+    <t>https://2-fss-2.streamhoster.com/pl_118/204972-1954106-1/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="4606" group="United States" logo="https://upload.wikimedia.org/wikipedia/en/e/e2/WeatherNation_logo.png", Weathernation (720p)</t>
+  </si>
+  <si>
+    <t>https://live-news-manifest.tubi.video/live-news-manifest/csm/extlive/tubiprd01,Cloudfront-Weather-Nation.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Canada" logo="https://tvpnlogopus.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/CABD1200010LE_20230912T232702SQUARE.png_20230912232703.png", BBC Food</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/CABD1200010LE.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Switzerland" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/CHBA22000080G_20230628T040504SQUARE.png_20230628040505.png", Tennis Channel</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/CHBA22000080G.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://tvpnlogopus.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/USBB4800005VO_20221116T013447SQUARE.png_20221116013447.png", CBS Sports HQ</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/USBB4800005VO.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United Kingdom" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/GBBD1100008YW_20230809T053403SQUARE.png_20230809053404.png", FIFA+</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/GBBD1100008YW.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="4" group="Sport" logo="https://i.imgur.com/ud7AVaF.png", Матч!</t>
+  </si>
+  <si>
+    <t>https://uiptv.do.am/1ufc/000000003/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Bosnia and Herzegovina" logo="https://i.imgur.com/3r3burN.png", Arena Sport 3 BA (1080p)</t>
+  </si>
+  <si>
+    <t>http://94.250.2.6:7374/play/a02o/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBA22000102A_20230913T030547SQUARE.png_20230913030547.png", Nature Time</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBA22000102A.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESAJ4500024LR_20230222T012038SQUARE.png_20230222012039.png", Euronews en directo</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESAJ4500024LR.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Austria" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ATAJ0500433A_20230208T012922SQUARE.png_20230208012923.png", Sportdigital Free</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ATAJ0500433A.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Dominican Republic" logo="https://i.imgur.com/DBvm7YS.png", AION TV (1080p)</t>
+  </si>
+  <si>
+    <t>https://vdo.aiontelevision.com:3735/live/aiontelevisionlive.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="New Zealand" logo="https://i.imgur.com/Ig28Cep.png", Sky open +1 (576p) [Geo-blocked]</t>
+  </si>
+  <si>
+    <t>https://linear-p.media.skyone.co.nz/primeplus1.clear.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1684" group="Sports" logo="https://i.imgur.com/Kbnxu7a.png", Esport3 (1080p) [Geo-blocked]</t>
+  </si>
+  <si>
+    <t>https://directes-tv-es.ccma.cat/live-origin/esport3-hls/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United Arab Emirates" logo="https://i.imgur.com/IaRaabJ.jpg", Sharjah Sports TV (1080p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Austria" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ATBD2600009FE_20230913T030454SQUARE.png_20230913030455.png", More than Sports TV</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ATBD2600009FE.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United Kingdom" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/GBBC300001ZW_20220323T071314SQUARE.png_20220323071317.png", Origin Sports</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/GBBC300001ZW.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1322" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBC410000577_20230913T030616SQUARE.png_20230913030616.png", Teledeporte</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBC410000577.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1320" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBC4100001NZ_20221109T010943SQUARE.png_20221109010943.png", La 1</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBC4100001NZ.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1321" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBC4100002AG_20221109T010944SQUARE.png_20221109010944.png", La 2</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBC4100002AG.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBA1400003LA_20230614T005905SQUARE.png_20230614005905.png", BBC Drama</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBA1400003LA.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBD1300001EP_20230712T021331SQUARE.png_20230712021332.png", Baywatch – Los Vigilantes de la Playa</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBD1300001EP.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBC4100004J1_20230614T005926SQUARE.png_20230614005927.png", 24H</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBC4100004J1.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBD80000288_20230712T021347SQUARE.png_20230712021348.png", Runtime Acción</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBD80000288.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBA2200004G5_20220323T081719SQUARE.png_20220323081722.png", MyTime Movie Network</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBA2200004G5.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESAJ45000181E_20220323T081350SQUARE.png_20220323081353.png", Acción - Rakuten TV</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESAJ45000181E.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/pxFamLr.png", ADO TV (720p)</t>
+  </si>
+  <si>
+    <t>https://stream01.adotv-fm.bj/ado-tv-live/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://assets.aionet.ir/channels/100347", Aio Sport 2 (480p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://af.ayas.ir/hls2/aiosport2.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://i.imgur.com/eMjutHS.png", CBS Sports Golazo Network</t>
+  </si>
+  <si>
+    <t>https://dai.google.com/linear/hls/event/GxrCGmwST0ixsrc_QgB6qw/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1143" name="BBC News" group="News (EN)" logo="https://raw.githubusercontent.com/tv-logo/tv-logos/main/countries/united-kingdom/bbc-news-uk.png", BBC News</t>
+  </si>
+  <si>
+    <t>http://92.114.85.81:8000/play/a00a/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="SportyStuff TV" group="UK" logo="https://i.imgur.com/uIgxHSY.png", SportyStuff TV</t>
+  </si>
+  <si>
+    <t>https://cdn.rtmp1.vodhosting.com/hls/SportyStuffTV.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1179" name="ITV 1" group="UK" logo="https://upload.wikimedia.org/wikipedia/en/thumb/1/1f/ITV1_logo_%282022%29.svg/640px-ITV1_logo_%282022%29.svg.png", ITV 1</t>
+  </si>
+  <si>
+    <t>http://92.114.85.81:8000/play/a00y/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1210" name="Channel 4" group="UK" logo="https://upload.wikimedia.org/wikipedia/en/thumb/9/9b/Channel_4_%28On_Demand%29_2023.svg/569px-Channel_4_%28On_Demand%29_2023.svg.png", Channel 4</t>
+  </si>
+  <si>
+    <t>http://92.114.85.77:8000/play/a0b9</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1183" name="ITV 2" group="UK" logo="https://upload.wikimedia.org/wikipedia/en/thumb/d/d8/ITV2_logo_2022.svg/640px-ITV2_logo_2022.svg.png", ITV 2</t>
+  </si>
+  <si>
+    <t>http://92.114.85.77:8000/play/a041</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1184" name="ITV 3" group="UK" logo="https://upload.wikimedia.org/wikipedia/en/thumb/6/67/ITV3_logo_2022.svg/640px-ITV3_logo_2022.svg.png", ITV 3</t>
+  </si>
+  <si>
+    <t>http://92.114.85.77:8000/play/a04z</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1185" name="ITV 4" group="UK" logo="https://upload.wikimedia.org/wikipedia/en/thumb/5/57/ITV4_logo_%282022%29.svg/640px-ITV4_logo_%282022%29.svg.png", ITV 4</t>
+  </si>
+  <si>
+    <t>http://92.114.85.77:8000/play/a05z</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="ITVBe Ⓢ" group="UK" logo="https://upload.wikimedia.org/wikipedia/en/thumb/f/f2/ITVBe_logo_%282022%29.svg/640px-ITVBe_logo_%282022%29.svg.png", ITVBe Ⓢ</t>
+  </si>
+  <si>
+    <t>http://92.114.85.77:8000/play/a09h</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="Food Network UK Ⓢ" group="UK" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Food_Network_logo.svg/768px-Food_Network_logo.svg.png", Food Network UK Ⓢ</t>
+  </si>
+  <si>
+    <t>http://92.114.85.79:8000/play/a0ci</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1175" name="Sky News" group="UK" logo="https://upload.wikimedia.org/wikipedia/en/thumb/5/57/Sky_News_logo.svg/1024px-Sky_News_logo.svg.png", Sky News</t>
+  </si>
+  <si>
+    <t>https://linear021-gb-hls1-prd-ak.cdn.skycdp.com/Content/HLS_001_hd/Live/channel(skynews)/index_mob.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="TalkTV" group="UK" logo="https://upload.wikimedia.org/wikipedia/en/8/83/TalkTV_logo.png", TalkTV</t>
+  </si>
+  <si>
+    <t>https://live-talktv-ssai.simplestreamcdn.com/v1/master/82267e84b9e5053b3fd0ade12cb1a146df74169a/talktv-live/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="2832" name="RTP1" group="Portugal" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/e/ec/RTP1_-_Logo_2016.svg/640px-RTP1_-_Logo_2016.svg.png", RTP1</t>
+  </si>
+  <si>
+    <t>https://streaming-live.rtp.pt/liverepeater/smil:rtp1HD.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="RTP2 Ⓖ" group="Portugal" logo="https://upload.wikimedia.org/wikipedia/en/4/4d/Rtp2_2016_logo.png", RTP2 Ⓖ</t>
+  </si>
+  <si>
+    <t>https://streaming-live.rtp.pt/liverepeater/rtp2HD.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="NHK World-Japan" group="Japan" logo="https://i.imgur.com/TDCuUDs.png", NHK World-Japan</t>
+  </si>
+  <si>
+    <t>https://nhkwlive-ojp.akamaized.net/hls/live/2003459/nhkwlive-ojp-en/index_4M.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/nbmnGwE.png", CCTV-5 (1080p)</t>
+  </si>
+  <si>
+    <t>http://39.134.24.161/dbiptv.sn.chinamobile.com/PLTV/88888890/224/3221226395/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/7k8ar1Z.png", M-Net Sport (720p)</t>
+  </si>
+  <si>
+    <t>http://ares.mnet.mk/hls/mnet-sport.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="4848" group="Sports" logo="https://i.imgur.com/8ANUZAu.png", Setanta Sports 1</t>
+  </si>
+  <si>
+    <t>https://ucdn.beetv.kz/btv/live/hls/000004498.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/rzPQ9Iz.png", Беларусь 5 Интернет</t>
+  </si>
+  <si>
+    <t>http://moobl.ru/hls/Belarus5_hd.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="4849" group="Sports" logo="https://i.imgur.com/NOBACb6.png", Setanta Sports 2</t>
+  </si>
+  <si>
+    <t>https://ucdn.beetv.kz/btv/live/hls/000004499.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Animation;XXX" logo="https://i.imgur.com/kNYY78z.png", XXX Cartoons (520p)</t>
+  </si>
+  <si>
+    <t>http://144.76.58.245:2307/cartoon/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Legislative" logo="https://i.imgur.com/3Qxpe72.png", Congreso de los Diputados 1 (360p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://congresodirecto.akamaized.net/hls/live/2038274/canal1/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Music" logo="https://i.imgur.com/Ty7GkoN.png", XPTV1 (720p)</t>
+  </si>
+  <si>
+    <t>https://janus.xpbroadcasting.com:8443/hls/xptv1.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://assets.aionet.ir/channels/100347", Aio Sport 1 (480p)</t>
+  </si>
+  <si>
+    <t>https://af.ayas.ir/hls2/aiosport.m3u8</t>
+  </si>
+  <si>
+    <r>
+      <t>#EXTINF:0 type="stream" channelId="2814" name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TV3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" group="Cataluña" logo="https://graph.facebook.com/tv3/picture?width=200&amp;height=200", TV3 GEO CAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#EXTINF:0 type="stream" channelId="1150" group="Undefined" logo="https://zap2it.tmsimg.com/h3/NowShowing/18332/s18332_h3_aa.png", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BBC America</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (720p)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#EXTINF:0 type="stream" channelId="-1" group="Undefined" logo="https://i.imgur.com/5KXkBbs.jpg", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Diez TV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1080p)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#EXTINF:0 type="stream" channelId="-1" group="Movies" logo="https://i.imgur.com/dWNxCqp.png", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rakuten Spotlight Spain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (720p)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#EXTINF:0 type="stream" channelId="-1" group="Family;Movies" logo="https://i.imgur.com/hboiinD.jpg", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rakuten TV Family Spain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (720p)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#EXTINF:0 type="stream" channelId="2531" group="Spain" logo="https://i.imgur.com/VGovTR1.png", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TVG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (720p)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://i.imgur.com/CzeVIZa.png", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TVG América</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (720p)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://i.imgur.com/KgbNv4G.png", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TVG Infantil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (720p) [Not 24/7]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#EXTINF:0 type="stream" channelId="1671" group="Spain" logo="https://i.imgur.com/A9TmimD.png", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Canal Sur Andalucía</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (720p)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/idKogRi.png", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ski TV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1080p) [Not 24/7]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#EXTINF:0 type="stream" channelId="-1" group="Argentina" logo="https://i0.wp.com/fmcosmos.com/wp-content/uploads/2021/11/COSMOS-TV.png", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cosmos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#EXTINF:0 type="stream" channelId="-1" group="Afghanistan" logo="https://i.imgur.com/AsqVIp7.png", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RTA Sports</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#EXTINF:0 type="stream" channelId="2814" name="TV3" group="Cataluña" logo="https://graph.facebook.com/tv3/picture?width=200&amp;height=200", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TV3 GEO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#EXTINF:0 type="stream" channelId="-1" group="Series" logo="https://i.imgur.com/c2esKHg.png",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Baywatch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/1IXQoWq.png", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sport En France</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1080p)</t>
+    </r>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="Negocios TV" group="NEWS" logo="https://pbs.twimg.com/profile_images/1321367703731523584/bNMmbetI_200x200.jpg" audio-track="ISO 639-1 ES", Negocios TV</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="NEWS" logo="https://play-lh.googleusercontent.com/cq_1HNMi5V8RqgMhWaya8xD0osTPnKWVI_ESCLF_F5lu7GeSDKyeErdbvvlU3j8tcaY", EL CONFIDENCIAL</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" name="EURONEWS" group="NEWS" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT3MqTVAchTeCB0YG9Ho8Kd4yaAlSQ83FNbfw&amp;s", EURONEWS</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="EURONEWS" group="YOUTUBE" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/3/39/Euronews._2016_alternative_logo.png/800px-Euronews._2016_alternative_logo.png", EURONEWS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/O9mOtdZ-nSk?si=FU5u3v-K85zM7k9O</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" name="DW" group="NEWS" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTX8h0N8FvyY0rdIg0lfNP2noOFhE4vNelXcg&amp;s", DW</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="2883" group="NEWS" logo="https://i.imgur.com/05S3yYZ.png", CNN International Europe (720p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="2883" group="NEWS" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/CHBD800001D0_20230308T021423SQUARE.png_20230308021423.png", CNN</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="NEWS" logo="https://i.imgur.com/xGlToly.png", Bloomberg TV+ UHD (2160p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="NEWS" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTuTduVskC-NILQa7Nnt_ZpoEKF5doyClFY41sXPHER8g&amp;s", ABC News USA EN</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="GB News" group="NEWS" logo="https://upload.wikimedia.org/wikipedia/en/thumb/3/35/GB_News_Logo.svg/640px-GB_News_Logo.svg.png", GB News</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="NEWS" logo="https://image.roku.com/developer_channels/prod/e05544ebbf9d0911e33072fd56b9724900b8e7e84fb53d21d6155a7850f359c0.png", OAN</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="363" group="NEWS" logo="https://upload.wikimedia.org/wikipedia/en/thumb/f/f2/Aljazeera_eng.svg/512px-Aljazeera_eng.svg.png", Al Jazeera English</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="1320" name="La 1" group="NEWS" logo="https://pbs.twimg.com/profile_images/899385012801470464/akSvNCqE_200x200.jpg", La 1</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="1321" group="NEWS" logo="https://i.imgur.com/3NwzqoB.png", La 2 (1080p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" name="RTVE 24H" group="NEWS" logo="https://i.imgur.com/WTDKOoM.png", RTVE 24H</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="NEWS" logo="https://i.imgur.com/lPyJhBN.png", UN Web TV (540p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="2832" group="NEWS" logo="https://i.imgur.com/w7GV86i.png", RTP 1 (720p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="RTP3 Ⓖ" group="NEWS" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSLpR_lBIy9QXEthZxozlR8uPbXOllBJV5AddBUjWsqxvgkPd4xUy2A2l3D8i36dO1zcA&amp;usqp=CAU", RTP 3</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="NEWS" logo="https://i.imgur.com/tjI0dLx.png", Elche 7 TV (576p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="esRadio" group="NEWS" logo="https://graph.facebook.com/esradio/picture?width=200&amp;height=200", esRadio</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="Vaughan Radio" group="NEWS" logo="https://graph.facebook.com/GrupoVaughan/picture?width=200&amp;height=200", Vaughan Radio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -637,7 +1498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -645,6 +1506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1685,44 +2547,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -1739,12 +2563,1683 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEE9361-D9D5-4BDC-9A6D-E08768F4C9A4}">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3C7178-DFFD-464D-A7E7-EC14355D0A3C}">
+  <dimension ref="B1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6586A6EE-C0F0-49C6-A206-D2A5DB28F013}">
+  <dimension ref="B1:B223"/>
+  <sheetViews>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B60351B-4707-4B49-B425-F96E58F51BEE}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1825,530 +4320,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEE9361-D9D5-4BDC-9A6D-E08768F4C9A4}">
-  <dimension ref="A1:B57"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B21068-C856-4109-B0D6-095AAA0E7650}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>22</v>
-      </c>
-      <c r="B44" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>23</v>
-      </c>
-      <c r="B46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>24</v>
-      </c>
-      <c r="B48" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>25</v>
-      </c>
-      <c r="B50" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>26</v>
-      </c>
-      <c r="B52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>27</v>
-      </c>
-      <c r="B54" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>28</v>
-      </c>
-      <c r="B56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
-      <c r="B57" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3C7178-DFFD-464D-A7E7-EC14355D0A3C}">
-  <dimension ref="B1:B14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LISTAS IPTV.xlsx
+++ b/LISTAS IPTV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 GITHUB RESPALDO\PAPAPUMUKY1 GITHUB\PAPAPUMUKY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF056B2-DB55-40A8-97C4-39FBA05C539E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93705CAB-11E3-4C0F-ACA4-3D0DBB4D3FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="370">
   <si>
     <t>#EXTM3U</t>
   </si>
@@ -757,18 +757,6 @@
     <t>https://2-fss-2.streamhoster.com/pl_118/204972-1954106-1/playlist.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="4606" group="United States" logo="https://upload.wikimedia.org/wikipedia/en/e/e2/WeatherNation_logo.png", Weathernation (720p)</t>
-  </si>
-  <si>
-    <t>https://live-news-manifest.tubi.video/live-news-manifest/csm/extlive/tubiprd01,Cloudfront-Weather-Nation.m3u8</t>
-  </si>
-  <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" group="Canada" logo="https://tvpnlogopus.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/CABD1200010LE_20230912T232702SQUARE.png_20230912232703.png", BBC Food</t>
-  </si>
-  <si>
-    <t>https://i.mjh.nz/SamsungTVPlus/CABD1200010LE.m3u8</t>
-  </si>
-  <si>
     <t>#EXTINF:0 type="stream" channelId="-1" group="Switzerland" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/CHBA22000080G_20230628T040504SQUARE.png_20230628040505.png", Tennis Channel</t>
   </si>
   <si>
@@ -797,12 +785,6 @@
   </si>
   <si>
     <t>http://94.250.2.6:7374/play/a02o/index.m3u8</t>
-  </si>
-  <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBA22000102A_20230913T030547SQUARE.png_20230913030547.png", Nature Time</t>
-  </si>
-  <si>
-    <t>https://i.mjh.nz/SamsungTVPlus/ESBA22000102A.m3u8</t>
   </si>
   <si>
     <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESAJ4500024LR_20230222T012038SQUARE.png_20230222012039.png", Euronews en directo</t>
@@ -1503,10 +1485,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1855,7 +1837,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1863,643 +1845,643 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
       <c r="B80" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
       <c r="B81" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
       <c r="B82" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
       <c r="B83" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
       <c r="B84" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
       <c r="B85" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="B86" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
+      <c r="A87" s="3"/>
       <c r="B87" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
       <c r="B88" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
       <c r="B89" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
+      <c r="A90" s="3"/>
       <c r="B90" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
+      <c r="A91" s="3"/>
       <c r="B91" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
       <c r="B92" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
       <c r="B93" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
       <c r="B94" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
       <c r="B95" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
       <c r="B96" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
       <c r="B97" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
       <c r="B98" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
+      <c r="A99" s="3"/>
       <c r="B99" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
+      <c r="A100" s="3"/>
       <c r="B100" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2"/>
+      <c r="A101" s="3"/>
       <c r="B101" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2"/>
+      <c r="A102" s="3"/>
       <c r="B102" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
+      <c r="A103" s="3"/>
       <c r="B103" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="2"/>
+      <c r="A104" s="3"/>
       <c r="B104" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="2"/>
+      <c r="A105" s="3"/>
       <c r="B105" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2"/>
+      <c r="A106" s="3"/>
       <c r="B106" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="2"/>
+      <c r="A107" s="3"/>
       <c r="B107" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2"/>
+      <c r="A108" s="3"/>
       <c r="B108" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="2"/>
+      <c r="A109" s="3"/>
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -2547,6 +2529,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -2563,44 +2583,6 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2622,105 +2604,105 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>8</v>
       </c>
       <c r="B16" t="s">
@@ -2728,13 +2710,13 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
       <c r="B18" t="s">
@@ -2742,125 +2724,125 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>18</v>
       </c>
       <c r="B36" t="s">
@@ -2868,13 +2850,13 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>19</v>
       </c>
       <c r="B38" t="s">
@@ -2882,13 +2864,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>20</v>
       </c>
       <c r="B40" t="s">
@@ -2896,13 +2878,13 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>21</v>
       </c>
       <c r="B42" t="s">
@@ -2910,13 +2892,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>22</v>
       </c>
       <c r="B44" t="s">
@@ -2924,13 +2906,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>23</v>
       </c>
       <c r="B46" t="s">
@@ -2938,13 +2920,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>24</v>
       </c>
       <c r="B48" t="s">
@@ -2952,52 +2934,48 @@
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -3010,12 +2988,16 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3024,112 +3006,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3C7178-DFFD-464D-A7E7-EC14355D0A3C}">
-  <dimension ref="B1:B20"/>
+  <dimension ref="B1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3149,13 +3106,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
@@ -3165,7 +3122,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
@@ -3175,7 +3132,7 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
@@ -3185,7 +3142,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -3195,7 +3152,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
@@ -3205,7 +3162,7 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
@@ -3215,7 +3172,7 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
@@ -3225,7 +3182,7 @@
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -3235,7 +3192,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
@@ -3245,7 +3202,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
@@ -3255,7 +3212,7 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
@@ -3265,7 +3222,7 @@
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
@@ -3275,7 +3232,7 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
@@ -3285,7 +3242,7 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
@@ -3295,7 +3252,7 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -3645,42 +3602,42 @@
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
@@ -3695,42 +3652,42 @@
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.3">
@@ -3745,27 +3702,27 @@
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
@@ -3785,142 +3742,142 @@
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
@@ -3935,102 +3892,102 @@
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
@@ -4045,82 +4002,82 @@
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
@@ -4165,32 +4122,32 @@
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
@@ -4205,22 +4162,22 @@
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.3">

--- a/LISTAS IPTV.xlsx
+++ b/LISTAS IPTV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 GITHUB RESPALDO\PAPAPUMUKY1 GITHUB\PAPAPUMUKY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93705CAB-11E3-4C0F-ACA4-3D0DBB4D3FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71B24CF-2ECB-4610-A4A9-522AB0634BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="DEPORTES" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="NATURE" sheetId="4" r:id="rId3"/>
     <sheet name="VARIAS" sheetId="6" r:id="rId4"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="5" r:id="rId6"/>
+    <sheet name="2024 07 01 fav" sheetId="5" r:id="rId6"/>
+    <sheet name="movies" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="527">
   <si>
     <t>#EXTM3U</t>
   </si>
@@ -1433,6 +1434,477 @@
   </si>
   <si>
     <t>#EXTINF:0 type="stream" channelId="-1" name="Vaughan Radio" group="NEWS" logo="https://graph.facebook.com/GrupoVaughan/picture?width=200&amp;height=200", Vaughan Radio</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Movies" logo="https://i.imgur.com/pw4NZK1.png", MyTime movie network Spain (1080p)</t>
+  </si>
+  <si>
+    <t>https://appletree-mytimespain-rakuten.amagi.tv/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="2335" group="Sports" logo="https://i.imgur.com/JUZDOCO.png", TVP Sport (720p)</t>
+  </si>
+  <si>
+    <t>https://cdn-main.lolokoko.tv/TVPSport.stream/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1328" group="Sports" logo="https://i.imgur.com/xA0l7DP.png", Fox Sports (720p)</t>
+  </si>
+  <si>
+    <t>https://lnc-fox-sports2.tubi.video/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="180" group="Undefined", Fox Sports 3</t>
+  </si>
+  <si>
+    <t>http://stream.flynetwifi.com:1935/live/mobile-108/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="170" group="Undefined", Fox Sports 2</t>
+  </si>
+  <si>
+    <t>http://stream.flynetwifi.com:1935/live/mobile-031/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/0/0c/FOX_Sports_logo.svg/512px-FOX_Sports_logo.svg.png", Fox Sports Mexico</t>
+  </si>
+  <si>
+    <t>http://stream.flynetwifi.com:1935/live/mobile-010/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/CQpuBeQ.png", TVQ Sports (720p)</t>
+  </si>
+  <si>
+    <t>https://dacastmmd.mmdlive.lldns.net/dacastmmd/1b6bbade53634f5a847b953c9adfd102/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="3192" group="United States", BBC Earth (720p)</t>
+  </si>
+  <si>
+    <t>https://lnc-bbc-earth.tubi.video/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://www.samsung.com/us/smg/content/dam/s7/home/televisions-and-home-theater/tvs/tvplus/03232021/Loupe4K_190x190.png?raw=true", Loupe 4K</t>
+  </si>
+  <si>
+    <t>https://d2dw21aq0j0l5c.cloudfront.net/v1/master/3722c60a815c199d9c0ef36c5b73da68a62b09d1/LoupeArt-prod/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/6/68/Telemundo_logo_2018.svg/512px-Telemundo_logo_2018.svg.png", Telemundo US</t>
+  </si>
+  <si>
+    <t>http://stream.flynetwifi.com:1935/live/mobile-040/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://i.imgur.com/ECPgLf6.png", NASA TV Media (720p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://i.imgur.com/ECPgLf6.png", NASA TV Public (720p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Movies" logo="https://i.imgur.com/NJYEYE3.png", Rakuten Action Movies</t>
+  </si>
+  <si>
+    <t>https://rakuten-actionmovies-2-es.samsung.wurl.tv/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="3368" group="France" logo="https://i.imgur.com/t35zhM9.png", L'Equipe</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/ipstreet312/freeiptv/master/ressources/dmotion/py/eqpe/equipe.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="3CAT Exclusiu 2" group="Cataluña" logo="https://graph.facebook.com/som3Cat/picture?width=200&amp;height=200", 3CAT Exclusiu 2 GEO CAT</t>
+  </si>
+  <si>
+    <t>https://directes-tv-cat.ccma.cat/live-origin/oca2-hls/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="3CAT Exclusiu 3" group="Cataluña" logo="https://graph.facebook.com/som3Cat/picture?width=200&amp;height=200", 3CAT Exclusiu 3 GEO CAT</t>
+  </si>
+  <si>
+    <t>https://directes-tv-cat.ccma.cat/live-origin/oca3-hls/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Music" logo="https://i.imgur.com/ZzV6JQp.png", CCTV-16 (1080p)</t>
+  </si>
+  <si>
+    <t>http://39.134.24.162/dbiptv.sn.chinamobile.com/PLTV/88888890/224/3221226921/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="3802" group="Sports" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/5/54/TyC_Sports_logo.svg/512px-TyC_Sports_logo.svg.png", TyC Sports</t>
+  </si>
+  <si>
+    <t>http://stream.flynetwifi.com:1935/live/mobile-005/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="3751" group="United States" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/3/3b/FOX_Deportes_logo.png/512px-FOX_Deportes_logo.png", Fox Deportes</t>
+  </si>
+  <si>
+    <t>http://stream.flynetwifi.com:1935/live/mobile-104/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://www.lyngsat.com/logo/tv/tt/turkmenistan-sport-tm.png", Türkmenistan Sport (406p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="Negocios TV" group="Informativos" logo="https://pbs.twimg.com/profile_images/1321367703731523584/bNMmbetI_200x200.jpg" audio-track="ISO 639-1 ES", Negocios TV</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" logo="https://i.imgur.com/xGlToly.png", Bloomberg TV+ UHD (2160p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" logo="https://play-lh.googleusercontent.com/cq_1HNMi5V8RqgMhWaya8xD0osTPnKWVI_ESCLF_F5lu7GeSDKyeErdbvvlU3j8tcaY", EL CONFIDENCIAL</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTuTduVskC-NILQa7Nnt_ZpoEKF5doyClFY41sXPHER8g&amp;s", ABC News USA EN</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="721" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/b/b4/NASA_TV.svg/512px-NASA_TV.svg.png", NASA TV</t>
+  </si>
+  <si>
+    <t>https://uplynkcontent.sinclairstoryline.com/channel/ddd76fdc1c0a456ba537e4f48e827d3e.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" logo="https://image.roku.com/developer_channels/prod/e05544ebbf9d0911e33072fd56b9724900b8e7e84fb53d21d6155a7850f359c0.png", OAN</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="2814" name="TV3" group="Cataluña" logo="https://graph.facebook.com/tv3/picture?width=200&amp;height=200", TV3 GEO CAT</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" name="esRadio" group="Radio_Populares" logo="https://graph.facebook.com/esradio/picture?width=200&amp;height=200", esRadio</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="United Kingdom" logo="https://i.imgur.com/lPyJhBN.png", UN Web TV (540p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Family;Movies" logo="https://i.imgur.com/hboiinD.jpg", Rakuten TV Family Spain (720p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Argentina" logo="https://i0.wp.com/fmcosmos.com/wp-content/uploads/2021/11/COSMOS-TV.png", Cosmos TV</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Canada" logo="https://tvpnlogopus.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/CABD1200010LE_20230912T232702SQUARE.png_20230912232703.png", BBC Food</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/CABD1200010LE.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1143" group="News" logo="https://i.imgur.com/REuN9RR.png", BBC News (North America) (1080p)</t>
+  </si>
+  <si>
+    <t>https://d2vnbkvjbims7j.cloudfront.net/containerA/LTN/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1972" group="News" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/b/b6/Logo_de_CNN_en_Espa%C3%B1ol_%282010-2015%29.svg/512px-Logo_de_CNN_en_Espa%C3%B1ol_%282010-2015%29.svg.png", CNN en Español</t>
+  </si>
+  <si>
+    <t>http://stream.flynetwifi.com:1935/live/mobile-061/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="News" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/b/b1/CNN.svg/512px-CNN.svg.png", CNN USA (720p) [Geo-blocked]</t>
+  </si>
+  <si>
+    <t>https://turnerlive.warnermediacdn.com/hls/live/586495/cnngo/cnn_slate/VIDEO_0_3564000.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="News" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/6/67/Fox_News_Channel_logo.svg/512px-Fox_News_Channel_logo.svg.png", Fox News Channel</t>
+  </si>
+  <si>
+    <t>http://247preview.foxnews.com/hls/live/2020027/fncv3preview/primary.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="News" logo="https://i.imgur.com/1JnyzHv.png", FOX News Now (720p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="News" logo="https://upload.wikimedia.org/wikipedia/en/thumb/8/84/One_America_News_Network_logo.svg/512px-One_America_News_Network_logo.svg.png", OAN (1080p)</t>
+  </si>
+  <si>
+    <t>https://oneamericanews-roku-us.amagi.tv/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1330" group="Panama" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/d/de/HBO_logo.svg/512px-HBO_logo.svg.png", HBO</t>
+  </si>
+  <si>
+    <t>http://stream.flynetwifi.com:1935/live/mobile-015/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="935" group="Panama" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/6/6c/HBO2_logo.svg/512px-HBO2_logo.svg.png", HBO2</t>
+  </si>
+  <si>
+    <t>http://stream.flynetwifi.com:1935/live/mobile-094/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Dominican Republic" logo="https://i.imgur.com/OprRgQN.png", eSports Max (480p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>http://vcpar.myplaytv.com/esportsmax/live/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="India" logo="https://i.imgur.com/hWo7Ba4.png", Sony Sports Ten 1 (1080p)</t>
+  </si>
+  <si>
+    <t>https://dai.google.com/linear/hls/event/wG75n5U8RrOKiFzaWObXbA/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="India" logo="https://i.imgur.com/W96KVqu.png", Sony Sports TEN 2 HD (1080p)</t>
+  </si>
+  <si>
+    <t>https://dai.google.com/linear/hls/event/V9h-iyOxRiGp41ppQScDSQ/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="India" logo="https://i.imgur.com/vG19HxD.png", Sony Sports Ten 3 HD (1080p)</t>
+  </si>
+  <si>
+    <t>https://dai.google.com/linear/hls/event/ltsCG7TBSCSDmyq0rQtvSA/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="India" logo="https://i.imgur.com/dVRMHM4.png", Sony Sports Ten 4 HD (1080p)</t>
+  </si>
+  <si>
+    <t>https://dai.google.com/linear/hls/event/tNzcW2ZhTVaViggo5ocI-A/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBA22000102A_20230913T030547SQUARE.png_20230913030547.png", Nature Time</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBA22000102A.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="3240" name="RTP2 Ⓖ" group="Portugal" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSLpR_lBIy9QXEthZxozlR8uPbXOllBJV5AddBUjWsqxvgkPd4xUy2A2l3D8i36dO1zcA&amp;usqp=CAU", RTP 3</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Business" logo="https://i.imgur.com/xGlToly.png", Bloomberg TV+</t>
+  </si>
+  <si>
+    <t>https://bloomberg-bloombergtv-3-nl.samsung.wurl.tv/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/wULpnYR.png", All Sports (720p)</t>
+  </si>
+  <si>
+    <t>https://5cf4a2c2512a2.streamlock.net/dgrau/dgrau/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1925" group="Sports" logo="https://i.imgur.com/THk9ARS.png", DeporTV (1080p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://538d0bde28ccf.streamlock.net/live-cont.ar/deportv/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/0sNWg54.png", Sports Connect (720p)</t>
+  </si>
+  <si>
+    <t>https://origin3.afxp.telemedia.co.za/PremiumFree/sportsconnect/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/BKaEtqL.png", Астрахань.Ru Sport (720p)</t>
+  </si>
+  <si>
+    <t>https://streaming.astrakhan.ru/astrakhanrusporthd/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Belize", STAR</t>
+  </si>
+  <si>
+    <t>http://170.254.18.106/STAR/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" name="National Geographic Finland" group="Finland" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fc/Natgeologo.svg/512px-Natgeologo.svg.png", National Geographic Finland</t>
+  </si>
+  <si>
+    <t>https://live-fi.tvkaista.net/national-geographic/live.m3u8?src=freetv</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" name="Dubai Sports 1" group="United Arab Emirates" logo="https://www.lyngsat.com/logo/tv/dd/dubai-sports-ae.png", Dubai Sports 1</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" name="Dubai Sports 3" group="United Arab Emirates" logo="https://www.lyngsat.com/logo/tv/dd/dubai-sports-ae.png", Dubai Sports 3</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="4980" name="Dubai Racing 1" group="United Arab Emirates" logo="https://www.lyngsat.com/logo/tv/dd/dubai-racing-ae.png", Dubai Racing 1</t>
+  </si>
+  <si>
+    <t>https://dmisvthvll.cdn.mgmlcdn.com/events/smil:events.stream.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="4963" name="Sharjah TV" group="United Arab Emirates" logo="https://www.lyngsat.com/logo/tv/ss/sharjah-tv-ae.png", Sharjah TV</t>
+  </si>
+  <si>
+    <t>https://svs.itworkscdn.net/smc1live/smc1.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="4964" name="Sharjah Sports" group="United Arab Emirates" logo="https://i.imgur.com/IaRaabJ.jpg", Sharjah Sports</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" name="NBC News NOW" group="News" logo="https://raw.githubusercontent.com/tv-logo/tv-logos/main/countries/united-kingdom/nbc-news-now-uk.png", NBC News NOW</t>
+  </si>
+  <si>
+    <t>https://dai2.xumo.com/amagi_hls_data_xumo1212A-xumo-nbcnewsnow/CDN/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="2883" name="CNN" group="News" logo="https://raw.githubusercontent.com/tv-logo/tv-logos/main/countries/united-states/cnn-us.png", CNN</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Alstruit/adaptive-streams/alstruit-10_23_us/streams/us/CNNUSA.us.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="2883" name="CNN International" group="News" logo="https://raw.githubusercontent.com/tv-logo/tv-logos/main/countries/united-states/cnn-us.png", CNN International</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" name="GB News" group="News" logo="https://upload.wikimedia.org/wikipedia/en/thumb/3/35/GB_News_Logo.svg/512px-GB_News_Logo.svg.png", GB News</t>
+  </si>
+  <si>
+    <t>https://ythls.armelin.one/channel/UC0vn8ISa4LKMunLbzaXLnOQ.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" name="AccuWeather NOW" group="Weather" logo="https://i.imgur.com/M8wbVYK.png", AccuWeather NOW</t>
+  </si>
+  <si>
+    <t>https://cdn-ue1-prod.tsv2.amagi.tv/linear/amg00684-accuweather-accuweather-plex/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" name="Fox Weather" group="Weather" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/b/b9/Fox_Weather_logo.svg/512px-Fox_Weather_logo.svg.png", Fox Weather</t>
+  </si>
+  <si>
+    <t>https://lnc-fox-weather.tubi.video/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="4606" name="WeatherNation" group="Weather" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/d/de/WeatherNation_Logo.svg/512px-WeatherNation_Logo.svg.png", WeatherNation</t>
+  </si>
+  <si>
+    <t>https://service-stitcher.clusters.pluto.tv/stitch/hls/channel/5bdce04659ee03633e758130/master.m3u8?advertisingId=&amp;appName=web&amp;appStoreUrl=&amp;appVersion=DNT&amp;app_name=&amp;architecture=&amp;buildVersion=&amp;deviceDNT=0&amp;deviceId=5bdce04659ee03633e758130&amp;deviceLat=&amp;deviceLon=&amp;deviceMake=web&amp;deviceModel=web&amp;deviceType=web&amp;deviceVersion=DNT&amp;includeExtendedEvents=false&amp;marketingRegion=US&amp;serverSideAds=false&amp;sid=217&amp;terminate=false&amp;userId=</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Sport" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSsDh1S1RPbvbF_KB4NCbMZPuapcgN1ohcgrA&amp;usqp=CAU", Turkmenistan Sport</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Sports" logo="https://i.imgur.com/bBnWaq2.png", Contacto Deportivo (720p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Sports" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRKYBe-NFc5X9danVEwcWxHgZqKDOvG1cXSCw&amp;s", Futbol (1080p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Sports" logo="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSg-Gct6JpRMySlul0rxS4GPqU1X8QeTrPWWQ&amp;s", Poker TV (720p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="France" logo="https://babaktv.com/wp-content/uploads/2023/04/persiana-sport.jpeg", Persiana Sport</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Iran" logo="https://assets.aionet.ir/channels/100347", Aio Sport 2 [Geo-blocked]</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Iran" logo="https://assets.aionet.ir/channels/100347", Aio Sport 1 [Geo-blocked]</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="631" group="Sports" logo="https://i.imgur.com/VBqVkno.png", Старт (1080p) [Geo-blocked]</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="2496" group="Sports" logo="https://i.imgur.com/XcrkfGh.png", TVMAX (720p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="2531" name="TVG" group="Galicia" logo="https://graph.facebook.com/CRTVG/picture?width=200&amp;height=200", TVG</t>
+  </si>
+  <si>
+    <t>https://crtvg-europa.flumotion.cloud/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="1320" name="La 1" group="Generalistas" logo="https://pbs.twimg.com/profile_images/899385012801470464/akSvNCqE_200x200.jpg", La 1</t>
+  </si>
+  <si>
+    <t>https://rtvelivestream.akamaized.net/rtvesec/la1/la1_main_dvr.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="1332" name="Real Madrid TV" group="Deportivos" logo="https://graph.facebook.com/RealMadrid/picture?width=200&amp;height=200", Real Madrid TV</t>
+  </si>
+  <si>
+    <t>https://rmtv.akamaized.net/hls/live/2043153/rmtv-es-web/master.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Peru" logo="https://i.imgur.com/7bGVFBa.png", AsiriTV (720p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://video2.lhdserver.es/asiritv/live.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Peru" logo="https://i.imgur.com/2zCD4TB.png", Doble C Televisión [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://7.innovatestream.pe:19360/cctvchupaca/cctvchupaca.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Peru" logo="https://i.imgur.com/ZnmAXVv.png", France 24 Español (1080p)</t>
+  </si>
+  <si>
+    <t>https://ythls.armelin.one/channel/UCUdOoVWuWmgo1wByzcsyKDQ.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Peru" logo="https://i.imgur.com/A1xzjOI.png", DW Español (1080p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Peru" logo="https://i.imgur.com/g5ShxZ7.png", Las Estrellas Latin America (720p)</t>
+  </si>
+  <si>
+    <t>https://channel01.akamaized.net/hls/live/2022749/event01/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Peru" logo="https://i.imgur.com/ad0GNqa.png", Nacional Tv Peru</t>
+  </si>
+  <si>
+    <t>https://s1.tvdatta.com:3349/live/nacionaltvlive.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Peru" logo="https://i.imgur.com/Dzen7sh.png", Televisión Tarapoto (720p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://ott1.hdlatam.tv/live_abr/webtvTarapotoPe/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Peru" logo="https://i.imgur.com/FnInQRd.png", Tevex (720p) [Not 24/7]</t>
+  </si>
+  <si>
+    <t>https://v4.tustreaming.cl/tevexinter/index.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="2542" group="Peru" logo="https://i.imgur.com/6io0IrX.png", TV Perú</t>
+  </si>
+  <si>
+    <t>https://cdnhd.iblups.com/hls/777b4d4cc0984575a7d14f6ee57dbcaf.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Peru" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/e/e3/TV_Per%C3%BA_Internacional_2019_-_copia.png/512px-TV_Per%C3%BA_Internacional_2019_-_copia.png", TV Perú Internacional (1080p)</t>
+  </si>
+  <si>
+    <t>https://cdnhd.iblups.com/hls/ee2450c81e554f4cae0e6292106993c2.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Peru" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/TV_Per%C3%BA_Noticias_-_2019_logo.png/512px-TV_Per%C3%BA_Noticias_-_2019_logo.png", TV Perú Noticias</t>
+  </si>
+  <si>
+    <t>https://cdnhd.iblups.com/hls/902c1a0395264f269f1160efa00660e4.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Peru" logo="https://i.imgur.com/X5hyKU8.png", VPItv (1080p)</t>
+  </si>
+  <si>
+    <t>https://ott3.streann.com/loadbalancer/services/public/channels/5d23d5882cdce61dae029fd8/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="2545" group="Peru" logo="https://i.imgur.com/8Hvk59N.png", Latina (720p)</t>
+  </si>
+  <si>
+    <t>https://redirector.rudo.video/hls-video/567ffde3fa319fadf3419efda25619456231dfea/latina/latina.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Sports" logo="https://i.imgur.com/PMJ7Zmo.png", Dubai Sports 2 (720p)</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" name="Vaughan Radio" group="Radio_C. de Madrid" logo="https://graph.facebook.com/GrupoVaughan/picture?width=200&amp;height=200", Vaughan Radio</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" group="Sports" logo="https://iili.io/J1kV1Bn.png", ITV Deportes</t>
+  </si>
+  <si>
+    <t>https://thm-it-roku.otteravision.com/thm/it/it.m3u8</t>
   </si>
 </sst>
 </file>
@@ -2529,44 +3001,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -2583,6 +3017,44 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2970,12 +3442,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -2988,16 +3464,12 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3006,10 +3478,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3C7178-DFFD-464D-A7E7-EC14355D0A3C}">
-  <dimension ref="B1:B15"/>
+  <dimension ref="B1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -3087,6 +3559,46 @@
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -4279,14 +4791,3141 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B21068-C856-4109-B0D6-095AAA0E7650}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B427"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView topLeftCell="B129" workbookViewId="0">
+      <selection activeCell="B272" sqref="B272:B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>33</v>
+      </c>
+      <c r="B66" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="B73" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3"/>
+      <c r="B77" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+      <c r="B79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>41</v>
+      </c>
+      <c r="B82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>42</v>
+      </c>
+      <c r="B84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3"/>
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>43</v>
+      </c>
+      <c r="B86" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
+      <c r="B87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>44</v>
+      </c>
+      <c r="B88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3"/>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>45</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3"/>
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>46</v>
+      </c>
+      <c r="B92" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3"/>
+      <c r="B93" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>47</v>
+      </c>
+      <c r="B94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3"/>
+      <c r="B95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>48</v>
+      </c>
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3"/>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>49</v>
+      </c>
+      <c r="B98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3"/>
+      <c r="B99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>50</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3"/>
+      <c r="B101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>51</v>
+      </c>
+      <c r="B102" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3"/>
+      <c r="B103" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>52</v>
+      </c>
+      <c r="B104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="B105" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>53</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3"/>
+      <c r="B107" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>54</v>
+      </c>
+      <c r="B108" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3"/>
+      <c r="B109" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>55</v>
+      </c>
+      <c r="B110" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
+      <c r="B111" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>56</v>
+      </c>
+      <c r="B112" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3"/>
+      <c r="B113" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>57</v>
+      </c>
+      <c r="B114" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3"/>
+      <c r="B115" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>58</v>
+      </c>
+      <c r="B116" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3"/>
+      <c r="B117" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>59</v>
+      </c>
+      <c r="B118" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="3"/>
+      <c r="B119" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>60</v>
+      </c>
+      <c r="B120" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="3"/>
+      <c r="B121" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>61</v>
+      </c>
+      <c r="B122" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3"/>
+      <c r="B123" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>62</v>
+      </c>
+      <c r="B124" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3"/>
+      <c r="B125" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>63</v>
+      </c>
+      <c r="B126" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="3"/>
+      <c r="B127" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>64</v>
+      </c>
+      <c r="B128" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="3"/>
+      <c r="B129" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>65</v>
+      </c>
+      <c r="B130" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="3"/>
+      <c r="B131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>66</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="3"/>
+      <c r="B133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>67</v>
+      </c>
+      <c r="B134" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="3"/>
+      <c r="B135" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>68</v>
+      </c>
+      <c r="B136" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="3"/>
+      <c r="B137" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>69</v>
+      </c>
+      <c r="B138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="3"/>
+      <c r="B139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>70</v>
+      </c>
+      <c r="B140" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="3"/>
+      <c r="B141" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>71</v>
+      </c>
+      <c r="B142" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="3"/>
+      <c r="B143" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>72</v>
+      </c>
+      <c r="B144" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="3"/>
+      <c r="B145" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>78</v>
+      </c>
+      <c r="B156" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="3"/>
+      <c r="B157" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>79</v>
+      </c>
+      <c r="B158" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="3"/>
+      <c r="B159" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>80</v>
+      </c>
+      <c r="B160" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="3"/>
+      <c r="B161" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>81</v>
+      </c>
+      <c r="B162" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="3"/>
+      <c r="B163" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>82</v>
+      </c>
+      <c r="B164" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="3"/>
+      <c r="B165" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>83</v>
+      </c>
+      <c r="B166" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="3"/>
+      <c r="B167" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>84</v>
+      </c>
+      <c r="B168" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="3"/>
+      <c r="B169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>85</v>
+      </c>
+      <c r="B170" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="3"/>
+      <c r="B171" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>86</v>
+      </c>
+      <c r="B172" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="3"/>
+      <c r="B173" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="3"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>89</v>
+      </c>
+      <c r="B178" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="3"/>
+      <c r="B179" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>91</v>
+      </c>
+      <c r="B182" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="3"/>
+      <c r="B183" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>92</v>
+      </c>
+      <c r="B184" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="3"/>
+      <c r="B185" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>93</v>
+      </c>
+      <c r="B186" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="3"/>
+      <c r="B187" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>94</v>
+      </c>
+      <c r="B188" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="3"/>
+      <c r="B189" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <v>95</v>
+      </c>
+      <c r="B190" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="3"/>
+      <c r="B191" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <v>96</v>
+      </c>
+      <c r="B192" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="3"/>
+      <c r="B193" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>97</v>
+      </c>
+      <c r="B194" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="3"/>
+      <c r="B195" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>98</v>
+      </c>
+      <c r="B196" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="3"/>
+      <c r="B197" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>99</v>
+      </c>
+      <c r="B198" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="3"/>
+      <c r="B199" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>100</v>
+      </c>
+      <c r="B200" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="3"/>
+      <c r="B201" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>101</v>
+      </c>
+      <c r="B202" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="3"/>
+      <c r="B203" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
+        <v>102</v>
+      </c>
+      <c r="B204" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="3"/>
+      <c r="B205" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>103</v>
+      </c>
+      <c r="B206" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="3"/>
+      <c r="B207" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <v>104</v>
+      </c>
+      <c r="B208" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="3"/>
+      <c r="B209" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <v>105</v>
+      </c>
+      <c r="B210" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="3"/>
+      <c r="B211" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <v>106</v>
+      </c>
+      <c r="B212" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="3"/>
+      <c r="B213" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
+        <v>107</v>
+      </c>
+      <c r="B214" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="3"/>
+      <c r="B215" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="3">
+        <v>108</v>
+      </c>
+      <c r="B216" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="3"/>
+      <c r="B217" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="3">
+        <v>109</v>
+      </c>
+      <c r="B218" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="3"/>
+      <c r="B219" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="3">
+        <v>110</v>
+      </c>
+      <c r="B220" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="3"/>
+      <c r="B221" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="3">
+        <v>111</v>
+      </c>
+      <c r="B222" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="3"/>
+      <c r="B223" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="3"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="3"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="3"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="3">
+        <v>115</v>
+      </c>
+      <c r="B230" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="3"/>
+      <c r="B231" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="3">
+        <v>116</v>
+      </c>
+      <c r="B232" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="3"/>
+      <c r="B233" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="3">
+        <v>117</v>
+      </c>
+      <c r="B234" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="3"/>
+      <c r="B235" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="3">
+        <v>118</v>
+      </c>
+      <c r="B236" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="3"/>
+      <c r="B237" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="3">
+        <v>119</v>
+      </c>
+      <c r="B238" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="3"/>
+      <c r="B239" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="3">
+        <v>120</v>
+      </c>
+      <c r="B240" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="3"/>
+      <c r="B241" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="3">
+        <v>121</v>
+      </c>
+      <c r="B242" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="3"/>
+      <c r="B243" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="3">
+        <v>122</v>
+      </c>
+      <c r="B244" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="3"/>
+      <c r="B245" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="3">
+        <v>123</v>
+      </c>
+      <c r="B246" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="3"/>
+      <c r="B247" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="3">
+        <v>124</v>
+      </c>
+      <c r="B248" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="3"/>
+      <c r="B249" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="3">
+        <v>125</v>
+      </c>
+      <c r="B250" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="3"/>
+      <c r="B251" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="3"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="3">
+        <v>127</v>
+      </c>
+      <c r="B254" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="3"/>
+      <c r="B255" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="3">
+        <v>128</v>
+      </c>
+      <c r="B256" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="3"/>
+      <c r="B257" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="3">
+        <v>129</v>
+      </c>
+      <c r="B258" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="3"/>
+      <c r="B259" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="3">
+        <v>130</v>
+      </c>
+      <c r="B260" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="3"/>
+      <c r="B261" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="3">
+        <v>131</v>
+      </c>
+      <c r="B262" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="3"/>
+      <c r="B263" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="3">
+        <v>132</v>
+      </c>
+      <c r="B264" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="3"/>
+      <c r="B265" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="3">
+        <v>133</v>
+      </c>
+      <c r="B266" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="3"/>
+      <c r="B267" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="3">
+        <v>134</v>
+      </c>
+      <c r="B268" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="3"/>
+      <c r="B269" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="3">
+        <v>135</v>
+      </c>
+      <c r="B270" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="3"/>
+      <c r="B271" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="3"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="3"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="3"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="3">
+        <v>139</v>
+      </c>
+      <c r="B278" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="3"/>
+      <c r="B279" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="3">
+        <v>140</v>
+      </c>
+      <c r="B280" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="3"/>
+      <c r="B281" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="3">
+        <v>141</v>
+      </c>
+      <c r="B282" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="3"/>
+      <c r="B283" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="3">
+        <v>142</v>
+      </c>
+      <c r="B284" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="3"/>
+      <c r="B285" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="3">
+        <v>143</v>
+      </c>
+      <c r="B286" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="3"/>
+      <c r="B287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="3">
+        <v>144</v>
+      </c>
+      <c r="B288" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="3"/>
+      <c r="B289" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="3">
+        <v>145</v>
+      </c>
+      <c r="B290" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="3"/>
+      <c r="B291" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="3">
+        <v>146</v>
+      </c>
+      <c r="B292" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="3"/>
+      <c r="B293" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="3">
+        <v>147</v>
+      </c>
+      <c r="B294" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="3"/>
+      <c r="B295" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="3">
+        <v>148</v>
+      </c>
+      <c r="B296" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="3"/>
+      <c r="B297" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="3">
+        <v>149</v>
+      </c>
+      <c r="B298" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="3"/>
+      <c r="B299" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="3">
+        <v>150</v>
+      </c>
+      <c r="B300" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="3"/>
+      <c r="B301" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="3">
+        <v>151</v>
+      </c>
+      <c r="B302" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="3"/>
+      <c r="B303" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="3">
+        <v>152</v>
+      </c>
+      <c r="B304" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="3"/>
+      <c r="B305" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="3">
+        <v>153</v>
+      </c>
+      <c r="B306" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="3"/>
+      <c r="B307" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="3">
+        <v>154</v>
+      </c>
+      <c r="B308" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="3"/>
+      <c r="B309" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="3">
+        <v>155</v>
+      </c>
+      <c r="B310" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="3"/>
+      <c r="B311" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="3">
+        <v>156</v>
+      </c>
+      <c r="B312" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="3"/>
+      <c r="B313" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="3">
+        <v>157</v>
+      </c>
+      <c r="B314" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="3"/>
+      <c r="B315" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="3">
+        <v>158</v>
+      </c>
+      <c r="B316" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="3"/>
+      <c r="B317" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="3">
+        <v>159</v>
+      </c>
+      <c r="B318" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="3"/>
+      <c r="B319" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="3">
+        <v>160</v>
+      </c>
+      <c r="B320" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="3"/>
+      <c r="B321" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="3">
+        <v>161</v>
+      </c>
+      <c r="B322" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="3"/>
+      <c r="B323" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="3">
+        <v>162</v>
+      </c>
+      <c r="B324" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="3"/>
+      <c r="B325" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="3">
+        <v>163</v>
+      </c>
+      <c r="B326" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="3"/>
+      <c r="B327" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="3">
+        <v>164</v>
+      </c>
+      <c r="B328" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="3"/>
+      <c r="B329" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="3">
+        <v>165</v>
+      </c>
+      <c r="B330" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="3"/>
+      <c r="B331" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="3">
+        <v>166</v>
+      </c>
+      <c r="B332" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="3"/>
+      <c r="B333" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="3">
+        <v>167</v>
+      </c>
+      <c r="B334" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="3"/>
+      <c r="B335" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="3">
+        <v>168</v>
+      </c>
+      <c r="B336" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="3"/>
+      <c r="B337" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="3">
+        <v>169</v>
+      </c>
+      <c r="B338" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="3"/>
+      <c r="B339" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="3"/>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="3"/>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="3"/>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="3"/>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="3"/>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="3"/>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="3"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="3"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="3"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="3"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="3"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="3"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="3"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="3"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="3"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="3"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="3"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="3"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="3"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="3"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="3"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" s="3"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" s="3"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" s="3"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" s="3"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="3"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" s="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" s="3"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" s="3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" s="3"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="3"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" s="3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" s="3"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" s="3"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" s="3"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" s="3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" s="3"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" s="3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" s="3"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" s="3"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" s="3"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" s="3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" s="3"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" s="3"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" s="3"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" s="3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" s="3"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" s="3"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" s="3"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" s="3"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" s="3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="213">
+    <mergeCell ref="A422:A423"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="A426:A427"/>
+    <mergeCell ref="A410:A411"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="A414:A415"/>
+    <mergeCell ref="A416:A417"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="A420:A421"/>
+    <mergeCell ref="A398:A399"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="A402:A403"/>
+    <mergeCell ref="A404:A405"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="A408:A409"/>
+    <mergeCell ref="A386:A387"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="A390:A391"/>
+    <mergeCell ref="A392:A393"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="A396:A397"/>
+    <mergeCell ref="A374:A375"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="A378:A379"/>
+    <mergeCell ref="A380:A381"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="A384:A385"/>
+    <mergeCell ref="A362:A363"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="A366:A367"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="A372:A373"/>
+    <mergeCell ref="A350:A351"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="A354:A355"/>
+    <mergeCell ref="A356:A357"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="A360:A361"/>
+    <mergeCell ref="A338:A339"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="A342:A343"/>
+    <mergeCell ref="A344:A345"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="A326:A327"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="A332:A333"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="A336:A337"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="A320:A321"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="A324:A325"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4008C240-A14A-466A-9C42-158D6B92C439}">
+  <dimension ref="B1:B56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LISTAS IPTV.xlsx
+++ b/LISTAS IPTV.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 GITHUB RESPALDO\PAPAPUMUKY1 GITHUB\PAPAPUMUKY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71B24CF-2ECB-4610-A4A9-522AB0634BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52116C61-FB9C-4F57-A845-F242F9D7D8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="DEPORTES" sheetId="1" r:id="rId1"/>
     <sheet name="NEWS" sheetId="3" r:id="rId2"/>
     <sheet name="NATURE" sheetId="4" r:id="rId3"/>
     <sheet name="VARIAS" sheetId="6" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId5"/>
+    <sheet name="EXTERNAS ENLACES" sheetId="2" r:id="rId5"/>
     <sheet name="2024 07 01 fav" sheetId="5" r:id="rId6"/>
     <sheet name="movies" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="540">
   <si>
     <t>#EXTM3U</t>
   </si>
@@ -1905,6 +1905,45 @@
   </si>
   <si>
     <t>https://thm-it-roku.otteravision.com/thm/it/it.m3u8</t>
+  </si>
+  <si>
+    <t>20 MINUTOS</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Free-TV/IPTV/master/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>TDT ESPAÑA</t>
+  </si>
+  <si>
+    <t>https://www.tdtchannels.com/lists/tv_mpd.m3u8</t>
+  </si>
+  <si>
+    <t>LOGOS</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ2YUj9UXAlTGpB_xOkvaGfkB0fgpMIYnWKLQ&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>ESPAÑA</t>
+  </si>
+  <si>
+    <t>https://iptv-org.github.io/iptv/countries/es.m3u</t>
+  </si>
+  <si>
+    <t>GITHUB</t>
+  </si>
+  <si>
+    <t>https://w7.pngwing.com/pngs/145/37/png-transparent-flag-of-spain-computer-icons-national-flag-spain-logo-flag-throw-pillow-flag-of-the-united-states.png</t>
+  </si>
+  <si>
+    <t>GITHUB ESPAÑOL</t>
+  </si>
+  <si>
+    <t>https://iptv-org.github.io/iptv/languages/spa.m3u</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIALcAwgMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAABgQFBwMCAQj/xABSEAABAgQDAwcHBgoIBAcBAAABAgMABBESBRMhBjFBFCIyUWGBsQcjM3FykaEVNEJShNEWJDZDYnOywcLwNVNUY3SDkuEmVZPSJURkgpSioxf/xAAaAQACAwEBAAAAAAAAAAAAAAAABAIDBQYB/8QANhEAAQMCAwQIBQQCAwAAAAAAAQACAwQREiExBUFRYRNxgZGxwdHwIjI0cqEGFELhUsIjRPH/2gAMAwEAAhEDEQA/ANxggggQiCCCBCIIIIEIggggQiCCPJNo50CF6giK5OMo/OV9nXhXwI9464+8qbVdYrnap5yTvFN/ZqPfAhLxdxb8ILLmMzKrbcqyyu+nXDVGKGac5dyb5RxD5X5Tm5mUb76Upvpb/wDWnZGwiabTalaufoFWpO89XZoYXp4XR4r4szlcEZbrXRjD9FKgiK3Nsr+nS762nCvh4GJANwuTDCF6ggggQiCCCBCIIIIEIggggQiCCCBCIIIIEIggggQiCCCBC5uOJbQVKirmsal5ZSb1pSm4dLeQeIA13a8eHXpV4xOzM1iLEhJqtce+kpPo0ce80J37gRoTpdYdg8nh6KtNhTnF1eqz3/dFBkc5xazdqVK1hcqtG0I+qpWnSSyqnxjg/i81PTaZKQSlx6wKUrUIRUAmvX+6tN+kMMzMsoStK3m0rtNBmBJ/29cKGBYhK4bic+rEXm5cOc7OeAaSaka66C7eBXhxiqZ8jC1rj8xte1rZde9SY3FoFdt7P38+cn5p1zjaq0e6Pj2BLQhSpOfmUroea6oLR26EceuKbF/KVgsjzJPNn3P7oWo71H9wMLT/AJU8TfWluUw2VbzDanMWpZ1NOFI9LYG+zfvT0ezayRuLBYc7Bd73/neYrPzfSZvGla0379a90O7WArWkKnMQmXFac1ohCOzQdXXpCjlJ+QszOY+ddGzzlN9buqmtKd/CIEv5U8Rl1lqdwuVcyzarLWpG7Q77ozdntaL9JvAPff3mvI6Wapv0Ivb3vT85gFovlJ+aac4XKuT7v94hS+LzEjOKkp9KW3QglKtShYAJFvV++lNCKREwnyk4FPc2aU7IOf36ap7lCo99I847PyuJYpIKw15uZS2blPM0cAodd2hpvOuleEPyubEA6M7wLcbngqJKeaM2laQrQ7Qj6qk6dJTKqfzv+ETJbGpaZVzFpVzj0d4A4kHXt4cerWdLTDLqEpQ42pdoqlKwoxGxDB5OfRz2wlz6LzeiweuvHvhg9KM7g9lvM+CXy3qwbcS6m5Me4U8InpmVxF6QnFXOs/SSB5xHDvFa7xoRvI1bInHIJG4gvCLFEEEETXiIIIIEIggggQiCCCBCIIIIEIjm8Lmlj9E8afHhHSCBCz7E5p3CsaTPobDlqKpbUoJB5pFK6gClTpUCo4Qh41ttjuMKVfNql2FdFqWqgU7SNT3nujTdscDexJhTbLaixaSrKIC9d4A6iAK0FTGWP7Nv8sW3JKSptKArMc01I6OnHwBEY7pRTyva51gTceea39kPpRd01sW6/vVURSlXOVzvahkwxWITeCOMNMtqS2kobUpJvcuIBFSaUAToKaVHZFMqTypvImnUtpSoJceSm8IqKgacdN0XM0tMplS2zczzn6rcbSQrhUGqtxI4b9BFNVJiaGs353Iyyz199l1sV0jZGtY3M63Ogtz95Jc/Rj0hLi1+aStSul5tJJTTjpu9cW2Jz+Fu4c01JyKUu06SgU2cSRQ6knriSxPSmAzimWLZthTaFpmMqxxRUkGmp3AmkWdLIYi4Mz4FWmqkLMozi4Hl/wCq3TMufg3n8tV6K+60d4pWla8frQkLS4hfnUrSpXO5ySCqvHXf64uS+6uZ/CLI80mYCMnstpW7104b4kOz8pj0+xLTFspLKSVOTSmr3EWpUdKbwaAd8LUwkY+1rg6m/wAvLs7klSB1MXHDcbzwtu7PylwmGTETiUpgLTbrbaUqohxSa3oCSQNQaAEGhFDXvMQ8In8LZk3Uz8olTqh0rSq/jrU0FOsRMkl8ovlNoZm3LCFttqUE1qmu8b6Cmla6mJzyvDw7Dk3tJ6lZVyOMgLmZNN89/V59iW0ixdyeapPRUnQj3Qy4HtzjuDqT+Mqm5ZPSZmVFWnYo6jw7IpDKXzeTJOpcaUu1t5SSgE0rTXjqPeOuLNnZuZROMNzikpYcBucbVWhArbrx7ewwy6qjizJtlfmmaiWlcy01jlodfW60TDJp3FcdVP25ZUi61KgqgtApXQHQg9RoeEPTItaQn6qRxrw6+MKWxuCTGHMtocbVyewFKniLyR0QR1UJpUVEOUNUDS2K7tSScxbVcRNbHZuiIIIIdVSIIIIEIggggQiCCCBCIjOTTTc41LKPnHQSnu3xnW2m1ONSO0YkGU8nkklHnE6KcBGqruFCSAAN47RFA6cY8+kYjNOOKWOTzDkwrMbB6QBrUd2+M+or44nYT7zzT7KAloc5wF7W98ltsEZLhW1ONSuPyWHocXPsc1p5LxucNSKqrvqAa8aj4a1DUE7ZmYmpeendDa51zRGf47sTlqnJ3BJmYafmFlxxtKqgEkkkDjqTUb+rqOgQR7NC2ZmFyhHK+M3aVhDGGT8jLYhh80p1Tc0pGYzLpqbwq4LVUC2nVUVrBJYMqRuclXbpmhDanKAN10JtBVU/CNE25wtS5ZudlHGWHEujNUtorLgNAABWlRSu6um8a1VH8YkpdGW6+wlVa85Yv00pQEmnZTfSOcrTURSdHe4PgtdlbNK3LfqB3eSrvkeWWvMm2GM9X1bwhR67SR7gYlHDFO/PbZn6uYwkWfoghQ07DFS5iOz6HlO85xy65VqHDqTXiUgxIVtdLWWoTMqTddbaAK7q0Kt9NKxQ6Od1sOI9YtbqzOS9Yyuf8zTy107hbsX08ivu+VGcqyzk9zWTZxFtd3x7YmjDMrnSGXLXUuU2wk3caVKjoeoRRDFsG/5X/wDg1E9vayWsttmUp6VtqSOoGgVvpx7Y8dBP/Fp/CvfT1H8WldDg0old0uwxnp+teWwfYBPurSOE5g7s9a5OuJTMpFqnG6edpuJSbaH1aRzTPYEt7NUlSVXXc5Lg1rXgVAReM4vKTCMtDzCta81YrupTWmnZSB75oyHDF1kfjU5Khr66M4pAQRoczl2gd2ipHsNnpqTlMNlFOpal3FkMzCQCpR1vTaDXQUpU0p2w74HsOqYRLTGOzMw67LrC227rQSKHnCm7TTjqa9UTNhMLXY/OzTrDys21m1otlum+4VoaggjTcd+tA7RuUdO57Wyym51Hb70SlTXSH4GnS+e/PXPVEEEEaizkRwDzeepmvnEpCiKHcSQPCEPHduZiRxV+Ql8PXc3XzjztgJGookAkg9dR7ooU7Y4gh7l/IGM9xOUpuq7AgUINd/bv3HuCslXG0gX3pxlBO4A215hbDBCJsxtm9iuMHDnZFaF/1rboWjQa1FARrpx13w9xeyRrxdpS8sT4nYXhEEEETVaIIIIEJN2wm5ebQ/IZB5SyRluqpRJIB9dKH4QjiTxW9pX/AIfan9Zr6xuJ9cOu2MmlqZamWXlpeeVzm8q4UAArWmlKDTjXshco/wD1jn/QjktovnbUEED+t3an4CA24VnsrMM4QtxyaZzJhyiUqbpRA40rrrX4CNFjOsAk0zuIpZmnlpTQlKUtUvIG6tNOvujRY2NkGQw/Ha25LT2xZJT232sc2XTKKbkkzPKCre7ZbS3sNa1hW/8A63Mf8ka/+Uf+yO3lr9HhHtPeCIy+G5JHB1gV0ezNnUs1M18jbk33nj1rRJjypmaZy38AYdbV9FUySP2Iop/aXCJ70uzLSVfW5VX9ps07oWKK6VqrfrW9W/8AnthklcOwtWD8tdamebalxN2t4oCAOok+v1QjUztbYvF75aBMS0lDTWOA58CfVVD8xhrq7kYSlv2Zpf3U+EcFGU+jLPJ+0A+KI5Wq+qr/AEngaH46R8izo28+8+q0WU8Q+W/efVX2zOAy2PPPt5j7GSArpJVdUn9EU3QxI8n8ojpzr6v/AGgeEQvJl87xD9U34qh0mcRlJRam3XLXbCtLdp5wHVpQns7RDUcDHMBN+8+q5raVXUxVTo4nEAW8AqBnYfD0L5/nE/pX/wDdT4RcSWBYTI85Ek0r9JSrfiAI9LxVhqQYnZht1tpxIUrmFVlR9KnuiFiOL3odYlWEuXc268UWggVKeB38TvBiQpov8b9efis8yVc5sXE9qaJaf5I1lysow239VNRHb5Ze/qm/9RhQwqamUPZakuONfStqba8euteG7qiYjE1Oz/JGkp6Z84pW8Aa0HXXT+TSyJ2IaWtuS7oXtcQRomzD8QcmnlNrbSnmXc2vAj74s4osE+eK/VHxTF7FiqWfbXzLOK82XZy5tlZRmOUoQDTWmu8ad8K6JTFM5Sl/J/OTbanM+AOgPbvhp2ok0yuJfirznnElbicq6hJJ301rrpwp2xT0f/rHP+hHHVr5xO4OAWhEQG5Jg2QmpfD7ZdTKlTMwsJU8mlOoAcacdeJMPEImyMkmYnlOTDzlzNFtt5Vo37yafDth7joNlmQ04L7crcEpNbFkiCCCNFVIggggQqrH/AELH6z9xilWOYr2Yusf9Cx+s/cYpV9BXswIUvZr5z/lL/aTDJC3s385/yl/tJhkgQsw8tfo8I9p7wRGXxqHlr9HhHtPeCIy+EpfnXbbG+jb2+JTXsqJlMhMpdYVlW3M3Nb6gk0qNRoIGW5tezMzcw9ylx0ry8ogk3A1tpWLLZ+ZTN4UxYlSctIaVd1hIB7osY5KepLZnXbncHu9VkzTESuJbne/d670vY3yt7BJSxhxTjwRnpS1qObU1AFRqIUo0XEptMlJuPupUpKfq79TTj64zlI5kauynl0bsrC61dkvJjcLWF06eTL53iH6pvxVDXisk+8vlKX1KQ2jzbKUDfx1rx7dN0Knky+d4h+qb8VQ3YviHIcixTFzi7ctytVgb7adXbHQw/IFhbTLxtF2DXLwCgSuLWSyWnWs5hSbU82ulNyuscPviFly2cp+XYS2lzoptAoCBwAFN0SJ535QmU2SyrlfRbSSV60qo6AgH3ViIuUUham1qU2pKrbbq7uPeDp3GGABe6vp2Rh2ICzuF1aYE6nlj/OV0Pq6aHXXr7PX3ycElrGeUq6Tieb2Cvif3COmCpaRIJs5yui4pW+oJND79OwwYSbEPy39S6Up9RJp8QYiVmTyOc6QjLMX7MvRX+CfPFfqj4pi9iiwT54r9UfFMXsRSapMd+ctewfGKl4eZV7MW2O/OWvYPjFS/6FXswIVrsz0H/ZR/FF5FHsz0H/ZR/FF5AhEEEECERWYzjeHYJL5+JTKWUq6I3qWeoAamLOMP8qkvNM7VuOTK1KaeaQWOoIA1A9RBPfEJHYRcJ7Z9K2qnEbjYJg2h26mZqWuwvDkJbbRnpVNOi9aN1wQDu1+tXshZndo8WRPsNTGJZcs4hC7pdpCdFDfqCdPXwjlhGHTePYUxKNPsNpbWecp8VU3voWxqQDuJoN0MY2LaXLNtzs6tzLQEJy2kINBqBUgn4iEGiqk1Nhn/AEVrEUFKcDwCc91zyOdwl53Fsaw11KF4vMNqU9alxKhTK0qrdxJHuMSZ3a3aXDXW8rFXVNqFyVuJbcS4K7wba+scIaMJ2MwucmGi+uaUpts2Kz9RQgDhTiYkzvkxw2YAy8Qnm7RRtKssoRx0ASPGJNhqAQS6/FRZXUBIxsHP4R5LOtotqZ/aJuVaxFLF0teUuNApurQGoqRw4Uikhi2x2Se2YelsybRMtTF6W1JbKSmlK1FSOPXFHJMpmJxhhSlJS46EKUnfqaaQSEtuXblvUz4BBjh+TP8AtMOCSjs7s9lMP5CuVFV2vADq/nSGeImGSDeGS2Q0pak3lVyqV1p1AdUVsxjzjWN8iyEZF4RdrfU0130pU7qcI53op9pSOZALhuJ24ZZX8slyVZPEyZ0pPzFcsXlHJTB8QU6/mZzwWnfoCoaawpxomJyrc3JusTDqmmukpSaaUNePqjPJnJzl5SnFMXebzKVI6zSNDZk7qjECLuJ3DkAPBbeyZY4YHNOQGdzoB1pv8mrzaJyevcQm5pFtygK84w/TDKZhl1h261xBSq3Q6imnUYw4+ymLzZ7aWdwZ5KCpb0p+cl1Krp1pruPwPHrHQugmp2AyMsOKzKhtPtCd0lLKHP8A8bEacL6rU2siXQxLZiU80JbSpQqaacd5++F6Ym1T3O5qba+jRqAOB6x6+uulYk4lmTzLGISrqZmWUpCmW22ueCdLrq1G813U7okS+HPomc2YU3apK8xSVGpqKHeO+JC2qTgLIgXuOfDO91Aw9UytaUy7uW44nndWgrqCDF3IynJEKvVmOuKuUr+f51ML7R89+KzKXlX2tqbSU0NaDU7619Wh31hpTdYm/pfSj1xUq99yC3Q8rHtVHtVtFO7OsyzuHJYzHr0KU6kqoBadACNfXC87tVtHMMtzYxh3kygvNymG0ZRAJt3E68CTxhnx/Zl7adUpLtTKJZDN61KUkq32jQClfeI9ynkxw9lhTT+JzziXKZiUWIC6Go4Ej3wlOyZx+A2TNJNRR07cYBfnfK+Xb+EiTuP4wiWkZl/FZ1xTyFFSbwNyqaaafGJ/ytiyMS5C1iTqvNXucoaQoAW14AEnUDfxhsxPYnCZdDcohc3lWHmqerxrppFXM7JJQuZmZXEplL7jVilPJQvSg3UApuEUGCqGbXcd/PLuVxraF+WEDX+I3nLS+i8YXt87groZxSSS8lxtC8yXVasJ1pVCuPZURoGBY9huOsKdw6ZS5b6Rs81aPaSdR69xjIsZwtzD5lc7NIklKcopSkvhKkg6FaW1ak1Fa86nVxiTskHp7yhtuYc9zErK3HEqqC0AAR2gmg9ZHVE4Zpg8MkG5eTUVNLCZYsrAm+643W3e8ltkEEEPrARCl5QdmF7SYU0JXL5XLrvbzNAsEUKSeFdD6wIbYI8IBFirIpXQvEjNQsa2P2fxbB8eU5iMg6ylTC0JcNCCapNAQSNwPuh2X0FezFjtRPSklKsOTsw0wi/84oD6J3f7RneLbeMIQpvC2VOK/rnqpR3J3nvpEBhjFrp14qdpS4wzPlp+V023npuQksPfk5p+XczVpuaWUk6DTTf6obfJpjU3jWz7juJOZkwzMKavtAKhRJFaaV51IxybnJ7FplPKHHZlxSrW20prv4JSP3CNh8m+ATmB4Q6MQCUvTLublb8sUAAJ6/CIMcXPuNE9W0rKWhbHIRjuqPy1+jwj2nvBEZi24ppaXGlWqSq5KuojURtO30nLTbsimaYQ7aly27hqiMnclWPwnyMtORyoJy9aUqNKdUITVLemfGRoLpzZFS39t0ZGgJ/K8fLmKf21z/Sn7ohLffXM8pW4rPuCrtN43HdThF7tZISkoiW5Kwhu4rut0uoBSJLGGyS9mOUrlm8/k61ZnGorr64WirIoYxLG22LLKw7+WSve+kdE17oQQTwGqopjF8QmEZDs2tbSukm1IuHcIk7NSrUxiKXHXGvNq9C4rVdQd3XSlYrW5e+WffR+bKPcbh40j7JTbklMZ8v0k/W1Cq9ca1DTCVssUFmuwm27M28vVIfqB7YKZuFtm4xit1XHkpD0i18pcmRNy2UrnZ19UI0JoT1ilPdEvaaUYl3m3JdTCeahOS2qp6PSPYfu64kt4Q/MYUqZXZytx0OpczRzUW1oTwPZ6uqKWfnX51aXJhSbqBKeEabXOrJMQku2Nrmv0zNhn227LLk6cmnlbhbZznNLe/T3xT75NptTuGzMor8y7cn1KFae8E98N0Y9hacUSh9/DX3W0p9Jlu2lVBXdWpoD8Ymhzabk3KeUz2X+tNeqtta0jIFZEwYXHPRdZWbK6Wdz2vaLnTmtDewm+c5WiZdSrOQtSdKWBIFg6tRWsWUZXftJk5/K5u2l9vKDfT2a1jyXtpORqm1Tc6lpPSufINBvNCa0j399Dx/Kodsh7rXlbwWzYJ88V+qPimIflCxeZwXZt2ZkXA3MrcQ22qgNKnWldK0B3wqeSSfm53FJ5M1NuvpTLptzFk0qrhWGnyhYHN49gGRIKGey6Hktq0zKBQtrwPO0rpUcN4YxYmEhJmmbTVjYpiLAi/Dikryf4lO4nM4k5Pzb8ypKW/TLKraldaA7u7qhvf8AQq9mMdYmMQweeVlKdlJltVriVJofUpJ3j1w24dt4hbOViktaq23OY1Hek6juJ9UVxygCxT+0tlzOkM0Iu02yHVw9F02vwTE8YnZP5LknZjLZtUpNAASo0qSQBDb5OdlHtnZWZen7DOzRFUpNctI3CvWSSTTTdE/Y2flJ5p5UnMoe5qLrTqOlvG8d8M0WhgxYlnSVs37cUpFgO/jmiCCCJpFEZ/5Stq8RwJctJ4aENqmEFapgpqU0NKJG6vaa740CM78ruETE7hspOybS3OSqXm5epDZAJNONCkeqtYhJfCbJ3Z4iNUwSi492/KytxybxObuUp+bm3PacWrxNIv8ADdicSmOdO2yjf6XOX7hoO890PGyLzExsdIONSrUurMUhzKTTMKai49ZI1PbWLJfQV7MVMhBFytOr2zM1zoomhtsuOn4UfYjApDCpisu3c+Wl3POarOqfcOwUh3hb2a+c/wCUv9pMMkXgAZBYT5HyOxPNylHbb5zJew54pjJ3fyt+1jxEaxtt85kvYc8Uxk7v5W/ax4iOdm+tm+3yC3NkfJJ9pVhtr0JP2l+AiXL/AJH/AGRfgYiba9CT9pfgIly/5H/ZF+BjPP0kP3eqYP0kX3Kp2Vl2ptGIMO9FxpCfiaH1jfFJOSy5SccllqTmtqtV1K4gwwbFemnPYR4mIOJtpd2nU26m5KphCVeo2gxq09TJDXSFp0AP4CalYyaomhlF2EXI6gFCTOqTIKkshu1S77rRX+e3fEdKFrHQUq0VtTrQDeT2dsXW02Fy2H5HJb05l91yq7qUpX1x4ZeaawFx1qUSl1xXJVOXHnAipUes10h921nzQ3jFg852yueefLclaLZlJCWVEQLjoMRGXvtK9OHEMMl7WG2lsWaTiGtaK4hVdDw7KCJ6X538H6cuOcpsvpVrdlg0Iu668eqI+E4khMs0xNMu5aUrRmJTVuw7yobjQ8Y6CVn0YUrDc/nZ1iVXCmSU1Kq/V4/CMeTWzwAQb34jj69acksDZ4AIOvH3r2rlIzGKTbKVLy22LClU6pHPSgb+fWpMSp+bm38BcVLocSxfalS9VraoaqJOup8YjYpiSVyzrEqy6pKkBrOUmjdg4pG4VPGOSZv/AIezMlNyfxTMuPQIuJ9dQBB0ZcWvwAZjL33cuC96MuwvwAZjL33cuCZ/Iz/S+I/4cftRrsZF5Gf6XxH/AA4/ajXY6KH5Fz+2frXdngEo7ZYJh+LONInWBdYbXk6LTrwP7jURm+LbET8pc7IOJm2k/R0S4nuOh7j3RreO/OWvYPjFS/6FXsxJ0bXaqil2hUU2THZcDp76li/43h8ylXn5SZT0Vc5C0+rcY1Dya7XYpis4rDMStmMtkuCY3LFCkUVTQ9LfodOMTMYcZl9k8UfflWpjLZRY26i4BRUQD3E106orvI9g83LIncTmmSht9CES6laFYqSo+ro0PGKmtLHgArWqKyOronySMAcMgefLsWnQQQQwucRBBBAhL01IS2FYbKSUk0lphtZtSntBJPrJJiCvoK9mLDaecYl0S6XVWrUoqToaaDXUDfqIoVYrLWekT8fuih1TCw4XPAPWpYXOzVzs185/yl/tJhkhR2anmFTyW0quUpC0ptSTxB100FB4Q3RYyRkguw3HJeEEapR22+cyXsOeKYyd38rftY8RGubat/NHPaR76EeBjI3fyt+1jxEYE4IrZvt9FvbI+ST7SrDbX0Mn7a/ARLl/yP8Asi/AxE219DJ+2vwES5f8j/si/AxnH6SH7vMpg/SRfcq/Yr0057KPFUQp78qvtTf8MTdifTTnst+KohT35Vfam/4YcH1sv2+QTn/dm+30Vjtt/wCT9pf8Mc2Zh5GzyX+SKVlpybXKlso33lPE10rHbbRpxbMs/wDmm1lCvWoVHwSYiYe8qbwd9uXllOTLLGRbdvbUSa06wYhE21HHiGV/MquCxpGHg7PvXWRxJ+bYy2JBal2ZVjekvrWhUndx1gU3LX5/KWspLoYUpLXm77a7q9CunvjwcQbwmWalEXOTLKTdl6M3nfdxUQO793luRSrZ9SbnLlIM5dYLOaLbfWd8WtJiJc34Q7LrB/rxVdTRQT4TI2zQ4Ea65593Zmu85iT8ozlzEgtK7Mm278XNNahO4ikeVzDytnlP8lUm5JZtbqGrDqV29YOlY5t4ixics7KLuamXkBKczVq8brR9EkadVeuCcdckcHabmpZTcy40uXSkr/NgglRFN9YrEYBa0ts6/vf1pgR2LWltnXHvXrTF5Gf6XxH/AA4/ajXYyfyLsKM9isx9BLbaK9pKj+74xrEdJD8iwNsm9a/s8AqTHfnLXsHxipf9Cr2Yl7SYgyxNtNrVapKLtUnieGmu6KdzFJZaFJzE85Pb90RdVQNNnPAPWFmhjjuVzhckxiEhNyU0nMYebCHE9hu+PbDC2hLTaG0aJSLR3QvbLTbLq3m2lXKsQeak03nifX4wyxYx7XjE03C8NxkUQQQRNeIggha29U0jZl9T6ptLV7d3JKZnSG6um/f2ViTRicBxXjjYXVHtHMOP4o+lyYNrKrW03Cg0FeG+KwJ/vVfD7opmJBSkXSWxynWFfnJt+ji+2hIp3REU3hbS8h2Qx6UX9KTbUChR6hXUjujNm/TYnlc8za8gf9kNr8DQMP5PomdiYclXUvMTKkuJ6Krk/dqI09J5sYsnDnMnmbFJyKfSmDm08Qe6G7yZcmHyk3KNYgylOVVmdpzOnons9cNUmy/2Mbv+TF3ZdzivHVPSuAtbv8wE141I/KGHOsJpm9Jv2hu9+71ExhbwUnbC1aVJUmbAUlWhBBFQe2P0NCntPshLYxNtYlLEMYgyoKupzHgNyVU+ChqO3dFFTTB93t+axC0tn1badzg/RwI6lmu2voZP21+AiXL/AJH/AGRfgY87dyE6wiWS/JPptWblWFSNRpzhUd1a9gj6wf8Ag+3/ANKvwMc7JG+Omia8WOL1WrjaaSKx/koGxPppz2W/FUQcR/KpX+Kb/hi02JlJm+ZVyZ+1QRaqwgGhVXU0HHri+lJHCcPxWZm5qeY+U1K5qXF0DJIppXjTievTt0YqWR1ZI4j4SLX7l7VV0VNVSucdRYddgpk/hjc9gL8k7cl1xV11pIQ4N1SBuFKE9p64z/DcRmcEefYdludda424aFJHaIfZ0Pr2zwiZYVbIplXLk3bhQ1FONSUUpWtARuiJtFheDYx0cQlJSeTVKbnU84V0SsVroO8du6GxC2aPoi3ID32pamqoaYdHM67H59R9jwSzMYM1O/jMq85mTCS+lLjRpQ6lNwqK1r8I5plJ/wDB1Sch/wCcXZetbaUOm+leEc5zCsbwpC21NzKWFc65hRU2eNajd30jinHsQTJ8kzuzMVXM9Va/HfCjoKhtgCDY7+C229I9o6N4cAfwp0rgqJe1+aedS4y2JhSUNGiQNaVOlT1dhiFjGLu4stpGTalKualPOKidB38KDrj1IYdjuNBMvJy07MordzqhAJ4lRoPeY07YrYFrBXRP4opEziCfRpSPNs+qupPaQKcBxN8NG9z8chuRpyS9RVw0x6SVwc8aAbvRWuwWAnAdn2mX0jlbxzX+wncnuAA9dYZ4ISvKYZb5OkkzaZ9aVPkZclSqzadFV4f7RsxMxENC5CeZz3Okdqc1T4hMuTU444/MqUq4jpJ0AJoBpoI4W/SzVfD7opxhzmTzNiU5FPpTBzaeIPdEMN4SvzCJHaBxX9hVQIr1aagd1Yyn/pkSvLjMTfkD/svBtAtFsPj6JxwWYcl8UYyplQvdQhaaihBIBB0jR4xN3D1ZP4xsZax9Zh+rqe3Qkk+sQ/8Ak5UwvAXeT8sy0zC02zlMxOidNOEPU2zv2UJbjxZ8su4lRNR0rtLd/mAm2CCCLVJEVWPyEziOGOS8jN8ifUQUvWXW0NTp2io74IIL2zRa+SW2/JxIOoK8SxHEZuZV0ns0J9woae8xzOxWNNealNqn0y30UuMBS0jqurr8IIIu/cyXsTfsBVRhYNPErqPJvhtl68RxRUz/AGjPF1evdFxsxgk9g/KUzmKKn0uWZV6LSgCtQTU1rWCCIvme4WcbqTYmtzCYIIIIrU15WlKk2qTVMV7uDSi1XpRlK60fcagd0fIIEKM5g735p9tR6lAp+Ir4RVYnswnELOWyqXFp6LjblD6q6GnYYIIFFzQ4WIVcjY0oW0lLc3yZKFpUzygc66nEKFBpqBvrrEiU2KlZd1LqJBNyejnO3Ad1SPhBBElUIo7j4Qr1rB5n6TjTfs1V90SWcGlQAty549atPgKfGsEERV6sEIQlFqEpSnqSKR0gggQiKPafCZ3F5VhuQxJUgpLlXHEouKkkUoNRTWh7o+QR602NwvCL5KkHk3w2y9WIYmqZ/tGeLq9e6OX4FY2sZLm1cxyb9FmjlOq66te2CCLf3Em836wCodCwaea6nyb4clu+UxHEmZlOqZjOBNe0UFfhDBs5hk3hUgtifn+WuqcKs7Lt0oABSp6oII8fK94s43UhE1puFcQQQRUpL//Z</t>
   </si>
 </sst>
 </file>
@@ -1932,12 +1971,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1952,7 +1997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1961,6 +2006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3001,6 +3047,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -3017,44 +3101,6 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3442,16 +3488,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -3464,12 +3506,16 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4710,26 +4756,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B60351B-4707-4B49-B425-F96E58F51BEE}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.23046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -4740,7 +4793,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -4751,7 +4804,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -4762,7 +4815,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -4773,7 +4826,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -4782,6 +4835,59 @@
       </c>
       <c r="C6" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C10" t="s">
+        <v>538</v>
+      </c>
+      <c r="D10" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -7416,15 +7522,198 @@
     </row>
   </sheetData>
   <mergeCells count="213">
-    <mergeCell ref="A422:A423"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="A426:A427"/>
-    <mergeCell ref="A410:A411"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="A414:A415"/>
-    <mergeCell ref="A416:A417"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="A420:A421"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="A326:A327"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="A332:A333"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="A336:A337"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="A320:A321"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="A324:A325"/>
+    <mergeCell ref="A350:A351"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="A354:A355"/>
+    <mergeCell ref="A356:A357"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="A360:A361"/>
+    <mergeCell ref="A338:A339"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="A342:A343"/>
+    <mergeCell ref="A344:A345"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="A374:A375"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="A378:A379"/>
+    <mergeCell ref="A380:A381"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="A384:A385"/>
+    <mergeCell ref="A362:A363"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="A366:A367"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="A372:A373"/>
     <mergeCell ref="A398:A399"/>
     <mergeCell ref="A400:A401"/>
     <mergeCell ref="A402:A403"/>
@@ -7437,198 +7726,15 @@
     <mergeCell ref="A392:A393"/>
     <mergeCell ref="A394:A395"/>
     <mergeCell ref="A396:A397"/>
-    <mergeCell ref="A374:A375"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="A378:A379"/>
-    <mergeCell ref="A380:A381"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="A384:A385"/>
-    <mergeCell ref="A362:A363"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="A366:A367"/>
-    <mergeCell ref="A368:A369"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="A372:A373"/>
-    <mergeCell ref="A350:A351"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="A354:A355"/>
-    <mergeCell ref="A356:A357"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="A360:A361"/>
-    <mergeCell ref="A338:A339"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="A342:A343"/>
-    <mergeCell ref="A344:A345"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="A348:A349"/>
-    <mergeCell ref="A326:A327"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="A330:A331"/>
-    <mergeCell ref="A332:A333"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="A336:A337"/>
-    <mergeCell ref="A314:A315"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="A318:A319"/>
-    <mergeCell ref="A320:A321"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="A324:A325"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="A306:A307"/>
-    <mergeCell ref="A308:A309"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="A312:A313"/>
-    <mergeCell ref="A290:A291"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="A294:A295"/>
-    <mergeCell ref="A296:A297"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="A278:A279"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="A282:A283"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="A288:A289"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A276:A277"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A422:A423"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="A426:A427"/>
+    <mergeCell ref="A410:A411"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="A414:A415"/>
+    <mergeCell ref="A416:A417"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="A420:A421"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7638,7 +7744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4008C240-A14A-466A-9C42-158D6B92C439}">
   <dimension ref="B1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B56"/>
     </sheetView>
   </sheetViews>

--- a/LISTAS IPTV.xlsx
+++ b/LISTAS IPTV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 GITHUB RESPALDO\PAPAPUMUKY1 GITHUB\PAPAPUMUKY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52116C61-FB9C-4F57-A845-F242F9D7D8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619BB4C5-B40D-4384-84A3-D9EA4CD2379F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="542">
   <si>
     <t>#EXTM3U</t>
   </si>
@@ -1944,6 +1944,12 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBgkIBwgKCgkLDRYPDQwMDRsUFRAWIB0iIiAdHx8kKDQsJCYxJx8fLT0tMTU3Ojo6Iys/RD84QzQ5OjcBCgoKDQwNGg8PGjclHyU3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3Nzc3N//AABEIALcAwgMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAABgQFBwMCAQj/xABSEAABAgQDAwcHBgoIBAcBAAABAgMABBESBRMhBjFBFCIyUWGBsQcjM3FykaEVNEJShNEWJDZDYnOywcLwNVNUY3SDkuEmVZPSJURkgpSioxf/xAAaAQACAwEBAAAAAAAAAAAAAAAABAIDBQYB/8QANhEAAQMCAwQIBQQCAwAAAAAAAQACAwQREiExBUFRYRNxgZGxwdHwIjI0cqEGFELhUsIjRPH/2gAMAwEAAhEDEQA/ANxggggQiCCCBCIIIIEIggggQiCCPJNo50CF6giK5OMo/OV9nXhXwI9464+8qbVdYrnap5yTvFN/ZqPfAhLxdxb8ILLmMzKrbcqyyu+nXDVGKGac5dyb5RxD5X5Tm5mUb76Upvpb/wDWnZGwiabTalaufoFWpO89XZoYXp4XR4r4szlcEZbrXRjD9FKgiK3Nsr+nS762nCvh4GJANwuTDCF6ggggQiCCCBCIIIIEIggggQiCCCBCIIIIEIggggQiCCCBC5uOJbQVKirmsal5ZSb1pSm4dLeQeIA13a8eHXpV4xOzM1iLEhJqtce+kpPo0ce80J37gRoTpdYdg8nh6KtNhTnF1eqz3/dFBkc5xazdqVK1hcqtG0I+qpWnSSyqnxjg/i81PTaZKQSlx6wKUrUIRUAmvX+6tN+kMMzMsoStK3m0rtNBmBJ/29cKGBYhK4bic+rEXm5cOc7OeAaSaka66C7eBXhxiqZ8jC1rj8xte1rZde9SY3FoFdt7P38+cn5p1zjaq0e6Pj2BLQhSpOfmUroea6oLR26EceuKbF/KVgsjzJPNn3P7oWo71H9wMLT/AJU8TfWluUw2VbzDanMWpZ1NOFI9LYG+zfvT0ezayRuLBYc7Bd73/neYrPzfSZvGla0379a90O7WArWkKnMQmXFac1ohCOzQdXXpCjlJ+QszOY+ddGzzlN9buqmtKd/CIEv5U8Rl1lqdwuVcyzarLWpG7Q77ozdntaL9JvAPff3mvI6Wapv0Ivb3vT85gFovlJ+aac4XKuT7v94hS+LzEjOKkp9KW3QglKtShYAJFvV++lNCKREwnyk4FPc2aU7IOf36ap7lCo99I847PyuJYpIKw15uZS2blPM0cAodd2hpvOuleEPyubEA6M7wLcbngqJKeaM2laQrQ7Qj6qk6dJTKqfzv+ETJbGpaZVzFpVzj0d4A4kHXt4cerWdLTDLqEpQ42pdoqlKwoxGxDB5OfRz2wlz6LzeiweuvHvhg9KM7g9lvM+CXy3qwbcS6m5Me4U8InpmVxF6QnFXOs/SSB5xHDvFa7xoRvI1bInHIJG4gvCLFEEEETXiIIIIEIggggQiCCCBCIIIIEIjm8Lmlj9E8afHhHSCBCz7E5p3CsaTPobDlqKpbUoJB5pFK6gClTpUCo4Qh41ttjuMKVfNql2FdFqWqgU7SNT3nujTdscDexJhTbLaixaSrKIC9d4A6iAK0FTGWP7Nv8sW3JKSptKArMc01I6OnHwBEY7pRTyva51gTceea39kPpRd01sW6/vVURSlXOVzvahkwxWITeCOMNMtqS2kobUpJvcuIBFSaUAToKaVHZFMqTypvImnUtpSoJceSm8IqKgacdN0XM0tMplS2zczzn6rcbSQrhUGqtxI4b9BFNVJiaGs353Iyyz199l1sV0jZGtY3M63Ogtz95Jc/Rj0hLi1+aStSul5tJJTTjpu9cW2Jz+Fu4c01JyKUu06SgU2cSRQ6knriSxPSmAzimWLZthTaFpmMqxxRUkGmp3AmkWdLIYi4Mz4FWmqkLMozi4Hl/wCq3TMufg3n8tV6K+60d4pWla8frQkLS4hfnUrSpXO5ySCqvHXf64uS+6uZ/CLI80mYCMnstpW7104b4kOz8pj0+xLTFspLKSVOTSmr3EWpUdKbwaAd8LUwkY+1rg6m/wAvLs7klSB1MXHDcbzwtu7PylwmGTETiUpgLTbrbaUqohxSa3oCSQNQaAEGhFDXvMQ8In8LZk3Uz8olTqh0rSq/jrU0FOsRMkl8ovlNoZm3LCFttqUE1qmu8b6Cmla6mJzyvDw7Dk3tJ6lZVyOMgLmZNN89/V59iW0ixdyeapPRUnQj3Qy4HtzjuDqT+Mqm5ZPSZmVFWnYo6jw7IpDKXzeTJOpcaUu1t5SSgE0rTXjqPeOuLNnZuZROMNzikpYcBucbVWhArbrx7ewwy6qjizJtlfmmaiWlcy01jlodfW60TDJp3FcdVP25ZUi61KgqgtApXQHQg9RoeEPTItaQn6qRxrw6+MKWxuCTGHMtocbVyewFKniLyR0QR1UJpUVEOUNUDS2K7tSScxbVcRNbHZuiIIIIdVSIIIIEIggggQiCCCBCIjOTTTc41LKPnHQSnu3xnW2m1ONSO0YkGU8nkklHnE6KcBGqruFCSAAN47RFA6cY8+kYjNOOKWOTzDkwrMbB6QBrUd2+M+or44nYT7zzT7KAloc5wF7W98ltsEZLhW1ONSuPyWHocXPsc1p5LxucNSKqrvqAa8aj4a1DUE7ZmYmpeendDa51zRGf47sTlqnJ3BJmYafmFlxxtKqgEkkkDjqTUb+rqOgQR7NC2ZmFyhHK+M3aVhDGGT8jLYhh80p1Tc0pGYzLpqbwq4LVUC2nVUVrBJYMqRuclXbpmhDanKAN10JtBVU/CNE25wtS5ZudlHGWHEujNUtorLgNAABWlRSu6um8a1VH8YkpdGW6+wlVa85Yv00pQEmnZTfSOcrTURSdHe4PgtdlbNK3LfqB3eSrvkeWWvMm2GM9X1bwhR67SR7gYlHDFO/PbZn6uYwkWfoghQ07DFS5iOz6HlO85xy65VqHDqTXiUgxIVtdLWWoTMqTddbaAK7q0Kt9NKxQ6Od1sOI9YtbqzOS9Yyuf8zTy107hbsX08ivu+VGcqyzk9zWTZxFtd3x7YmjDMrnSGXLXUuU2wk3caVKjoeoRRDFsG/5X/wDg1E9vayWsttmUp6VtqSOoGgVvpx7Y8dBP/Fp/CvfT1H8WldDg0old0uwxnp+teWwfYBPurSOE5g7s9a5OuJTMpFqnG6edpuJSbaH1aRzTPYEt7NUlSVXXc5Lg1rXgVAReM4vKTCMtDzCta81YrupTWmnZSB75oyHDF1kfjU5Khr66M4pAQRoczl2gd2ipHsNnpqTlMNlFOpal3FkMzCQCpR1vTaDXQUpU0p2w74HsOqYRLTGOzMw67LrC227rQSKHnCm7TTjqa9UTNhMLXY/OzTrDys21m1otlum+4VoaggjTcd+tA7RuUdO57Wyym51Hb70SlTXSH4GnS+e/PXPVEEEEaizkRwDzeepmvnEpCiKHcSQPCEPHduZiRxV+Ql8PXc3XzjztgJGookAkg9dR7ooU7Y4gh7l/IGM9xOUpuq7AgUINd/bv3HuCslXG0gX3pxlBO4A215hbDBCJsxtm9iuMHDnZFaF/1rboWjQa1FARrpx13w9xeyRrxdpS8sT4nYXhEEEETVaIIIIEJN2wm5ebQ/IZB5SyRluqpRJIB9dKH4QjiTxW9pX/AIfan9Zr6xuJ9cOu2MmlqZamWXlpeeVzm8q4UAArWmlKDTjXshco/wD1jn/QjktovnbUEED+t3an4CA24VnsrMM4QtxyaZzJhyiUqbpRA40rrrX4CNFjOsAk0zuIpZmnlpTQlKUtUvIG6tNOvujRY2NkGQw/Ha25LT2xZJT232sc2XTKKbkkzPKCre7ZbS3sNa1hW/8A63Mf8ka/+Uf+yO3lr9HhHtPeCIy+G5JHB1gV0ezNnUs1M18jbk33nj1rRJjypmaZy38AYdbV9FUySP2Iop/aXCJ70uzLSVfW5VX9ps07oWKK6VqrfrW9W/8AnthklcOwtWD8tdamebalxN2t4oCAOok+v1QjUztbYvF75aBMS0lDTWOA58CfVVD8xhrq7kYSlv2Zpf3U+EcFGU+jLPJ+0A+KI5Wq+qr/AEngaH46R8izo28+8+q0WU8Q+W/efVX2zOAy2PPPt5j7GSArpJVdUn9EU3QxI8n8ojpzr6v/AGgeEQvJl87xD9U34qh0mcRlJRam3XLXbCtLdp5wHVpQns7RDUcDHMBN+8+q5raVXUxVTo4nEAW8AqBnYfD0L5/nE/pX/wDdT4RcSWBYTI85Ek0r9JSrfiAI9LxVhqQYnZht1tpxIUrmFVlR9KnuiFiOL3odYlWEuXc268UWggVKeB38TvBiQpov8b9efis8yVc5sXE9qaJaf5I1lysow239VNRHb5Ze/qm/9RhQwqamUPZakuONfStqba8euteG7qiYjE1Oz/JGkp6Z84pW8Aa0HXXT+TSyJ2IaWtuS7oXtcQRomzD8QcmnlNrbSnmXc2vAj74s4osE+eK/VHxTF7FiqWfbXzLOK82XZy5tlZRmOUoQDTWmu8ad8K6JTFM5Sl/J/OTbanM+AOgPbvhp2ok0yuJfirznnElbicq6hJJ301rrpwp2xT0f/rHP+hHHVr5xO4OAWhEQG5Jg2QmpfD7ZdTKlTMwsJU8mlOoAcacdeJMPEImyMkmYnlOTDzlzNFtt5Vo37yafDth7joNlmQ04L7crcEpNbFkiCCCNFVIggggQqrH/AELH6z9xilWOYr2Yusf9Cx+s/cYpV9BXswIUvZr5z/lL/aTDJC3s385/yl/tJhkgQsw8tfo8I9p7wRGXxqHlr9HhHtPeCIy+EpfnXbbG+jb2+JTXsqJlMhMpdYVlW3M3Nb6gk0qNRoIGW5tezMzcw9ylx0ry8ogk3A1tpWLLZ+ZTN4UxYlSctIaVd1hIB7osY5KepLZnXbncHu9VkzTESuJbne/d670vY3yt7BJSxhxTjwRnpS1qObU1AFRqIUo0XEptMlJuPupUpKfq79TTj64zlI5kauynl0bsrC61dkvJjcLWF06eTL53iH6pvxVDXisk+8vlKX1KQ2jzbKUDfx1rx7dN0Knky+d4h+qb8VQ3YviHIcixTFzi7ctytVgb7adXbHQw/IFhbTLxtF2DXLwCgSuLWSyWnWs5hSbU82ulNyuscPviFly2cp+XYS2lzoptAoCBwAFN0SJ535QmU2SyrlfRbSSV60qo6AgH3ViIuUUham1qU2pKrbbq7uPeDp3GGABe6vp2Rh2ICzuF1aYE6nlj/OV0Pq6aHXXr7PX3ycElrGeUq6Tieb2Cvif3COmCpaRIJs5yui4pW+oJND79OwwYSbEPy39S6Up9RJp8QYiVmTyOc6QjLMX7MvRX+CfPFfqj4pi9iiwT54r9UfFMXsRSapMd+ctewfGKl4eZV7MW2O/OWvYPjFS/6FXswIVrsz0H/ZR/FF5FHsz0H/ZR/FF5AhEEEECERWYzjeHYJL5+JTKWUq6I3qWeoAamLOMP8qkvNM7VuOTK1KaeaQWOoIA1A9RBPfEJHYRcJ7Z9K2qnEbjYJg2h26mZqWuwvDkJbbRnpVNOi9aN1wQDu1+tXshZndo8WRPsNTGJZcs4hC7pdpCdFDfqCdPXwjlhGHTePYUxKNPsNpbWecp8VU3voWxqQDuJoN0MY2LaXLNtzs6tzLQEJy2kINBqBUgn4iEGiqk1Nhn/AEVrEUFKcDwCc91zyOdwl53Fsaw11KF4vMNqU9alxKhTK0qrdxJHuMSZ3a3aXDXW8rFXVNqFyVuJbcS4K7wba+scIaMJ2MwucmGi+uaUpts2Kz9RQgDhTiYkzvkxw2YAy8Qnm7RRtKssoRx0ASPGJNhqAQS6/FRZXUBIxsHP4R5LOtotqZ/aJuVaxFLF0teUuNApurQGoqRw4Uikhi2x2Se2YelsybRMtTF6W1JbKSmlK1FSOPXFHJMpmJxhhSlJS46EKUnfqaaQSEtuXblvUz4BBjh+TP8AtMOCSjs7s9lMP5CuVFV2vADq/nSGeImGSDeGS2Q0pak3lVyqV1p1AdUVsxjzjWN8iyEZF4RdrfU0130pU7qcI53op9pSOZALhuJ24ZZX8slyVZPEyZ0pPzFcsXlHJTB8QU6/mZzwWnfoCoaawpxomJyrc3JusTDqmmukpSaaUNePqjPJnJzl5SnFMXebzKVI6zSNDZk7qjECLuJ3DkAPBbeyZY4YHNOQGdzoB1pv8mrzaJyevcQm5pFtygK84w/TDKZhl1h261xBSq3Q6imnUYw4+ymLzZ7aWdwZ5KCpb0p+cl1Krp1pruPwPHrHQugmp2AyMsOKzKhtPtCd0lLKHP8A8bEacL6rU2siXQxLZiU80JbSpQqaacd5++F6Ym1T3O5qba+jRqAOB6x6+uulYk4lmTzLGISrqZmWUpCmW22ueCdLrq1G813U7okS+HPomc2YU3apK8xSVGpqKHeO+JC2qTgLIgXuOfDO91Aw9UytaUy7uW44nndWgrqCDF3IynJEKvVmOuKuUr+f51ML7R89+KzKXlX2tqbSU0NaDU7619Wh31hpTdYm/pfSj1xUq99yC3Q8rHtVHtVtFO7OsyzuHJYzHr0KU6kqoBadACNfXC87tVtHMMtzYxh3kygvNymG0ZRAJt3E68CTxhnx/Zl7adUpLtTKJZDN61KUkq32jQClfeI9ynkxw9lhTT+JzziXKZiUWIC6Go4Ej3wlOyZx+A2TNJNRR07cYBfnfK+Xb+EiTuP4wiWkZl/FZ1xTyFFSbwNyqaaafGJ/ytiyMS5C1iTqvNXucoaQoAW14AEnUDfxhsxPYnCZdDcohc3lWHmqerxrppFXM7JJQuZmZXEplL7jVilPJQvSg3UApuEUGCqGbXcd/PLuVxraF+WEDX+I3nLS+i8YXt87groZxSSS8lxtC8yXVasJ1pVCuPZURoGBY9huOsKdw6ZS5b6Rs81aPaSdR69xjIsZwtzD5lc7NIklKcopSkvhKkg6FaW1ak1Fa86nVxiTskHp7yhtuYc9zErK3HEqqC0AAR2gmg9ZHVE4Zpg8MkG5eTUVNLCZYsrAm+643W3e8ltkEEEPrARCl5QdmF7SYU0JXL5XLrvbzNAsEUKSeFdD6wIbYI8IBFirIpXQvEjNQsa2P2fxbB8eU5iMg6ylTC0JcNCCapNAQSNwPuh2X0FezFjtRPSklKsOTsw0wi/84oD6J3f7RneLbeMIQpvC2VOK/rnqpR3J3nvpEBhjFrp14qdpS4wzPlp+V023npuQksPfk5p+XczVpuaWUk6DTTf6obfJpjU3jWz7juJOZkwzMKavtAKhRJFaaV51IxybnJ7FplPKHHZlxSrW20prv4JSP3CNh8m+ATmB4Q6MQCUvTLublb8sUAAJ6/CIMcXPuNE9W0rKWhbHIRjuqPy1+jwj2nvBEZi24ppaXGlWqSq5KuojURtO30nLTbsimaYQ7aly27hqiMnclWPwnyMtORyoJy9aUqNKdUITVLemfGRoLpzZFS39t0ZGgJ/K8fLmKf21z/Sn7ohLffXM8pW4rPuCrtN43HdThF7tZISkoiW5Kwhu4rut0uoBSJLGGyS9mOUrlm8/k61ZnGorr64WirIoYxLG22LLKw7+WSve+kdE17oQQTwGqopjF8QmEZDs2tbSukm1IuHcIk7NSrUxiKXHXGvNq9C4rVdQd3XSlYrW5e+WffR+bKPcbh40j7JTbklMZ8v0k/W1Cq9ca1DTCVssUFmuwm27M28vVIfqB7YKZuFtm4xit1XHkpD0i18pcmRNy2UrnZ19UI0JoT1ilPdEvaaUYl3m3JdTCeahOS2qp6PSPYfu64kt4Q/MYUqZXZytx0OpczRzUW1oTwPZ6uqKWfnX51aXJhSbqBKeEabXOrJMQku2Nrmv0zNhn227LLk6cmnlbhbZznNLe/T3xT75NptTuGzMor8y7cn1KFae8E98N0Y9hacUSh9/DX3W0p9Jlu2lVBXdWpoD8Ymhzabk3KeUz2X+tNeqtta0jIFZEwYXHPRdZWbK6Wdz2vaLnTmtDewm+c5WiZdSrOQtSdKWBIFg6tRWsWUZXftJk5/K5u2l9vKDfT2a1jyXtpORqm1Tc6lpPSufINBvNCa0j399Dx/Kodsh7rXlbwWzYJ88V+qPimIflCxeZwXZt2ZkXA3MrcQ22qgNKnWldK0B3wqeSSfm53FJ5M1NuvpTLptzFk0qrhWGnyhYHN49gGRIKGey6Hktq0zKBQtrwPO0rpUcN4YxYmEhJmmbTVjYpiLAi/Dikryf4lO4nM4k5Pzb8ypKW/TLKraldaA7u7qhvf8AQq9mMdYmMQweeVlKdlJltVriVJofUpJ3j1w24dt4hbOViktaq23OY1Hek6juJ9UVxygCxT+0tlzOkM0Iu02yHVw9F02vwTE8YnZP5LknZjLZtUpNAASo0qSQBDb5OdlHtnZWZen7DOzRFUpNctI3CvWSSTTTdE/Y2flJ5p5UnMoe5qLrTqOlvG8d8M0WhgxYlnSVs37cUpFgO/jmiCCCJpFEZ/5Stq8RwJctJ4aENqmEFapgpqU0NKJG6vaa740CM78ruETE7hspOybS3OSqXm5epDZAJNONCkeqtYhJfCbJ3Z4iNUwSi492/KytxybxObuUp+bm3PacWrxNIv8ADdicSmOdO2yjf6XOX7hoO890PGyLzExsdIONSrUurMUhzKTTMKai49ZI1PbWLJfQV7MVMhBFytOr2zM1zoomhtsuOn4UfYjApDCpisu3c+Wl3POarOqfcOwUh3hb2a+c/wCUv9pMMkXgAZBYT5HyOxPNylHbb5zJew54pjJ3fyt+1jxEaxtt85kvYc8Uxk7v5W/ax4iOdm+tm+3yC3NkfJJ9pVhtr0JP2l+AiXL/AJH/AGRfgYiba9CT9pfgIly/5H/ZF+BjPP0kP3eqYP0kX3Kp2Vl2ptGIMO9FxpCfiaH1jfFJOSy5SccllqTmtqtV1K4gwwbFemnPYR4mIOJtpd2nU26m5KphCVeo2gxq09TJDXSFp0AP4CalYyaomhlF2EXI6gFCTOqTIKkshu1S77rRX+e3fEdKFrHQUq0VtTrQDeT2dsXW02Fy2H5HJb05l91yq7qUpX1x4ZeaawFx1qUSl1xXJVOXHnAipUes10h921nzQ3jFg852yueefLclaLZlJCWVEQLjoMRGXvtK9OHEMMl7WG2lsWaTiGtaK4hVdDw7KCJ6X538H6cuOcpsvpVrdlg0Iu668eqI+E4khMs0xNMu5aUrRmJTVuw7yobjQ8Y6CVn0YUrDc/nZ1iVXCmSU1Kq/V4/CMeTWzwAQb34jj69acksDZ4AIOvH3r2rlIzGKTbKVLy22LClU6pHPSgb+fWpMSp+bm38BcVLocSxfalS9VraoaqJOup8YjYpiSVyzrEqy6pKkBrOUmjdg4pG4VPGOSZv/AIezMlNyfxTMuPQIuJ9dQBB0ZcWvwAZjL33cuC96MuwvwAZjL33cuCZ/Iz/S+I/4cftRrsZF5Gf6XxH/AA4/ajXY6KH5Fz+2frXdngEo7ZYJh+LONInWBdYbXk6LTrwP7jURm+LbET8pc7IOJm2k/R0S4nuOh7j3RreO/OWvYPjFS/6FXsxJ0bXaqil2hUU2THZcDp76li/43h8ylXn5SZT0Vc5C0+rcY1Dya7XYpis4rDMStmMtkuCY3LFCkUVTQ9LfodOMTMYcZl9k8UfflWpjLZRY26i4BRUQD3E106orvI9g83LIncTmmSht9CES6laFYqSo+ro0PGKmtLHgArWqKyOronySMAcMgefLsWnQQQQwucRBBBAhL01IS2FYbKSUk0lphtZtSntBJPrJJiCvoK9mLDaecYl0S6XVWrUoqToaaDXUDfqIoVYrLWekT8fuih1TCw4XPAPWpYXOzVzs185/yl/tJhkhR2anmFTyW0quUpC0ptSTxB100FB4Q3RYyRkguw3HJeEEapR22+cyXsOeKYyd38rftY8RGubat/NHPaR76EeBjI3fyt+1jxEYE4IrZvt9FvbI+ST7SrDbX0Mn7a/ARLl/yP8Asi/AxE219DJ+2vwES5f8j/si/AxnH6SH7vMpg/SRfcq/Yr0057KPFUQp78qvtTf8MTdifTTnst+KohT35Vfam/4YcH1sv2+QTn/dm+30Vjtt/wCT9pf8Mc2Zh5GzyX+SKVlpybXKlso33lPE10rHbbRpxbMs/wDmm1lCvWoVHwSYiYe8qbwd9uXllOTLLGRbdvbUSa06wYhE21HHiGV/MquCxpGHg7PvXWRxJ+bYy2JBal2ZVjekvrWhUndx1gU3LX5/KWspLoYUpLXm77a7q9CunvjwcQbwmWalEXOTLKTdl6M3nfdxUQO793luRSrZ9SbnLlIM5dYLOaLbfWd8WtJiJc34Q7LrB/rxVdTRQT4TI2zQ4Ea65593Zmu85iT8ozlzEgtK7Mm278XNNahO4ikeVzDytnlP8lUm5JZtbqGrDqV29YOlY5t4ixics7KLuamXkBKczVq8brR9EkadVeuCcdckcHabmpZTcy40uXSkr/NgglRFN9YrEYBa0ts6/vf1pgR2LWltnXHvXrTF5Gf6XxH/AA4/ajXYyfyLsKM9isx9BLbaK9pKj+74xrEdJD8iwNsm9a/s8AqTHfnLXsHxipf9Cr2Yl7SYgyxNtNrVapKLtUnieGmu6KdzFJZaFJzE85Pb90RdVQNNnPAPWFmhjjuVzhckxiEhNyU0nMYebCHE9hu+PbDC2hLTaG0aJSLR3QvbLTbLq3m2lXKsQeak03nifX4wyxYx7XjE03C8NxkUQQQRNeIggha29U0jZl9T6ptLV7d3JKZnSG6um/f2ViTRicBxXjjYXVHtHMOP4o+lyYNrKrW03Cg0FeG+KwJ/vVfD7opmJBSkXSWxynWFfnJt+ji+2hIp3REU3hbS8h2Qx6UX9KTbUChR6hXUjujNm/TYnlc8za8gf9kNr8DQMP5PomdiYclXUvMTKkuJ6Krk/dqI09J5sYsnDnMnmbFJyKfSmDm08Qe6G7yZcmHyk3KNYgylOVVmdpzOnons9cNUmy/2Mbv+TF3ZdzivHVPSuAtbv8wE141I/KGHOsJpm9Jv2hu9+71ExhbwUnbC1aVJUmbAUlWhBBFQe2P0NCntPshLYxNtYlLEMYgyoKupzHgNyVU+ChqO3dFFTTB93t+axC0tn1badzg/RwI6lmu2voZP21+AiXL/AJH/AGRfgY87dyE6wiWS/JPptWblWFSNRpzhUd1a9gj6wf8Ag+3/ANKvwMc7JG+Omia8WOL1WrjaaSKx/koGxPppz2W/FUQcR/KpX+Kb/hi02JlJm+ZVyZ+1QRaqwgGhVXU0HHri+lJHCcPxWZm5qeY+U1K5qXF0DJIppXjTievTt0YqWR1ZI4j4SLX7l7VV0VNVSucdRYddgpk/hjc9gL8k7cl1xV11pIQ4N1SBuFKE9p64z/DcRmcEefYdludda424aFJHaIfZ0Pr2zwiZYVbIplXLk3bhQ1FONSUUpWtARuiJtFheDYx0cQlJSeTVKbnU84V0SsVroO8du6GxC2aPoi3ID32pamqoaYdHM67H59R9jwSzMYM1O/jMq85mTCS+lLjRpQ6lNwqK1r8I5plJ/wDB1Sch/wCcXZetbaUOm+leEc5zCsbwpC21NzKWFc65hRU2eNajd30jinHsQTJ8kzuzMVXM9Va/HfCjoKhtgCDY7+C229I9o6N4cAfwp0rgqJe1+aedS4y2JhSUNGiQNaVOlT1dhiFjGLu4stpGTalKualPOKidB38KDrj1IYdjuNBMvJy07MordzqhAJ4lRoPeY07YrYFrBXRP4opEziCfRpSPNs+qupPaQKcBxN8NG9z8chuRpyS9RVw0x6SVwc8aAbvRWuwWAnAdn2mX0jlbxzX+wncnuAA9dYZ4ISvKYZb5OkkzaZ9aVPkZclSqzadFV4f7RsxMxENC5CeZz3Okdqc1T4hMuTU444/MqUq4jpJ0AJoBpoI4W/SzVfD7opxhzmTzNiU5FPpTBzaeIPdEMN4SvzCJHaBxX9hVQIr1aagd1Yyn/pkSvLjMTfkD/svBtAtFsPj6JxwWYcl8UYyplQvdQhaaihBIBB0jR4xN3D1ZP4xsZax9Zh+rqe3Qkk+sQ/8Ak5UwvAXeT8sy0zC02zlMxOidNOEPU2zv2UJbjxZ8su4lRNR0rtLd/mAm2CCCLVJEVWPyEziOGOS8jN8ifUQUvWXW0NTp2io74IIL2zRa+SW2/JxIOoK8SxHEZuZV0ns0J9woae8xzOxWNNealNqn0y30UuMBS0jqurr8IIIu/cyXsTfsBVRhYNPErqPJvhtl68RxRUz/AGjPF1evdFxsxgk9g/KUzmKKn0uWZV6LSgCtQTU1rWCCIvme4WcbqTYmtzCYIIIIrU15WlKk2qTVMV7uDSi1XpRlK60fcagd0fIIEKM5g735p9tR6lAp+Ir4RVYnswnELOWyqXFp6LjblD6q6GnYYIIFFzQ4WIVcjY0oW0lLc3yZKFpUzygc66nEKFBpqBvrrEiU2KlZd1LqJBNyejnO3Ad1SPhBBElUIo7j4Qr1rB5n6TjTfs1V90SWcGlQAty549atPgKfGsEERV6sEIQlFqEpSnqSKR0gggQiKPafCZ3F5VhuQxJUgpLlXHEouKkkUoNRTWh7o+QR602NwvCL5KkHk3w2y9WIYmqZ/tGeLq9e6OX4FY2sZLm1cxyb9FmjlOq66te2CCLf3Em836wCodCwaea6nyb4clu+UxHEmZlOqZjOBNe0UFfhDBs5hk3hUgtifn+WuqcKs7Lt0oABSp6oII8fK94s43UhE1puFcQQQRUpL//Z</t>
+  </si>
+  <si>
+    <t>https://imagif.github.io/PAPAPUMUKY1/ESPA%C3%91A.m3u</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/IMAGIF/PAPAPUMUKY1/540215e55189e6bbdec400119a2d482d6e8fe52c/IMAGEN/ESPA%C3%91A.jpeg</t>
   </si>
 </sst>
 </file>
@@ -2003,10 +2009,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2355,7 +2361,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2363,643 +2369,643 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
+      <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
+      <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
+      <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
+      <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
+      <c r="A34" s="4"/>
       <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
+      <c r="A36" s="4"/>
       <c r="B36" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
       <c r="B37" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
+      <c r="A38" s="4"/>
       <c r="B38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
+      <c r="A39" s="4"/>
       <c r="B39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
+      <c r="A40" s="4"/>
       <c r="B40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
       <c r="B41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
+      <c r="A42" s="4"/>
       <c r="B42" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
       <c r="B43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
+      <c r="A44" s="4"/>
       <c r="B44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4"/>
       <c r="B45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
+      <c r="A46" s="4"/>
       <c r="B46" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
+      <c r="A47" s="4"/>
       <c r="B47" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
+      <c r="A48" s="4"/>
       <c r="B48" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
+      <c r="A49" s="4"/>
       <c r="B49" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
+      <c r="A50" s="4"/>
       <c r="B50" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
+      <c r="A51" s="4"/>
       <c r="B51" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
+      <c r="A52" s="4"/>
       <c r="B52" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
       <c r="B53" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
+      <c r="A54" s="4"/>
       <c r="B54" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
+      <c r="A55" s="4"/>
       <c r="B55" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
+      <c r="A56" s="4"/>
       <c r="B56" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
+      <c r="A57" s="4"/>
       <c r="B57" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
+      <c r="A58" s="4"/>
       <c r="B58" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
+      <c r="A59" s="4"/>
       <c r="B59" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
+      <c r="A60" s="4"/>
       <c r="B60" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
+      <c r="A61" s="4"/>
       <c r="B61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
+      <c r="A62" s="4"/>
       <c r="B62" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
+      <c r="A63" s="4"/>
       <c r="B63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
+      <c r="A64" s="4"/>
       <c r="B64" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
+      <c r="A65" s="4"/>
       <c r="B65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
+      <c r="A66" s="4"/>
       <c r="B66" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
+      <c r="A67" s="4"/>
       <c r="B67" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
+      <c r="A68" s="4"/>
       <c r="B68" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
+      <c r="A69" s="4"/>
       <c r="B69" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
+      <c r="A70" s="4"/>
       <c r="B70" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
+      <c r="A71" s="4"/>
       <c r="B71" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
+      <c r="A72" s="4"/>
       <c r="B72" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
+      <c r="A73" s="4"/>
       <c r="B73" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
+      <c r="A74" s="4"/>
       <c r="B74" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
+      <c r="A75" s="4"/>
       <c r="B75" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
+      <c r="A76" s="4"/>
       <c r="B76" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
+      <c r="A77" s="4"/>
       <c r="B77" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
+      <c r="A78" s="4"/>
       <c r="B78" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
+      <c r="A79" s="4"/>
       <c r="B79" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
+      <c r="A80" s="4"/>
       <c r="B80" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
+      <c r="A81" s="4"/>
       <c r="B81" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
+      <c r="A82" s="4"/>
       <c r="B82" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
+      <c r="A83" s="4"/>
       <c r="B83" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
+      <c r="A84" s="4"/>
       <c r="B84" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
+      <c r="A85" s="4"/>
       <c r="B85" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
+      <c r="A86" s="4"/>
       <c r="B86" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
+      <c r="A87" s="4"/>
       <c r="B87" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="3"/>
+      <c r="A88" s="4"/>
       <c r="B88" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
+      <c r="A89" s="4"/>
       <c r="B89" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="3"/>
+      <c r="A90" s="4"/>
       <c r="B90" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="3"/>
+      <c r="A91" s="4"/>
       <c r="B91" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="3"/>
+      <c r="A92" s="4"/>
       <c r="B92" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
+      <c r="A93" s="4"/>
       <c r="B93" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
+      <c r="A94" s="4"/>
       <c r="B94" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
+      <c r="A95" s="4"/>
       <c r="B95" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
+      <c r="A96" s="4"/>
       <c r="B96" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3"/>
+      <c r="A97" s="4"/>
       <c r="B97" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="3"/>
+      <c r="A98" s="4"/>
       <c r="B98" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="3"/>
+      <c r="A99" s="4"/>
       <c r="B99" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
+      <c r="A100" s="4"/>
       <c r="B100" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="3"/>
+      <c r="A101" s="4"/>
       <c r="B101" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="3"/>
+      <c r="A102" s="4"/>
       <c r="B102" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="3"/>
+      <c r="A103" s="4"/>
       <c r="B103" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="3"/>
+      <c r="A104" s="4"/>
       <c r="B104" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="3"/>
+      <c r="A105" s="4"/>
       <c r="B105" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="3"/>
+      <c r="A106" s="4"/>
       <c r="B106" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="3"/>
+      <c r="A107" s="4"/>
       <c r="B107" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="3"/>
+      <c r="A108" s="4"/>
       <c r="B108" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="3"/>
+      <c r="A109" s="4"/>
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -3047,44 +3053,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -3101,6 +3069,44 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3122,7 +3128,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -3130,13 +3136,13 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -3144,13 +3150,13 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -3158,13 +3164,13 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -3172,13 +3178,13 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -3186,13 +3192,13 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -3200,13 +3206,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
       <c r="B14" t="s">
@@ -3214,13 +3220,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>8</v>
       </c>
       <c r="B16" t="s">
@@ -3228,13 +3234,13 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>9</v>
       </c>
       <c r="B18" t="s">
@@ -3242,13 +3248,13 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>10</v>
       </c>
       <c r="B20" t="s">
@@ -3256,13 +3262,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>11</v>
       </c>
       <c r="B22" t="s">
@@ -3270,13 +3276,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>12</v>
       </c>
       <c r="B24" t="s">
@@ -3284,13 +3290,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>13</v>
       </c>
       <c r="B26" t="s">
@@ -3298,13 +3304,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>14</v>
       </c>
       <c r="B28" t="s">
@@ -3312,13 +3318,13 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>15</v>
       </c>
       <c r="B30" t="s">
@@ -3326,13 +3332,13 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>16</v>
       </c>
       <c r="B32" t="s">
@@ -3340,13 +3346,13 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>17</v>
       </c>
       <c r="B34" t="s">
@@ -3354,13 +3360,13 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>18</v>
       </c>
       <c r="B36" t="s">
@@ -3368,13 +3374,13 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
       <c r="B37" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>19</v>
       </c>
       <c r="B38" t="s">
@@ -3382,13 +3388,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
+      <c r="A39" s="4"/>
       <c r="B39" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>20</v>
       </c>
       <c r="B40" t="s">
@@ -3396,13 +3402,13 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
       <c r="B41" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>21</v>
       </c>
       <c r="B42" t="s">
@@ -3410,13 +3416,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
       <c r="B43" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>22</v>
       </c>
       <c r="B44" t="s">
@@ -3424,13 +3430,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4"/>
       <c r="B45" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>23</v>
       </c>
       <c r="B46" t="s">
@@ -3438,13 +3444,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
+      <c r="A47" s="4"/>
       <c r="B47" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>24</v>
       </c>
       <c r="B48" t="s">
@@ -3452,48 +3458,52 @@
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
+      <c r="A49" s="4"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
+      <c r="A51" s="4"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
+      <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
+      <c r="A57" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -3506,16 +3516,12 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4756,10 +4762,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B60351B-4707-4B49-B425-F96E58F51BEE}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -4769,16 +4775,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>531</v>
       </c>
     </row>
@@ -4888,6 +4894,22 @@
       </c>
       <c r="D10" t="s">
         <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>533</v>
+      </c>
+      <c r="B11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -4911,7 +4933,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -4919,13 +4941,13 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -4933,21 +4955,21 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -4955,13 +4977,13 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -4969,13 +4991,13 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -4983,13 +5005,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
       <c r="B14" t="s">
@@ -4997,13 +5019,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>8</v>
       </c>
       <c r="B16" t="s">
@@ -5011,13 +5033,13 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>9</v>
       </c>
       <c r="B18" t="s">
@@ -5025,13 +5047,13 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>10</v>
       </c>
       <c r="B20" t="s">
@@ -5039,13 +5061,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>11</v>
       </c>
       <c r="B22" t="s">
@@ -5053,13 +5075,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>12</v>
       </c>
       <c r="B24" t="s">
@@ -5067,13 +5089,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>13</v>
       </c>
       <c r="B26" t="s">
@@ -5081,13 +5103,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>14</v>
       </c>
       <c r="B28" t="s">
@@ -5095,13 +5117,13 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>15</v>
       </c>
       <c r="B30" t="s">
@@ -5109,13 +5131,13 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>16</v>
       </c>
       <c r="B32" t="s">
@@ -5123,13 +5145,13 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>17</v>
       </c>
       <c r="B34" t="s">
@@ -5137,13 +5159,13 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>18</v>
       </c>
       <c r="B36" t="s">
@@ -5151,13 +5173,13 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
       <c r="B37" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>19</v>
       </c>
       <c r="B38" t="s">
@@ -5165,13 +5187,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
+      <c r="A39" s="4"/>
       <c r="B39" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>20</v>
       </c>
       <c r="B40" t="s">
@@ -5179,13 +5201,13 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
       <c r="B41" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>21</v>
       </c>
       <c r="B42" t="s">
@@ -5193,13 +5215,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
       <c r="B43" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>22</v>
       </c>
       <c r="B44" t="s">
@@ -5207,13 +5229,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4"/>
       <c r="B45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>23</v>
       </c>
       <c r="B46" t="s">
@@ -5221,13 +5243,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
+      <c r="A47" s="4"/>
       <c r="B47" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>24</v>
       </c>
       <c r="B48" t="s">
@@ -5235,13 +5257,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
+      <c r="A49" s="4"/>
       <c r="B49" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>25</v>
       </c>
       <c r="B50" t="s">
@@ -5249,13 +5271,13 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
+      <c r="A51" s="4"/>
       <c r="B51" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>26</v>
       </c>
       <c r="B52" t="s">
@@ -5263,13 +5285,13 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
       <c r="B53" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>27</v>
       </c>
       <c r="B54" t="s">
@@ -5277,13 +5299,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
+      <c r="A55" s="4"/>
       <c r="B55" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>28</v>
       </c>
       <c r="B56" t="s">
@@ -5291,13 +5313,13 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
+      <c r="A57" s="4"/>
       <c r="B57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>29</v>
       </c>
       <c r="B58" t="s">
@@ -5305,13 +5327,13 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
+      <c r="A59" s="4"/>
       <c r="B59" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>30</v>
       </c>
       <c r="B60" t="s">
@@ -5319,13 +5341,13 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
+      <c r="A61" s="4"/>
       <c r="B61" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>31</v>
       </c>
       <c r="B62" t="s">
@@ -5333,13 +5355,13 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
+      <c r="A63" s="4"/>
       <c r="B63" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>32</v>
       </c>
       <c r="B64" t="s">
@@ -5347,13 +5369,13 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
+      <c r="A65" s="4"/>
       <c r="B65" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>33</v>
       </c>
       <c r="B66" t="s">
@@ -5361,29 +5383,29 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
+      <c r="A67" s="4"/>
       <c r="B67" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
+      <c r="A69" s="4"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
+      <c r="A71" s="4"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>36</v>
       </c>
       <c r="B72" t="s">
@@ -5391,13 +5413,13 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
+      <c r="A73" s="4"/>
       <c r="B73" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>37</v>
       </c>
       <c r="B74" t="s">
@@ -5405,13 +5427,13 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
+      <c r="A75" s="4"/>
       <c r="B75" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>38</v>
       </c>
       <c r="B76" t="s">
@@ -5419,13 +5441,13 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
+      <c r="A77" s="4"/>
       <c r="B77" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="A78" s="4">
         <v>39</v>
       </c>
       <c r="B78" t="s">
@@ -5433,13 +5455,13 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
+      <c r="A79" s="4"/>
       <c r="B79" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="A80" s="4">
         <v>40</v>
       </c>
       <c r="B80" t="s">
@@ -5447,13 +5469,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
+      <c r="A81" s="4"/>
       <c r="B81" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="A82" s="4">
         <v>41</v>
       </c>
       <c r="B82" t="s">
@@ -5461,13 +5483,13 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
+      <c r="A83" s="4"/>
       <c r="B83" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="A84" s="4">
         <v>42</v>
       </c>
       <c r="B84" t="s">
@@ -5475,13 +5497,13 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
+      <c r="A85" s="4"/>
       <c r="B85" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="A86" s="4">
         <v>43</v>
       </c>
       <c r="B86" t="s">
@@ -5489,13 +5511,13 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
+      <c r="A87" s="4"/>
       <c r="B87" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="A88" s="4">
         <v>44</v>
       </c>
       <c r="B88" t="s">
@@ -5503,13 +5525,13 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
+      <c r="A89" s="4"/>
       <c r="B89" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="A90" s="4">
         <v>45</v>
       </c>
       <c r="B90" t="s">
@@ -5517,13 +5539,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="3"/>
+      <c r="A91" s="4"/>
       <c r="B91" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="A92" s="4">
         <v>46</v>
       </c>
       <c r="B92" t="s">
@@ -5531,13 +5553,13 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
+      <c r="A93" s="4"/>
       <c r="B93" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="A94" s="4">
         <v>47</v>
       </c>
       <c r="B94" t="s">
@@ -5545,13 +5567,13 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
+      <c r="A95" s="4"/>
       <c r="B95" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="A96" s="4">
         <v>48</v>
       </c>
       <c r="B96" t="s">
@@ -5559,13 +5581,13 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3"/>
+      <c r="A97" s="4"/>
       <c r="B97" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="A98" s="4">
         <v>49</v>
       </c>
       <c r="B98" t="s">
@@ -5573,13 +5595,13 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="3"/>
+      <c r="A99" s="4"/>
       <c r="B99" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+      <c r="A100" s="4">
         <v>50</v>
       </c>
       <c r="B100" t="s">
@@ -5587,13 +5609,13 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="3"/>
+      <c r="A101" s="4"/>
       <c r="B101" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="A102" s="4">
         <v>51</v>
       </c>
       <c r="B102" t="s">
@@ -5601,13 +5623,13 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="3"/>
+      <c r="A103" s="4"/>
       <c r="B103" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="A104" s="4">
         <v>52</v>
       </c>
       <c r="B104" t="s">
@@ -5615,13 +5637,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="3"/>
+      <c r="A105" s="4"/>
       <c r="B105" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="A106" s="4">
         <v>53</v>
       </c>
       <c r="B106" t="s">
@@ -5629,13 +5651,13 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="3"/>
+      <c r="A107" s="4"/>
       <c r="B107" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="A108" s="4">
         <v>54</v>
       </c>
       <c r="B108" t="s">
@@ -5643,13 +5665,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="3"/>
+      <c r="A109" s="4"/>
       <c r="B109" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+      <c r="A110" s="4">
         <v>55</v>
       </c>
       <c r="B110" t="s">
@@ -5657,13 +5679,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="3"/>
+      <c r="A111" s="4"/>
       <c r="B111" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="A112" s="4">
         <v>56</v>
       </c>
       <c r="B112" t="s">
@@ -5671,13 +5693,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="3"/>
+      <c r="A113" s="4"/>
       <c r="B113" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+      <c r="A114" s="4">
         <v>57</v>
       </c>
       <c r="B114" t="s">
@@ -5685,13 +5707,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="3"/>
+      <c r="A115" s="4"/>
       <c r="B115" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="A116" s="4">
         <v>58</v>
       </c>
       <c r="B116" t="s">
@@ -5699,13 +5721,13 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="3"/>
+      <c r="A117" s="4"/>
       <c r="B117" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="A118" s="4">
         <v>59</v>
       </c>
       <c r="B118" t="s">
@@ -5713,13 +5735,13 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="3"/>
+      <c r="A119" s="4"/>
       <c r="B119" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="A120" s="4">
         <v>60</v>
       </c>
       <c r="B120" t="s">
@@ -5727,13 +5749,13 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="3"/>
+      <c r="A121" s="4"/>
       <c r="B121" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="A122" s="4">
         <v>61</v>
       </c>
       <c r="B122" t="s">
@@ -5741,13 +5763,13 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="3"/>
+      <c r="A123" s="4"/>
       <c r="B123" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="A124" s="4">
         <v>62</v>
       </c>
       <c r="B124" t="s">
@@ -5755,13 +5777,13 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="3"/>
+      <c r="A125" s="4"/>
       <c r="B125" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="A126" s="4">
         <v>63</v>
       </c>
       <c r="B126" t="s">
@@ -5769,13 +5791,13 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="3"/>
+      <c r="A127" s="4"/>
       <c r="B127" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="A128" s="4">
         <v>64</v>
       </c>
       <c r="B128" t="s">
@@ -5783,13 +5805,13 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="3"/>
+      <c r="A129" s="4"/>
       <c r="B129" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+      <c r="A130" s="4">
         <v>65</v>
       </c>
       <c r="B130" t="s">
@@ -5797,13 +5819,13 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="3"/>
+      <c r="A131" s="4"/>
       <c r="B131" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+      <c r="A132" s="4">
         <v>66</v>
       </c>
       <c r="B132" t="s">
@@ -5811,13 +5833,13 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="3"/>
+      <c r="A133" s="4"/>
       <c r="B133" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="A134" s="4">
         <v>67</v>
       </c>
       <c r="B134" t="s">
@@ -5825,13 +5847,13 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="3"/>
+      <c r="A135" s="4"/>
       <c r="B135" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+      <c r="A136" s="4">
         <v>68</v>
       </c>
       <c r="B136" t="s">
@@ -5839,13 +5861,13 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="3"/>
+      <c r="A137" s="4"/>
       <c r="B137" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="A138" s="4">
         <v>69</v>
       </c>
       <c r="B138" t="s">
@@ -5853,13 +5875,13 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="3"/>
+      <c r="A139" s="4"/>
       <c r="B139" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="A140" s="4">
         <v>70</v>
       </c>
       <c r="B140" t="s">
@@ -5867,13 +5889,13 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="3"/>
+      <c r="A141" s="4"/>
       <c r="B141" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+      <c r="A142" s="4">
         <v>71</v>
       </c>
       <c r="B142" t="s">
@@ -5881,13 +5903,13 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="3"/>
+      <c r="A143" s="4"/>
       <c r="B143" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+      <c r="A144" s="4">
         <v>72</v>
       </c>
       <c r="B144" t="s">
@@ -5895,53 +5917,53 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="3"/>
+      <c r="A145" s="4"/>
       <c r="B145" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+      <c r="A146" s="4">
         <v>73</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="3"/>
+      <c r="A147" s="4"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+      <c r="A148" s="4">
         <v>74</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="3"/>
+      <c r="A149" s="4"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="A150" s="4">
         <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="3"/>
+      <c r="A151" s="4"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+      <c r="A152" s="4">
         <v>76</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="3"/>
+      <c r="A153" s="4"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+      <c r="A154" s="4">
         <v>77</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="3"/>
+      <c r="A155" s="4"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+      <c r="A156" s="4">
         <v>78</v>
       </c>
       <c r="B156" t="s">
@@ -5949,13 +5971,13 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="3"/>
+      <c r="A157" s="4"/>
       <c r="B157" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+      <c r="A158" s="4">
         <v>79</v>
       </c>
       <c r="B158" t="s">
@@ -5963,13 +5985,13 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="3"/>
+      <c r="A159" s="4"/>
       <c r="B159" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+      <c r="A160" s="4">
         <v>80</v>
       </c>
       <c r="B160" t="s">
@@ -5977,13 +5999,13 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="3"/>
+      <c r="A161" s="4"/>
       <c r="B161" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="A162" s="4">
         <v>81</v>
       </c>
       <c r="B162" t="s">
@@ -5991,13 +6013,13 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="3"/>
+      <c r="A163" s="4"/>
       <c r="B163" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="A164" s="4">
         <v>82</v>
       </c>
       <c r="B164" t="s">
@@ -6005,13 +6027,13 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="3"/>
+      <c r="A165" s="4"/>
       <c r="B165" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="A166" s="4">
         <v>83</v>
       </c>
       <c r="B166" t="s">
@@ -6019,13 +6041,13 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="3"/>
+      <c r="A167" s="4"/>
       <c r="B167" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+      <c r="A168" s="4">
         <v>84</v>
       </c>
       <c r="B168" t="s">
@@ -6033,13 +6055,13 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="3"/>
+      <c r="A169" s="4"/>
       <c r="B169" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+      <c r="A170" s="4">
         <v>85</v>
       </c>
       <c r="B170" t="s">
@@ -6047,13 +6069,13 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="3"/>
+      <c r="A171" s="4"/>
       <c r="B171" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+      <c r="A172" s="4">
         <v>86</v>
       </c>
       <c r="B172" t="s">
@@ -6061,29 +6083,29 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="3"/>
+      <c r="A173" s="4"/>
       <c r="B173" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+      <c r="A174" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="3"/>
+      <c r="A175" s="4"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+      <c r="A176" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="3"/>
+      <c r="A177" s="4"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+      <c r="A178" s="4">
         <v>89</v>
       </c>
       <c r="B178" t="s">
@@ -6091,21 +6113,21 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="3"/>
+      <c r="A179" s="4"/>
       <c r="B179" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
+      <c r="A180" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="3"/>
+      <c r="A181" s="4"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
+      <c r="A182" s="4">
         <v>91</v>
       </c>
       <c r="B182" t="s">
@@ -6113,13 +6135,13 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="3"/>
+      <c r="A183" s="4"/>
       <c r="B183" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
+      <c r="A184" s="4">
         <v>92</v>
       </c>
       <c r="B184" t="s">
@@ -6127,13 +6149,13 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="3"/>
+      <c r="A185" s="4"/>
       <c r="B185" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
+      <c r="A186" s="4">
         <v>93</v>
       </c>
       <c r="B186" t="s">
@@ -6141,13 +6163,13 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="3"/>
+      <c r="A187" s="4"/>
       <c r="B187" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
+      <c r="A188" s="4">
         <v>94</v>
       </c>
       <c r="B188" t="s">
@@ -6155,13 +6177,13 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="3"/>
+      <c r="A189" s="4"/>
       <c r="B189" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
+      <c r="A190" s="4">
         <v>95</v>
       </c>
       <c r="B190" t="s">
@@ -6169,13 +6191,13 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="3"/>
+      <c r="A191" s="4"/>
       <c r="B191" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
+      <c r="A192" s="4">
         <v>96</v>
       </c>
       <c r="B192" t="s">
@@ -6183,13 +6205,13 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="3"/>
+      <c r="A193" s="4"/>
       <c r="B193" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
+      <c r="A194" s="4">
         <v>97</v>
       </c>
       <c r="B194" t="s">
@@ -6197,13 +6219,13 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="3"/>
+      <c r="A195" s="4"/>
       <c r="B195" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
+      <c r="A196" s="4">
         <v>98</v>
       </c>
       <c r="B196" t="s">
@@ -6211,13 +6233,13 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="3"/>
+      <c r="A197" s="4"/>
       <c r="B197" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+      <c r="A198" s="4">
         <v>99</v>
       </c>
       <c r="B198" t="s">
@@ -6225,13 +6247,13 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="3"/>
+      <c r="A199" s="4"/>
       <c r="B199" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+      <c r="A200" s="4">
         <v>100</v>
       </c>
       <c r="B200" t="s">
@@ -6239,13 +6261,13 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="3"/>
+      <c r="A201" s="4"/>
       <c r="B201" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+      <c r="A202" s="4">
         <v>101</v>
       </c>
       <c r="B202" t="s">
@@ -6253,13 +6275,13 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="3"/>
+      <c r="A203" s="4"/>
       <c r="B203" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
+      <c r="A204" s="4">
         <v>102</v>
       </c>
       <c r="B204" t="s">
@@ -6267,13 +6289,13 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="3"/>
+      <c r="A205" s="4"/>
       <c r="B205" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="3">
+      <c r="A206" s="4">
         <v>103</v>
       </c>
       <c r="B206" t="s">
@@ -6281,13 +6303,13 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="3"/>
+      <c r="A207" s="4"/>
       <c r="B207" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="3">
+      <c r="A208" s="4">
         <v>104</v>
       </c>
       <c r="B208" t="s">
@@ -6295,13 +6317,13 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="3"/>
+      <c r="A209" s="4"/>
       <c r="B209" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="3">
+      <c r="A210" s="4">
         <v>105</v>
       </c>
       <c r="B210" t="s">
@@ -6309,13 +6331,13 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="3"/>
+      <c r="A211" s="4"/>
       <c r="B211" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="3">
+      <c r="A212" s="4">
         <v>106</v>
       </c>
       <c r="B212" t="s">
@@ -6323,13 +6345,13 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="3"/>
+      <c r="A213" s="4"/>
       <c r="B213" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="3">
+      <c r="A214" s="4">
         <v>107</v>
       </c>
       <c r="B214" t="s">
@@ -6337,13 +6359,13 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="3"/>
+      <c r="A215" s="4"/>
       <c r="B215" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
+      <c r="A216" s="4">
         <v>108</v>
       </c>
       <c r="B216" t="s">
@@ -6351,13 +6373,13 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="3"/>
+      <c r="A217" s="4"/>
       <c r="B217" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="3">
+      <c r="A218" s="4">
         <v>109</v>
       </c>
       <c r="B218" t="s">
@@ -6365,13 +6387,13 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="3"/>
+      <c r="A219" s="4"/>
       <c r="B219" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="3">
+      <c r="A220" s="4">
         <v>110</v>
       </c>
       <c r="B220" t="s">
@@ -6379,13 +6401,13 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="3"/>
+      <c r="A221" s="4"/>
       <c r="B221" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="3">
+      <c r="A222" s="4">
         <v>111</v>
       </c>
       <c r="B222" t="s">
@@ -6393,37 +6415,37 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="3"/>
+      <c r="A223" s="4"/>
       <c r="B223" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="3">
+      <c r="A224" s="4">
         <v>112</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="3"/>
+      <c r="A225" s="4"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="3">
+      <c r="A226" s="4">
         <v>113</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="3"/>
+      <c r="A227" s="4"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="3">
+      <c r="A228" s="4">
         <v>114</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="3"/>
+      <c r="A229" s="4"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="3">
+      <c r="A230" s="4">
         <v>115</v>
       </c>
       <c r="B230" t="s">
@@ -6431,13 +6453,13 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="3"/>
+      <c r="A231" s="4"/>
       <c r="B231" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="3">
+      <c r="A232" s="4">
         <v>116</v>
       </c>
       <c r="B232" t="s">
@@ -6445,13 +6467,13 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="3"/>
+      <c r="A233" s="4"/>
       <c r="B233" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="3">
+      <c r="A234" s="4">
         <v>117</v>
       </c>
       <c r="B234" t="s">
@@ -6459,13 +6481,13 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="3"/>
+      <c r="A235" s="4"/>
       <c r="B235" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="3">
+      <c r="A236" s="4">
         <v>118</v>
       </c>
       <c r="B236" t="s">
@@ -6473,13 +6495,13 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="3"/>
+      <c r="A237" s="4"/>
       <c r="B237" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="3">
+      <c r="A238" s="4">
         <v>119</v>
       </c>
       <c r="B238" t="s">
@@ -6487,13 +6509,13 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="3"/>
+      <c r="A239" s="4"/>
       <c r="B239" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="3">
+      <c r="A240" s="4">
         <v>120</v>
       </c>
       <c r="B240" t="s">
@@ -6501,13 +6523,13 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="3"/>
+      <c r="A241" s="4"/>
       <c r="B241" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="3">
+      <c r="A242" s="4">
         <v>121</v>
       </c>
       <c r="B242" t="s">
@@ -6515,13 +6537,13 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="3"/>
+      <c r="A243" s="4"/>
       <c r="B243" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="3">
+      <c r="A244" s="4">
         <v>122</v>
       </c>
       <c r="B244" t="s">
@@ -6529,13 +6551,13 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="3"/>
+      <c r="A245" s="4"/>
       <c r="B245" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="3">
+      <c r="A246" s="4">
         <v>123</v>
       </c>
       <c r="B246" t="s">
@@ -6543,13 +6565,13 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="3"/>
+      <c r="A247" s="4"/>
       <c r="B247" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="3">
+      <c r="A248" s="4">
         <v>124</v>
       </c>
       <c r="B248" t="s">
@@ -6557,13 +6579,13 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="3"/>
+      <c r="A249" s="4"/>
       <c r="B249" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="3">
+      <c r="A250" s="4">
         <v>125</v>
       </c>
       <c r="B250" t="s">
@@ -6571,21 +6593,21 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="3"/>
+      <c r="A251" s="4"/>
       <c r="B251" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="3">
+      <c r="A252" s="4">
         <v>126</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="3"/>
+      <c r="A253" s="4"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="3">
+      <c r="A254" s="4">
         <v>127</v>
       </c>
       <c r="B254" t="s">
@@ -6593,13 +6615,13 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="3"/>
+      <c r="A255" s="4"/>
       <c r="B255" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="3">
+      <c r="A256" s="4">
         <v>128</v>
       </c>
       <c r="B256" t="s">
@@ -6607,13 +6629,13 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="3"/>
+      <c r="A257" s="4"/>
       <c r="B257" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="3">
+      <c r="A258" s="4">
         <v>129</v>
       </c>
       <c r="B258" t="s">
@@ -6621,13 +6643,13 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="3"/>
+      <c r="A259" s="4"/>
       <c r="B259" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="3">
+      <c r="A260" s="4">
         <v>130</v>
       </c>
       <c r="B260" t="s">
@@ -6635,13 +6657,13 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="3"/>
+      <c r="A261" s="4"/>
       <c r="B261" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="3">
+      <c r="A262" s="4">
         <v>131</v>
       </c>
       <c r="B262" t="s">
@@ -6649,13 +6671,13 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="3"/>
+      <c r="A263" s="4"/>
       <c r="B263" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="3">
+      <c r="A264" s="4">
         <v>132</v>
       </c>
       <c r="B264" t="s">
@@ -6663,13 +6685,13 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="3"/>
+      <c r="A265" s="4"/>
       <c r="B265" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="3">
+      <c r="A266" s="4">
         <v>133</v>
       </c>
       <c r="B266" t="s">
@@ -6677,13 +6699,13 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="3"/>
+      <c r="A267" s="4"/>
       <c r="B267" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="3">
+      <c r="A268" s="4">
         <v>134</v>
       </c>
       <c r="B268" t="s">
@@ -6691,13 +6713,13 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="3"/>
+      <c r="A269" s="4"/>
       <c r="B269" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="3">
+      <c r="A270" s="4">
         <v>135</v>
       </c>
       <c r="B270" t="s">
@@ -6705,37 +6727,37 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="3"/>
+      <c r="A271" s="4"/>
       <c r="B271" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="3">
+      <c r="A272" s="4">
         <v>136</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="3"/>
+      <c r="A273" s="4"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="3">
+      <c r="A274" s="4">
         <v>137</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="3"/>
+      <c r="A275" s="4"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="3">
+      <c r="A276" s="4">
         <v>138</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="3"/>
+      <c r="A277" s="4"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="3">
+      <c r="A278" s="4">
         <v>139</v>
       </c>
       <c r="B278" t="s">
@@ -6743,13 +6765,13 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="3"/>
+      <c r="A279" s="4"/>
       <c r="B279" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="3">
+      <c r="A280" s="4">
         <v>140</v>
       </c>
       <c r="B280" t="s">
@@ -6757,13 +6779,13 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="3"/>
+      <c r="A281" s="4"/>
       <c r="B281" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="3">
+      <c r="A282" s="4">
         <v>141</v>
       </c>
       <c r="B282" t="s">
@@ -6771,13 +6793,13 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="3"/>
+      <c r="A283" s="4"/>
       <c r="B283" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="3">
+      <c r="A284" s="4">
         <v>142</v>
       </c>
       <c r="B284" t="s">
@@ -6785,13 +6807,13 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="3"/>
+      <c r="A285" s="4"/>
       <c r="B285" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="3">
+      <c r="A286" s="4">
         <v>143</v>
       </c>
       <c r="B286" t="s">
@@ -6799,13 +6821,13 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="3"/>
+      <c r="A287" s="4"/>
       <c r="B287" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="3">
+      <c r="A288" s="4">
         <v>144</v>
       </c>
       <c r="B288" t="s">
@@ -6813,13 +6835,13 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="3"/>
+      <c r="A289" s="4"/>
       <c r="B289" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="3">
+      <c r="A290" s="4">
         <v>145</v>
       </c>
       <c r="B290" t="s">
@@ -6827,13 +6849,13 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="3"/>
+      <c r="A291" s="4"/>
       <c r="B291" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="3">
+      <c r="A292" s="4">
         <v>146</v>
       </c>
       <c r="B292" t="s">
@@ -6841,13 +6863,13 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="3"/>
+      <c r="A293" s="4"/>
       <c r="B293" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="3">
+      <c r="A294" s="4">
         <v>147</v>
       </c>
       <c r="B294" t="s">
@@ -6855,13 +6877,13 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="3"/>
+      <c r="A295" s="4"/>
       <c r="B295" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="3">
+      <c r="A296" s="4">
         <v>148</v>
       </c>
       <c r="B296" t="s">
@@ -6869,13 +6891,13 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="3"/>
+      <c r="A297" s="4"/>
       <c r="B297" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="3">
+      <c r="A298" s="4">
         <v>149</v>
       </c>
       <c r="B298" t="s">
@@ -6883,13 +6905,13 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="3"/>
+      <c r="A299" s="4"/>
       <c r="B299" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="3">
+      <c r="A300" s="4">
         <v>150</v>
       </c>
       <c r="B300" t="s">
@@ -6897,13 +6919,13 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="3"/>
+      <c r="A301" s="4"/>
       <c r="B301" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="3">
+      <c r="A302" s="4">
         <v>151</v>
       </c>
       <c r="B302" t="s">
@@ -6911,13 +6933,13 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="3"/>
+      <c r="A303" s="4"/>
       <c r="B303" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="3">
+      <c r="A304" s="4">
         <v>152</v>
       </c>
       <c r="B304" t="s">
@@ -6925,13 +6947,13 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="3"/>
+      <c r="A305" s="4"/>
       <c r="B305" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="3">
+      <c r="A306" s="4">
         <v>153</v>
       </c>
       <c r="B306" t="s">
@@ -6939,13 +6961,13 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="3"/>
+      <c r="A307" s="4"/>
       <c r="B307" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="3">
+      <c r="A308" s="4">
         <v>154</v>
       </c>
       <c r="B308" t="s">
@@ -6953,13 +6975,13 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="3"/>
+      <c r="A309" s="4"/>
       <c r="B309" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="3">
+      <c r="A310" s="4">
         <v>155</v>
       </c>
       <c r="B310" t="s">
@@ -6967,13 +6989,13 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="3"/>
+      <c r="A311" s="4"/>
       <c r="B311" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="3">
+      <c r="A312" s="4">
         <v>156</v>
       </c>
       <c r="B312" t="s">
@@ -6981,13 +7003,13 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="3"/>
+      <c r="A313" s="4"/>
       <c r="B313" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="3">
+      <c r="A314" s="4">
         <v>157</v>
       </c>
       <c r="B314" t="s">
@@ -6995,13 +7017,13 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="3"/>
+      <c r="A315" s="4"/>
       <c r="B315" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="3">
+      <c r="A316" s="4">
         <v>158</v>
       </c>
       <c r="B316" t="s">
@@ -7009,13 +7031,13 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="3"/>
+      <c r="A317" s="4"/>
       <c r="B317" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="3">
+      <c r="A318" s="4">
         <v>159</v>
       </c>
       <c r="B318" t="s">
@@ -7023,13 +7045,13 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="3"/>
+      <c r="A319" s="4"/>
       <c r="B319" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="3">
+      <c r="A320" s="4">
         <v>160</v>
       </c>
       <c r="B320" t="s">
@@ -7037,13 +7059,13 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="3"/>
+      <c r="A321" s="4"/>
       <c r="B321" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="3">
+      <c r="A322" s="4">
         <v>161</v>
       </c>
       <c r="B322" t="s">
@@ -7051,13 +7073,13 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="3"/>
+      <c r="A323" s="4"/>
       <c r="B323" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="3">
+      <c r="A324" s="4">
         <v>162</v>
       </c>
       <c r="B324" t="s">
@@ -7065,13 +7087,13 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="3"/>
+      <c r="A325" s="4"/>
       <c r="B325" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="3">
+      <c r="A326" s="4">
         <v>163</v>
       </c>
       <c r="B326" t="s">
@@ -7079,13 +7101,13 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="3"/>
+      <c r="A327" s="4"/>
       <c r="B327" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="3">
+      <c r="A328" s="4">
         <v>164</v>
       </c>
       <c r="B328" t="s">
@@ -7093,13 +7115,13 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="3"/>
+      <c r="A329" s="4"/>
       <c r="B329" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="3">
+      <c r="A330" s="4">
         <v>165</v>
       </c>
       <c r="B330" t="s">
@@ -7107,13 +7129,13 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="3"/>
+      <c r="A331" s="4"/>
       <c r="B331" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="3">
+      <c r="A332" s="4">
         <v>166</v>
       </c>
       <c r="B332" t="s">
@@ -7121,13 +7143,13 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="3"/>
+      <c r="A333" s="4"/>
       <c r="B333" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="3">
+      <c r="A334" s="4">
         <v>167</v>
       </c>
       <c r="B334" t="s">
@@ -7135,13 +7157,13 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="3"/>
+      <c r="A335" s="4"/>
       <c r="B335" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="3">
+      <c r="A336" s="4">
         <v>168</v>
       </c>
       <c r="B336" t="s">
@@ -7149,13 +7171,13 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="3"/>
+      <c r="A337" s="4"/>
       <c r="B337" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="3">
+      <c r="A338" s="4">
         <v>169</v>
       </c>
       <c r="B338" t="s">
@@ -7163,365 +7185,566 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="3"/>
+      <c r="A339" s="4"/>
       <c r="B339" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="3">
+      <c r="A340" s="4">
         <v>170</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="3"/>
+      <c r="A341" s="4"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="3">
+      <c r="A342" s="4">
         <v>171</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="3"/>
+      <c r="A343" s="4"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="3">
+      <c r="A344" s="4">
         <v>172</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="3"/>
+      <c r="A345" s="4"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="3">
+      <c r="A346" s="4">
         <v>173</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="3"/>
+      <c r="A347" s="4"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="3">
+      <c r="A348" s="4">
         <v>174</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="3"/>
+      <c r="A349" s="4"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="3">
+      <c r="A350" s="4">
         <v>175</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="3"/>
+      <c r="A351" s="4"/>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="3">
+      <c r="A352" s="4">
         <v>176</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" s="3"/>
+      <c r="A353" s="4"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354" s="3">
+      <c r="A354" s="4">
         <v>177</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355" s="3"/>
+      <c r="A355" s="4"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356" s="3">
+      <c r="A356" s="4">
         <v>178</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357" s="3"/>
+      <c r="A357" s="4"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" s="3">
+      <c r="A358" s="4">
         <v>179</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359" s="3"/>
+      <c r="A359" s="4"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360" s="3">
+      <c r="A360" s="4">
         <v>180</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361" s="3"/>
+      <c r="A361" s="4"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362" s="3">
+      <c r="A362" s="4">
         <v>181</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363" s="3"/>
+      <c r="A363" s="4"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" s="3">
+      <c r="A364" s="4">
         <v>182</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365" s="3"/>
+      <c r="A365" s="4"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366" s="3">
+      <c r="A366" s="4">
         <v>183</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A367" s="3"/>
+      <c r="A367" s="4"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368" s="3">
+      <c r="A368" s="4">
         <v>184</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369" s="3"/>
+      <c r="A369" s="4"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A370" s="3">
+      <c r="A370" s="4">
         <v>185</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A371" s="3"/>
+      <c r="A371" s="4"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372" s="3">
+      <c r="A372" s="4">
         <v>186</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A373" s="3"/>
+      <c r="A373" s="4"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A374" s="3">
+      <c r="A374" s="4">
         <v>187</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A375" s="3"/>
+      <c r="A375" s="4"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A376" s="3">
+      <c r="A376" s="4">
         <v>188</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A377" s="3"/>
+      <c r="A377" s="4"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A378" s="3">
+      <c r="A378" s="4">
         <v>189</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A379" s="3"/>
+      <c r="A379" s="4"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A380" s="3">
+      <c r="A380" s="4">
         <v>190</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A381" s="3"/>
+      <c r="A381" s="4"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382" s="3">
+      <c r="A382" s="4">
         <v>191</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A383" s="3"/>
+      <c r="A383" s="4"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384" s="3">
+      <c r="A384" s="4">
         <v>192</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A385" s="3"/>
+      <c r="A385" s="4"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386" s="3">
+      <c r="A386" s="4">
         <v>193</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387" s="3"/>
+      <c r="A387" s="4"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388" s="3">
+      <c r="A388" s="4">
         <v>194</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389" s="3"/>
+      <c r="A389" s="4"/>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390" s="3">
+      <c r="A390" s="4">
         <v>195</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391" s="3"/>
+      <c r="A391" s="4"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392" s="3">
+      <c r="A392" s="4">
         <v>196</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" s="3"/>
+      <c r="A393" s="4"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394" s="3">
+      <c r="A394" s="4">
         <v>197</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395" s="3"/>
+      <c r="A395" s="4"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396" s="3">
+      <c r="A396" s="4">
         <v>198</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397" s="3"/>
+      <c r="A397" s="4"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398" s="3">
+      <c r="A398" s="4">
         <v>199</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399" s="3"/>
+      <c r="A399" s="4"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400" s="3">
+      <c r="A400" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401" s="3"/>
+      <c r="A401" s="4"/>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402" s="3">
+      <c r="A402" s="4">
         <v>201</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403" s="3"/>
+      <c r="A403" s="4"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404" s="3">
+      <c r="A404" s="4">
         <v>202</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405" s="3"/>
+      <c r="A405" s="4"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406" s="3">
+      <c r="A406" s="4">
         <v>203</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407" s="3"/>
+      <c r="A407" s="4"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408" s="3">
+      <c r="A408" s="4">
         <v>204</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409" s="3"/>
+      <c r="A409" s="4"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410" s="3">
+      <c r="A410" s="4">
         <v>205</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411" s="3"/>
+      <c r="A411" s="4"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" s="3">
+      <c r="A412" s="4">
         <v>206</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413" s="3"/>
+      <c r="A413" s="4"/>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414" s="3">
+      <c r="A414" s="4">
         <v>207</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" s="3"/>
+      <c r="A415" s="4"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416" s="3">
+      <c r="A416" s="4">
         <v>208</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417" s="3"/>
+      <c r="A417" s="4"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418" s="3">
+      <c r="A418" s="4">
         <v>209</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419" s="3"/>
+      <c r="A419" s="4"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420" s="3">
+      <c r="A420" s="4">
         <v>210</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421" s="3"/>
+      <c r="A421" s="4"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422" s="3">
+      <c r="A422" s="4">
         <v>211</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423" s="3"/>
+      <c r="A423" s="4"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424" s="3">
+      <c r="A424" s="4">
         <v>212</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425" s="3"/>
+      <c r="A425" s="4"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426" s="3">
+      <c r="A426" s="4">
         <v>213</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427" s="3"/>
+      <c r="A427" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="213">
+    <mergeCell ref="A422:A423"/>
+    <mergeCell ref="A424:A425"/>
+    <mergeCell ref="A426:A427"/>
+    <mergeCell ref="A410:A411"/>
+    <mergeCell ref="A412:A413"/>
+    <mergeCell ref="A414:A415"/>
+    <mergeCell ref="A416:A417"/>
+    <mergeCell ref="A418:A419"/>
+    <mergeCell ref="A420:A421"/>
+    <mergeCell ref="A398:A399"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="A402:A403"/>
+    <mergeCell ref="A404:A405"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="A408:A409"/>
+    <mergeCell ref="A386:A387"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="A390:A391"/>
+    <mergeCell ref="A392:A393"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="A396:A397"/>
+    <mergeCell ref="A374:A375"/>
+    <mergeCell ref="A376:A377"/>
+    <mergeCell ref="A378:A379"/>
+    <mergeCell ref="A380:A381"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="A384:A385"/>
+    <mergeCell ref="A362:A363"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="A366:A367"/>
+    <mergeCell ref="A368:A369"/>
+    <mergeCell ref="A370:A371"/>
+    <mergeCell ref="A372:A373"/>
+    <mergeCell ref="A350:A351"/>
+    <mergeCell ref="A352:A353"/>
+    <mergeCell ref="A354:A355"/>
+    <mergeCell ref="A356:A357"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="A360:A361"/>
+    <mergeCell ref="A338:A339"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="A342:A343"/>
+    <mergeCell ref="A344:A345"/>
+    <mergeCell ref="A346:A347"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="A326:A327"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="A332:A333"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="A336:A337"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="A320:A321"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="A324:A325"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
@@ -7534,207 +7757,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="A278:A279"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="A282:A283"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="A288:A289"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A276:A277"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="A306:A307"/>
-    <mergeCell ref="A308:A309"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="A312:A313"/>
-    <mergeCell ref="A290:A291"/>
-    <mergeCell ref="A292:A293"/>
-    <mergeCell ref="A294:A295"/>
-    <mergeCell ref="A296:A297"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="A326:A327"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="A330:A331"/>
-    <mergeCell ref="A332:A333"/>
-    <mergeCell ref="A334:A335"/>
-    <mergeCell ref="A336:A337"/>
-    <mergeCell ref="A314:A315"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="A318:A319"/>
-    <mergeCell ref="A320:A321"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="A324:A325"/>
-    <mergeCell ref="A350:A351"/>
-    <mergeCell ref="A352:A353"/>
-    <mergeCell ref="A354:A355"/>
-    <mergeCell ref="A356:A357"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="A360:A361"/>
-    <mergeCell ref="A338:A339"/>
-    <mergeCell ref="A340:A341"/>
-    <mergeCell ref="A342:A343"/>
-    <mergeCell ref="A344:A345"/>
-    <mergeCell ref="A346:A347"/>
-    <mergeCell ref="A348:A349"/>
-    <mergeCell ref="A374:A375"/>
-    <mergeCell ref="A376:A377"/>
-    <mergeCell ref="A378:A379"/>
-    <mergeCell ref="A380:A381"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="A384:A385"/>
-    <mergeCell ref="A362:A363"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="A366:A367"/>
-    <mergeCell ref="A368:A369"/>
-    <mergeCell ref="A370:A371"/>
-    <mergeCell ref="A372:A373"/>
-    <mergeCell ref="A398:A399"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="A402:A403"/>
-    <mergeCell ref="A404:A405"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="A408:A409"/>
-    <mergeCell ref="A386:A387"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="A390:A391"/>
-    <mergeCell ref="A392:A393"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="A396:A397"/>
-    <mergeCell ref="A422:A423"/>
-    <mergeCell ref="A424:A425"/>
-    <mergeCell ref="A426:A427"/>
-    <mergeCell ref="A410:A411"/>
-    <mergeCell ref="A412:A413"/>
-    <mergeCell ref="A414:A415"/>
-    <mergeCell ref="A416:A417"/>
-    <mergeCell ref="A418:A419"/>
-    <mergeCell ref="A420:A421"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
